--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VNO0785\Desktop\chatbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\PycharmProjects\Datahub Chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA179EE-EBC2-45AE-948A-076D8C2ED071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55C776C-8620-41A1-A173-98294DB5C1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FAQ!$A$1:$A$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$111</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="16"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="408">
   <si>
     <t>Category</t>
   </si>
@@ -833,18 +833,12 @@
     <t>https://app.powerbi.com/groups/me/apps/d9d996c1-f43c-46d5-ad19-1a9484144d8b/reports/977c0871-d185-4ae2-adcd-6ad51527dfed/ReportSection?ctid=18a01ad8-9727-498a-a47d-17374c6fd9f7&amp;experience=power-bi</t>
   </si>
   <si>
-    <t>Platform</t>
-  </si>
-  <si>
     <t>Platform Model</t>
   </si>
   <si>
     <t>Ace Model</t>
   </si>
   <si>
-    <t>Platform Architecture</t>
-  </si>
-  <si>
     <t>Ace Architecture</t>
   </si>
   <si>
@@ -942,6 +936,336 @@
   </si>
   <si>
     <t>What is the process for Onboarding in DE-DI</t>
+  </si>
+  <si>
+    <t>What is D&amp;A Platform Team ?</t>
+  </si>
+  <si>
+    <t>What are the D&amp;A Platform towers?</t>
+  </si>
+  <si>
+    <t>What is the Org Structure of D&amp;A Platform Team ? Who are key leads along with their contact details.</t>
+  </si>
+  <si>
+    <t>How can I onboard new projects or request changes for existing ones?</t>
+  </si>
+  <si>
+    <t>What are the key mandatory fields one needs to fill out for onbaording a new project?</t>
+  </si>
+  <si>
+    <t>Are there any sample screenshots and steps one needs to follow while placing a request?</t>
+  </si>
+  <si>
+    <t>What are the core services offered by the D&amp;A platform team?</t>
+  </si>
+  <si>
+    <t>What tools are the core services under the Visualization tower?</t>
+  </si>
+  <si>
+    <t>What are the best bractices for using PowerBI?</t>
+  </si>
+  <si>
+    <t>What are the best bractices for using Tableau?</t>
+  </si>
+  <si>
+    <t>What are the steps to create new report in SAC?</t>
+  </si>
+  <si>
+    <t>What services are available under the Google Cloud platform?</t>
+  </si>
+  <si>
+    <t>How to download Service Account Key for GCP ?</t>
+  </si>
+  <si>
+    <t>How to create AD groups when prior to starting a new project in D&amp;A ?</t>
+  </si>
+  <si>
+    <t>How to add new members to a AD group that has been created for a D&amp;A project?</t>
+  </si>
+  <si>
+    <t>What are best practices one has to follow for GCP?</t>
+  </si>
+  <si>
+    <t>What services does the Azure &amp; Databricks tower provide?</t>
+  </si>
+  <si>
+    <t>How to get started with Azure Databricks?</t>
+  </si>
+  <si>
+    <t>What is the current MDLZ- Azure HLD set up ?</t>
+  </si>
+  <si>
+    <t>What are the best practices related to Azure and Databricks services?</t>
+  </si>
+  <si>
+    <t>What services does the data integration tower provide?</t>
+  </si>
+  <si>
+    <t>What are the general guidelines for Alteryx usage?</t>
+  </si>
+  <si>
+    <t>What are the best practices for Alteryx and how to set up a new project?</t>
+  </si>
+  <si>
+    <t>How to raise a servicenow ticket for Alteryx?</t>
+  </si>
+  <si>
+    <t>How can I create custom reports and visualizations from Alteryx workflows?</t>
+  </si>
+  <si>
+    <t>Are there any training documents for Alteryx?</t>
+  </si>
+  <si>
+    <t>What is Aecorsoft, and how does it help with data integration?</t>
+  </si>
+  <si>
+    <t>How can Aecorsoft help me get real-time insights from my integrated data sources? Is there a developer guide?</t>
+  </si>
+  <si>
+    <t>Who should I contact if my data integration job in Aecorsoft fails?</t>
+  </si>
+  <si>
+    <t>How do I request access to specific data sets or reports through Collibra?</t>
+  </si>
+  <si>
+    <t>How can I use Collibra to check the quality of data I’m working with?</t>
+  </si>
+  <si>
+    <t>What tools and services are offered under SAP BI services?</t>
+  </si>
+  <si>
+    <t>Where can I find documents related to SAP BI reporting and analytics?</t>
+  </si>
+  <si>
+    <t>How can I access support resources for SAP BI?</t>
+  </si>
+  <si>
+    <t>Who do I reach out to incase I need any support?</t>
+  </si>
+  <si>
+    <t>How do I raise a support ticket for issues related to the D&amp;A platform?</t>
+  </si>
+  <si>
+    <t>How can I request access to specific D&amp;A platform environments?</t>
+  </si>
+  <si>
+    <t>Where can I find information on pre-production environment?</t>
+  </si>
+  <si>
+    <t>What are the expectation from Product teams on the usage of Pre-Prod environment?</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A-Data-Platform-Team.aspx#d-a-platform-towers</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A-Data-Platform-Team.aspx#d-a-platform-lead</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A%20Platform%20Onboarding%20Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A%20Platform%20Onboarding%20Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9#key-fields</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A%20Platform%20Onboarding%20Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9#demand-intake-form</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx#visualization-platforms</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/r/sites/PowerBI/Shared%20Documents/Tips%20for%20Report%20Developers/Power%20BI%20Best%20Practices%20for%20developers.pdf?csf=1&amp;web=1&amp;e=9tnggy</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/r/sites/Tableau/Shared%20Documents/Tips%20for%20Report%20Developers/Tableau%20Best%20Practices.pdf?csf=1&amp;web=1&amp;e=6kgBe6</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/r/sites/SAC/Shared%20Documents/AfO%20-%20Guide%20for%20new%20report%20creation%20(all%20SAP%20systems).pdf?csf=1&amp;web=1&amp;e=BVnj9d</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx#google-cloud-platform</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/GCP%20Platform/ServiceAccountKey-Download.pdf?csf=1&amp;web=1&amp;e=emHooC</t>
+  </si>
+  <si>
+    <t>https://mdlz.service-now.com/technology?id=itsm_kb_article_view&amp;sys_kb_id=94fde5611b3eb11465240f6ce54bcb5b</t>
+  </si>
+  <si>
+    <t>https://accesscenter.mdlz.com/workitem/commonWorkItem.jsf#/commonWorkItem/session</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/s/MDSDataAnalyticsPlatforms/EeHDMygGpZJHofrok0XSxZ0BU9Df2htKIarfIx77PCDajA?e=J42ClW</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx#azure-cloud-platform</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/Azure%20Platform/Databricks_Platform_Overview_0.2.pdf?csf=1&amp;web=1&amp;e=ztKvMt</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/Azure%20Platform/MDLZ-Azure-Design-Diagrams-V2%20-%20Azure-HLD1.pdf?csf=1&amp;web=1&amp;e=JqdokL</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx#data-integration-platforms</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared%20Documents/Guidlines%20for%20Alteryx%20usage-%20MDLZ.pdf?csf=1&amp;web=1&amp;e=owyGdK</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared%20Documents/Alteryx%20New%20Project%20Setup%20%26%20Best%20Practices.pdf?csf=1&amp;web=1&amp;e=2NAIcG</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared%20Documents/Alteryx%20Incident%20Creation%20in%20Service%20Now%20(SNOW).pdf?csf=1&amp;web=1&amp;e=TCJuLt</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared%20Documents/Alteryx%20Training/Alteryx%20Inhouse%20Training%20by%20Vendor.pdf?csf=1&amp;web=1&amp;e=JrCtym</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/476726bd-ea7b-45d3-a539-a542ceb24f67</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:f:/r/sites/AecorSoft/Shared%20Documents/Developer%20Guides?csf=1&amp;web=1&amp;e=ibnmci</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/r/sites/AecorSoft/Shared%20Documents/Aecrosoft_Incident_Creation_SNOW.pdf?csf=1&amp;web=1&amp;e=PhhiaJ</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx#sap-bi-platform</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Contact-Us.aspx</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre%20Prod%20Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre%20Prod%20Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k#expectation-from-product-teams</t>
+  </si>
+  <si>
+    <t>MDSDataAnalyticsPlatforms</t>
+  </si>
+  <si>
+    <t>D&amp;A-Data-Platform-Team</t>
+  </si>
+  <si>
+    <t>D&amp;A-Data-Platform-Team-Leads</t>
+  </si>
+  <si>
+    <t>Platform COE</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Service Catalogue</t>
+  </si>
+  <si>
+    <t>Visualization Tower</t>
+  </si>
+  <si>
+    <t>GCP Tower</t>
+  </si>
+  <si>
+    <t>Azure/ DB Tower</t>
+  </si>
+  <si>
+    <t>Integration tower</t>
+  </si>
+  <si>
+    <t>SAP BI Tower</t>
+  </si>
+  <si>
+    <t>Platform Team Support</t>
+  </si>
+  <si>
+    <t>Pre-Prod Setup</t>
+  </si>
+  <si>
+    <t>D&amp;A Platform Onboarding Form</t>
+  </si>
+  <si>
+    <t>D&amp;A Platform Onboarding Form (Key Fields)</t>
+  </si>
+  <si>
+    <t>Demand Intake Form</t>
+  </si>
+  <si>
+    <t>Services under visualization Tower</t>
+  </si>
+  <si>
+    <t>Power BI Best Practices</t>
+  </si>
+  <si>
+    <t>Tableau Best Practices</t>
+  </si>
+  <si>
+    <t>SAC Report Creation</t>
+  </si>
+  <si>
+    <t>GCP Service Catalogue</t>
+  </si>
+  <si>
+    <t>Service Account Key Download</t>
+  </si>
+  <si>
+    <t>AD group creation Steps</t>
+  </si>
+  <si>
+    <t>AD group member addition</t>
+  </si>
+  <si>
+    <t>GCP Best Practices</t>
+  </si>
+  <si>
+    <t>Azure Databricks Service Catalogue</t>
+  </si>
+  <si>
+    <t>Databricks Platform Overview</t>
+  </si>
+  <si>
+    <t>MDLZ Azure Design Diagrams</t>
+  </si>
+  <si>
+    <t>Data Integration Service Catalogue</t>
+  </si>
+  <si>
+    <t>Alteryx Usage Guidelines</t>
+  </si>
+  <si>
+    <t>Alteryx New Project Setup</t>
+  </si>
+  <si>
+    <t>Alteryx Incident Creation</t>
+  </si>
+  <si>
+    <t>Alteryx Training Documents</t>
+  </si>
+  <si>
+    <t>Aecorsoft Introduction</t>
+  </si>
+  <si>
+    <t>Aecorsoft Developer Guide</t>
+  </si>
+  <si>
+    <t>Aecorsoft Incident Creation</t>
+  </si>
+  <si>
+    <t>SAP BI Service Catalogue</t>
+  </si>
+  <si>
+    <t>Platform Team Contact</t>
+  </si>
+  <si>
+    <t>Pre-Prod Readiness</t>
+  </si>
+  <si>
+    <t>Pre-Prod Expectations from Product Team</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1066,6 +1390,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1382,11 +1709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="G75" sqref="G62:G75"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="87" zoomScaleNormal="72" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1395,7 +1722,7 @@
     <col min="2" max="2" width="43.26953125" customWidth="1"/>
     <col min="3" max="3" width="40.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.54296875" customWidth="1"/>
     <col min="6" max="6" width="106" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
@@ -1425,18 +1752,18 @@
         <v>205</v>
       </c>
       <c r="G1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1456,12 +1783,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1477,12 +1804,12 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1498,12 +1825,12 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1519,12 +1846,12 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1540,12 +1867,12 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1565,12 +1892,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -1582,16 +1909,16 @@
         <v>138</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -1611,12 +1938,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -1632,12 +1959,12 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -1657,12 +1984,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -1684,10 +2011,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -1703,12 +2030,12 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
@@ -1726,10 +2053,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -1747,10 +2074,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -1772,10 +2099,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -1791,9 +2118,9 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
@@ -1812,9 +2139,9 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
@@ -1833,9 +2160,9 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
@@ -1854,9 +2181,9 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
@@ -1875,9 +2202,9 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
@@ -1896,12 +2223,12 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>31</v>
@@ -1917,9 +2244,9 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -1938,12 +2265,12 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
@@ -1959,12 +2286,12 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
@@ -1980,12 +2307,12 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>22</v>
@@ -2001,12 +2328,12 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -2022,12 +2349,12 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>26</v>
@@ -2043,12 +2370,12 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>26</v>
@@ -2064,12 +2391,12 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>27</v>
@@ -2085,12 +2412,12 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>27</v>
@@ -2106,12 +2433,12 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>27</v>
@@ -2129,10 +2456,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>22</v>
@@ -2148,12 +2475,12 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>31</v>
@@ -2165,16 +2492,16 @@
         <v>151</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>31</v>
@@ -2186,16 +2513,16 @@
         <v>151</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>31</v>
@@ -2211,12 +2538,12 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>31</v>
@@ -2232,12 +2559,12 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
@@ -2253,12 +2580,12 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
@@ -2274,12 +2601,12 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
@@ -2295,12 +2622,12 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>28</v>
@@ -2316,12 +2643,12 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>28</v>
@@ -2337,12 +2664,12 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
@@ -2358,12 +2685,12 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>30</v>
@@ -2379,12 +2706,12 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>30</v>
@@ -2400,12 +2727,12 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>34</v>
@@ -2421,12 +2748,12 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>35</v>
@@ -2442,12 +2769,12 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>36</v>
@@ -2463,12 +2790,12 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>37</v>
@@ -2484,12 +2811,12 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>38</v>
@@ -2505,12 +2832,12 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>39</v>
@@ -2526,12 +2853,12 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>40</v>
@@ -2547,12 +2874,12 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>41</v>
@@ -2568,12 +2895,12 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>22</v>
@@ -2589,12 +2916,12 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>22</v>
@@ -2610,12 +2937,12 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>22</v>
@@ -2631,12 +2958,12 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>22</v>
@@ -2652,12 +2979,12 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>22</v>
@@ -2675,10 +3002,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>42</v>
@@ -2694,12 +3021,12 @@
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>42</v>
@@ -2717,10 +3044,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
@@ -2738,10 +3065,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
@@ -2759,10 +3086,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>43</v>
@@ -2780,10 +3107,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>44</v>
@@ -2799,12 +3126,12 @@
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>268</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>22</v>
@@ -2820,12 +3147,12 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>22</v>
@@ -2843,10 +3170,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
@@ -2864,10 +3191,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
@@ -2883,12 +3210,12 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>23</v>
@@ -2904,12 +3231,12 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>29</v>
@@ -2925,12 +3252,12 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>23</v>
@@ -2946,12 +3273,12 @@
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>23</v>
@@ -2963,16 +3290,16 @@
         <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
@@ -2990,10 +3317,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
@@ -3011,10 +3338,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
@@ -3030,12 +3357,12 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>268</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>157</v>
@@ -3050,12 +3377,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>268</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>159</v>
@@ -3070,12 +3397,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>161</v>
@@ -3090,12 +3417,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>268</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>163</v>
@@ -3110,12 +3437,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>165</v>
@@ -3130,12 +3457,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>167</v>
@@ -3150,12 +3477,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>169</v>
@@ -3170,12 +3497,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>171</v>
@@ -3190,12 +3517,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>173</v>
@@ -3210,12 +3537,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>175</v>
@@ -3230,12 +3557,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>177</v>
@@ -3250,12 +3577,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>268</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>179</v>
@@ -3270,12 +3597,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>181</v>
@@ -3290,12 +3617,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>181</v>
@@ -3310,12 +3637,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>184</v>
@@ -3330,12 +3657,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>165</v>
@@ -3350,12 +3677,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>165</v>
@@ -3370,12 +3697,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>223</v>
@@ -3390,12 +3717,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>223</v>
@@ -3410,12 +3737,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>223</v>
@@ -3430,12 +3757,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>22</v>
@@ -3450,12 +3777,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>232</v>
@@ -3470,12 +3797,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>235</v>
@@ -3490,12 +3817,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>238</v>
@@ -3510,12 +3837,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>238</v>
@@ -3530,12 +3857,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>235</v>
@@ -3550,12 +3877,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>235</v>
@@ -3570,12 +3897,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>235</v>
@@ -3590,9 +3917,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>259</v>
@@ -3607,12 +3934,12 @@
         <v>260</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B106" t="s">
         <v>259</v>
@@ -3627,12 +3954,12 @@
         <v>260</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>261</v>
@@ -3647,12 +3974,12 @@
         <v>262</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>264</v>
@@ -3670,18 +3997,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>140</v>
@@ -3690,56 +4017,740 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>290</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>265</v>
+        <v>371</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="D110" t="s">
+        <v>298</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>140</v>
+        <v>337</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>290</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>267</v>
+        <v>371</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="D111" t="s">
+        <v>299</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.35"/>
+        <v>338</v>
+      </c>
+      <c r="F111" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>371</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="D112" t="s">
+        <v>300</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F112" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>371</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D113" t="s">
+        <v>301</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F113" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D114" t="s">
+        <v>302</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F114" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D115" t="s">
+        <v>303</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F115" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>371</v>
+      </c>
+      <c r="B116" t="s">
+        <v>373</v>
+      </c>
+      <c r="C116" t="s">
+        <v>373</v>
+      </c>
+      <c r="D116" t="s">
+        <v>304</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F116" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>371</v>
+      </c>
+      <c r="B117" t="s">
+        <v>374</v>
+      </c>
+      <c r="C117" t="s">
+        <v>374</v>
+      </c>
+      <c r="D117" t="s">
+        <v>305</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F117" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>371</v>
+      </c>
+      <c r="B118" t="s">
+        <v>374</v>
+      </c>
+      <c r="C118" t="s">
+        <v>374</v>
+      </c>
+      <c r="D118" t="s">
+        <v>306</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F118" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>371</v>
+      </c>
+      <c r="B119" t="s">
+        <v>374</v>
+      </c>
+      <c r="C119" t="s">
+        <v>374</v>
+      </c>
+      <c r="D119" t="s">
+        <v>307</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F119" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>371</v>
+      </c>
+      <c r="B120" t="s">
+        <v>374</v>
+      </c>
+      <c r="C120" t="s">
+        <v>374</v>
+      </c>
+      <c r="D120" t="s">
+        <v>308</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F120" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>371</v>
+      </c>
+      <c r="B121" t="s">
+        <v>375</v>
+      </c>
+      <c r="C121" t="s">
+        <v>375</v>
+      </c>
+      <c r="D121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F121" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>371</v>
+      </c>
+      <c r="B122" t="s">
+        <v>375</v>
+      </c>
+      <c r="C122" t="s">
+        <v>375</v>
+      </c>
+      <c r="D122" t="s">
+        <v>310</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F122" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>371</v>
+      </c>
+      <c r="B123" t="s">
+        <v>375</v>
+      </c>
+      <c r="C123" t="s">
+        <v>375</v>
+      </c>
+      <c r="D123" t="s">
+        <v>311</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F123" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>371</v>
+      </c>
+      <c r="B124" t="s">
+        <v>375</v>
+      </c>
+      <c r="C124" t="s">
+        <v>375</v>
+      </c>
+      <c r="D124" t="s">
+        <v>312</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F124" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>371</v>
+      </c>
+      <c r="B125" t="s">
+        <v>375</v>
+      </c>
+      <c r="C125" t="s">
+        <v>375</v>
+      </c>
+      <c r="D125" t="s">
+        <v>313</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F125" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>371</v>
+      </c>
+      <c r="B126" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" t="s">
+        <v>376</v>
+      </c>
+      <c r="D126" t="s">
+        <v>314</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F126" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>371</v>
+      </c>
+      <c r="B127" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" t="s">
+        <v>376</v>
+      </c>
+      <c r="D127" t="s">
+        <v>315</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F127" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>371</v>
+      </c>
+      <c r="B128" t="s">
+        <v>376</v>
+      </c>
+      <c r="C128" t="s">
+        <v>376</v>
+      </c>
+      <c r="D128" t="s">
+        <v>316</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F128" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>371</v>
+      </c>
+      <c r="B129" t="s">
+        <v>376</v>
+      </c>
+      <c r="C129" t="s">
+        <v>376</v>
+      </c>
+      <c r="D129" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>371</v>
+      </c>
+      <c r="B130" t="s">
+        <v>377</v>
+      </c>
+      <c r="C130" t="s">
+        <v>377</v>
+      </c>
+      <c r="D130" t="s">
+        <v>318</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F130" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>371</v>
+      </c>
+      <c r="B131" t="s">
+        <v>377</v>
+      </c>
+      <c r="C131" t="s">
+        <v>377</v>
+      </c>
+      <c r="D131" t="s">
+        <v>319</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F131" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>371</v>
+      </c>
+      <c r="B132" t="s">
+        <v>377</v>
+      </c>
+      <c r="C132" t="s">
+        <v>377</v>
+      </c>
+      <c r="D132" t="s">
+        <v>320</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F132" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" t="s">
+        <v>377</v>
+      </c>
+      <c r="C133" t="s">
+        <v>377</v>
+      </c>
+      <c r="D133" t="s">
+        <v>321</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F133" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134" t="s">
+        <v>377</v>
+      </c>
+      <c r="C134" t="s">
+        <v>377</v>
+      </c>
+      <c r="D134" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>371</v>
+      </c>
+      <c r="B135" t="s">
+        <v>377</v>
+      </c>
+      <c r="C135" t="s">
+        <v>377</v>
+      </c>
+      <c r="D135" t="s">
+        <v>323</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F135" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>371</v>
+      </c>
+      <c r="B136" t="s">
+        <v>377</v>
+      </c>
+      <c r="C136" t="s">
+        <v>377</v>
+      </c>
+      <c r="D136" t="s">
+        <v>324</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F136" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>371</v>
+      </c>
+      <c r="B137" t="s">
+        <v>377</v>
+      </c>
+      <c r="C137" t="s">
+        <v>377</v>
+      </c>
+      <c r="D137" t="s">
+        <v>325</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F137" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>371</v>
+      </c>
+      <c r="B138" t="s">
+        <v>377</v>
+      </c>
+      <c r="C138" t="s">
+        <v>377</v>
+      </c>
+      <c r="D138" t="s">
+        <v>326</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F138" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>371</v>
+      </c>
+      <c r="B139" t="s">
+        <v>377</v>
+      </c>
+      <c r="C139" t="s">
+        <v>377</v>
+      </c>
+      <c r="D139" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>371</v>
+      </c>
+      <c r="B140" t="s">
+        <v>377</v>
+      </c>
+      <c r="C140" t="s">
+        <v>377</v>
+      </c>
+      <c r="D140" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>371</v>
+      </c>
+      <c r="B141" t="s">
+        <v>378</v>
+      </c>
+      <c r="C141" t="s">
+        <v>378</v>
+      </c>
+      <c r="D141" t="s">
+        <v>329</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F141" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>371</v>
+      </c>
+      <c r="B142" t="s">
+        <v>378</v>
+      </c>
+      <c r="C142" t="s">
+        <v>378</v>
+      </c>
+      <c r="D142" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>371</v>
+      </c>
+      <c r="B143" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" t="s">
+        <v>378</v>
+      </c>
+      <c r="D143" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>371</v>
+      </c>
+      <c r="B144" t="s">
+        <v>379</v>
+      </c>
+      <c r="C144" t="s">
+        <v>379</v>
+      </c>
+      <c r="D144" t="s">
+        <v>332</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F144" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>371</v>
+      </c>
+      <c r="B145" t="s">
+        <v>379</v>
+      </c>
+      <c r="C145" t="s">
+        <v>379</v>
+      </c>
+      <c r="D145" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>371</v>
+      </c>
+      <c r="B146" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146" t="s">
+        <v>379</v>
+      </c>
+      <c r="D146" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>371</v>
+      </c>
+      <c r="B147" t="s">
+        <v>380</v>
+      </c>
+      <c r="C147" t="s">
+        <v>380</v>
+      </c>
+      <c r="D147" t="s">
+        <v>335</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F147" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>371</v>
+      </c>
+      <c r="B148" t="s">
+        <v>380</v>
+      </c>
+      <c r="C148" t="s">
+        <v>380</v>
+      </c>
+      <c r="D148" t="s">
+        <v>336</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F148" t="s">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G113" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Demand Intake"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G111" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}"/>
   <hyperlinks>
     <hyperlink ref="L11" r:id="rId1" display="https://teams.mdlz.com/:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{C9234C41-0B35-449D-A059-14FCD43DD586}"/>
     <hyperlink ref="L12" r:id="rId2" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{B1E49C27-813B-4F81-B6D4-F88CC7C95F9A}"/>
@@ -3943,34 +4954,61 @@
     <hyperlink ref="E105" r:id="rId200" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model&amp;viewid=dcc42cc8%2D5e92%2D450b%2D8c7b%2Df21901772f1b" xr:uid="{2BE61D3D-415D-4E7D-85BF-664170F30D5D}"/>
     <hyperlink ref="E106" r:id="rId201" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model&amp;viewid=dcc42cc8%2D5e92%2D450b%2D8c7b%2Df21901772f1b" xr:uid="{0FBD40C5-5948-4E7B-B979-B793BAFE3A7B}"/>
     <hyperlink ref="E107" r:id="rId202" xr:uid="{03A3F923-37DF-44A0-A311-174468E1C4EB}"/>
-    <hyperlink ref="E108" r:id="rId203" xr:uid="{0F61CA34-FF82-4248-AD41-FC958A021A4F}"/>
-    <hyperlink ref="E109" r:id="rId204" xr:uid="{418535C2-51FB-484A-8022-54D7D40E501D}"/>
-    <hyperlink ref="E110" r:id="rId205" xr:uid="{24FF202B-A587-42B0-AE49-F9857B3462DD}"/>
-    <hyperlink ref="E111" r:id="rId206" xr:uid="{9AB4B75C-ED9C-4F23-BED0-64C49C35A3E2}"/>
-    <hyperlink ref="F111" r:id="rId207" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{F8B661F3-96D8-49A4-8579-7F3489533908}"/>
-    <hyperlink ref="F110" r:id="rId208" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{427EC185-FBEB-4B6C-A6B3-032ACEAEE1D1}"/>
-    <hyperlink ref="F109" r:id="rId209" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{CBB3A2B0-E9A7-4137-9EE5-6C350B4B60CD}"/>
-    <hyperlink ref="F108" r:id="rId210" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{D919740D-4FC7-42EF-9569-0BB2AD204EAA}"/>
-    <hyperlink ref="F107" r:id="rId211" xr:uid="{4A588F2E-2B21-41B9-B104-140521E2DBBA}"/>
-    <hyperlink ref="F106" r:id="rId212" xr:uid="{54360AF2-A9CE-4052-BC53-6B6E1E9C3791}"/>
-    <hyperlink ref="F105" r:id="rId213" xr:uid="{265F8B63-B119-4B33-BCF5-924779F12F13}"/>
-    <hyperlink ref="E21" r:id="rId214" xr:uid="{82E9383D-E231-4B23-9568-6115CE756F91}"/>
-    <hyperlink ref="E47" r:id="rId215" xr:uid="{DA62E039-3933-4ABA-9494-9E077E79A90A}"/>
-    <hyperlink ref="E11" r:id="rId216" location="high-level-strategy" xr:uid="{BE629C0D-5232-4AB8-BDA5-9214137B74B5}"/>
-    <hyperlink ref="F11" r:id="rId217" location="high-level-strategy" xr:uid="{86F48422-B2BF-448D-9506-033BF050C9C2}"/>
-    <hyperlink ref="E8" r:id="rId218" xr:uid="{B45386E7-725E-4E43-B0B0-1B5B4746AFAA}"/>
-    <hyperlink ref="F8" r:id="rId219" xr:uid="{F8AF2894-89D2-4E61-99C0-3EF6A2A45772}"/>
-    <hyperlink ref="E4" r:id="rId220" xr:uid="{9C103A79-9393-4909-9F3C-32133C732BE2}"/>
-    <hyperlink ref="E3" r:id="rId221" xr:uid="{F12BBEE6-3B70-4130-B5C4-A18DB599B09D}"/>
-    <hyperlink ref="E2" r:id="rId222" xr:uid="{C54A4052-5FFF-4249-A974-22CF6073179F}"/>
-    <hyperlink ref="F31" r:id="rId223" display="../../../../:w:/s/dadocumentrepository/EZEgrySuDI5ChmDd2oec7XoBnfmEyvUwV3n0OdOE2dKvVA" xr:uid="{A023D956-A386-434F-87BD-FA25FDD8889B}"/>
-    <hyperlink ref="F36" r:id="rId224" xr:uid="{D07B1093-AFBF-44F2-B333-846046DE774C}"/>
-    <hyperlink ref="F73" r:id="rId225" xr:uid="{C449116A-1DE7-41DE-9A54-078C825C4B9F}"/>
-    <hyperlink ref="E25" r:id="rId226" xr:uid="{D13E82E2-4EFF-4FD7-95EC-8933932CF73D}"/>
-    <hyperlink ref="F25" r:id="rId227" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{4E97E50B-8F1C-4C4A-B517-F317866C8FF8}"/>
+    <hyperlink ref="E108" r:id="rId203" xr:uid="{24FF202B-A587-42B0-AE49-F9857B3462DD}"/>
+    <hyperlink ref="E109" r:id="rId204" xr:uid="{9AB4B75C-ED9C-4F23-BED0-64C49C35A3E2}"/>
+    <hyperlink ref="F109" r:id="rId205" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{F8B661F3-96D8-49A4-8579-7F3489533908}"/>
+    <hyperlink ref="F108" r:id="rId206" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{427EC185-FBEB-4B6C-A6B3-032ACEAEE1D1}"/>
+    <hyperlink ref="F107" r:id="rId207" xr:uid="{4A588F2E-2B21-41B9-B104-140521E2DBBA}"/>
+    <hyperlink ref="F106" r:id="rId208" xr:uid="{54360AF2-A9CE-4052-BC53-6B6E1E9C3791}"/>
+    <hyperlink ref="F105" r:id="rId209" xr:uid="{265F8B63-B119-4B33-BCF5-924779F12F13}"/>
+    <hyperlink ref="E21" r:id="rId210" xr:uid="{82E9383D-E231-4B23-9568-6115CE756F91}"/>
+    <hyperlink ref="E47" r:id="rId211" xr:uid="{DA62E039-3933-4ABA-9494-9E077E79A90A}"/>
+    <hyperlink ref="E11" r:id="rId212" location="high-level-strategy" xr:uid="{BE629C0D-5232-4AB8-BDA5-9214137B74B5}"/>
+    <hyperlink ref="F11" r:id="rId213" location="high-level-strategy" xr:uid="{86F48422-B2BF-448D-9506-033BF050C9C2}"/>
+    <hyperlink ref="E8" r:id="rId214" xr:uid="{B45386E7-725E-4E43-B0B0-1B5B4746AFAA}"/>
+    <hyperlink ref="F8" r:id="rId215" xr:uid="{F8AF2894-89D2-4E61-99C0-3EF6A2A45772}"/>
+    <hyperlink ref="E4" r:id="rId216" xr:uid="{9C103A79-9393-4909-9F3C-32133C732BE2}"/>
+    <hyperlink ref="E3" r:id="rId217" xr:uid="{F12BBEE6-3B70-4130-B5C4-A18DB599B09D}"/>
+    <hyperlink ref="E2" r:id="rId218" xr:uid="{C54A4052-5FFF-4249-A974-22CF6073179F}"/>
+    <hyperlink ref="F31" r:id="rId219" display="../../../../:w:/s/dadocumentrepository/EZEgrySuDI5ChmDd2oec7XoBnfmEyvUwV3n0OdOE2dKvVA" xr:uid="{A023D956-A386-434F-87BD-FA25FDD8889B}"/>
+    <hyperlink ref="F36" r:id="rId220" xr:uid="{D07B1093-AFBF-44F2-B333-846046DE774C}"/>
+    <hyperlink ref="F73" r:id="rId221" xr:uid="{C449116A-1DE7-41DE-9A54-078C825C4B9F}"/>
+    <hyperlink ref="E25" r:id="rId222" xr:uid="{D13E82E2-4EFF-4FD7-95EC-8933932CF73D}"/>
+    <hyperlink ref="F25" r:id="rId223" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{4E97E50B-8F1C-4C4A-B517-F317866C8FF8}"/>
+    <hyperlink ref="E111" r:id="rId224" location="d-a-platform-towers" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A-Data-Platform-Team.aspx - d-a-platform-towers" xr:uid="{82C02E8A-9293-4DF8-AEFD-D1639C1DD778}"/>
+    <hyperlink ref="E110" r:id="rId225" xr:uid="{2CDEA772-74D6-4D98-8C63-D785A4F6F75C}"/>
+    <hyperlink ref="E112" r:id="rId226" location="d-a-platform-lead" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A-Data-Platform-Team.aspx - d-a-platform-lead" xr:uid="{60C3EBAE-D81F-4E6E-A887-4A7F53397D23}"/>
+    <hyperlink ref="E113" r:id="rId227" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A Platform Onboarding Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9" xr:uid="{F8997EA5-6A34-4599-B1C7-926DD4F39BA2}"/>
+    <hyperlink ref="E114" r:id="rId228" location="key-fields" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A Platform Onboarding Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9 - key-fields" xr:uid="{438F1AAB-6A28-4FDB-8C74-54B62127F087}"/>
+    <hyperlink ref="E115" r:id="rId229" location="demand-intake-form" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A Platform Onboarding Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9 - demand-intake-form" xr:uid="{C8DF7653-EEDB-4A4D-B700-A20BA46B356E}"/>
+    <hyperlink ref="E116" r:id="rId230" xr:uid="{5F6DB574-2F43-46F8-83FC-27C7DC104820}"/>
+    <hyperlink ref="E117" r:id="rId231" location="visualization-platforms" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - visualization-platforms" xr:uid="{795DD2D7-561F-4CC1-8D65-909EC33C9665}"/>
+    <hyperlink ref="E118" r:id="rId232" display="https://collaboration.mdlz.com/:b:/r/sites/PowerBI/Shared Documents/Tips for Report Developers/Power BI Best Practices for developers.pdf?csf=1&amp;web=1&amp;e=9tnggy" xr:uid="{DDB854F1-8A7B-43CF-A1E1-1282CD235ABC}"/>
+    <hyperlink ref="E119" r:id="rId233" display="https://collaboration.mdlz.com/:b:/r/sites/Tableau/Shared Documents/Tips for Report Developers/Tableau Best Practices.pdf?csf=1&amp;web=1&amp;e=6kgBe6" xr:uid="{0371C225-3AE5-4274-AB12-E23844E4790E}"/>
+    <hyperlink ref="E120" r:id="rId234" display="https://collaboration.mdlz.com/:b:/r/sites/SAC/Shared Documents/AfO - Guide for new report creation (all SAP systems).pdf?csf=1&amp;web=1&amp;e=BVnj9d" xr:uid="{A5D59FB6-66EF-4CD9-8C61-47805457AE5C}"/>
+    <hyperlink ref="E121" r:id="rId235" location="google-cloud-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - google-cloud-platform" xr:uid="{006E1D7A-DFA9-4791-8934-88482D1413D1}"/>
+    <hyperlink ref="E122" r:id="rId236" display="https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/GCP Platform/ServiceAccountKey-Download.pdf?csf=1&amp;web=1&amp;e=emHooC" xr:uid="{831EA643-DF0E-4FE2-89B6-364B5BD478F9}"/>
+    <hyperlink ref="E123" r:id="rId237" xr:uid="{4152BBEC-8B67-4BFB-BD6E-4B3A551EF73C}"/>
+    <hyperlink ref="E124" r:id="rId238" location="/commonWorkItem/session" display="https://accesscenter.mdlz.com/workitem/commonWorkItem.jsf - /commonWorkItem/session" xr:uid="{D9CB915F-1FA2-45D3-AAE5-05D9E0728E26}"/>
+    <hyperlink ref="E125" r:id="rId239" xr:uid="{CE6293EA-12E2-4726-881D-8EE0952B146D}"/>
+    <hyperlink ref="E126" r:id="rId240" location="azure-cloud-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - azure-cloud-platform" xr:uid="{03EA318F-4F44-4564-BDB2-9B1BDB28E2CE}"/>
+    <hyperlink ref="E127" r:id="rId241" display="https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/Azure Platform/Databricks_Platform_Overview_0.2.pdf?csf=1&amp;web=1&amp;e=ztKvMt" xr:uid="{D66210B6-DE46-435B-9D50-0821EEF406A7}"/>
+    <hyperlink ref="E128" r:id="rId242" display="https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/Azure Platform/MDLZ-Azure-Design-Diagrams-V2 - Azure-HLD1.pdf?csf=1&amp;web=1&amp;e=JqdokL" xr:uid="{5F8FE5E4-3139-4DD4-912D-5554A2D3F484}"/>
+    <hyperlink ref="E130" r:id="rId243" location="data-integration-platforms" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - data-integration-platforms" xr:uid="{DBCD28CC-93A8-4C9B-B4E9-44A5D42822E4}"/>
+    <hyperlink ref="E131" r:id="rId244" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Guidlines for Alteryx usage- MDLZ.pdf?csf=1&amp;web=1&amp;e=owyGdK" xr:uid="{13C082D6-C3B9-4755-A934-E699194D8CDE}"/>
+    <hyperlink ref="E132" r:id="rId245" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx New Project Setup %26 Best Practices.pdf?csf=1&amp;web=1&amp;e=2NAIcG" xr:uid="{4F8EA5C5-572E-45D0-8906-E57D0525F255}"/>
+    <hyperlink ref="E133" r:id="rId246" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx Incident Creation in Service Now (SNOW).pdf?csf=1&amp;web=1&amp;e=TCJuLt" xr:uid="{532682CB-D8D4-4722-A56E-FAEE2E8385E9}"/>
+    <hyperlink ref="E135" r:id="rId247" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx Training/Alteryx Inhouse Training by Vendor.pdf?csf=1&amp;web=1&amp;e=JrCtym" xr:uid="{AD3A5E16-2403-4C83-8CF2-4DA62BA44B5C}"/>
+    <hyperlink ref="E136" r:id="rId248" xr:uid="{E7BAA7FD-6AA1-4FDF-8F9B-F90BE340B991}"/>
+    <hyperlink ref="E137" r:id="rId249" display="https://collaboration.mdlz.com/:f:/r/sites/AecorSoft/Shared Documents/Developer Guides?csf=1&amp;web=1&amp;e=ibnmci" xr:uid="{BE62D4E0-45AA-429E-B891-0BBC6F72DE74}"/>
+    <hyperlink ref="E138" r:id="rId250" display="https://collaboration.mdlz.com/:b:/r/sites/AecorSoft/Shared Documents/Aecrosoft_Incident_Creation_SNOW.pdf?csf=1&amp;web=1&amp;e=PhhiaJ" xr:uid="{EB53023E-5521-468F-AD4A-FB9B65365CEC}"/>
+    <hyperlink ref="E141" r:id="rId251" location="sap-bi-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - sap-bi-platform" xr:uid="{4555F72F-2E17-4E72-9737-FAA89420B6F1}"/>
+    <hyperlink ref="E144" r:id="rId252" xr:uid="{394E101A-FB32-4FFC-B52C-498202901E5C}"/>
+    <hyperlink ref="E147" r:id="rId253" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k" xr:uid="{C0E0FD79-11FF-4E48-8591-06EEA45901F8}"/>
+    <hyperlink ref="E148" r:id="rId254" location="expectation-from-product-teams" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k - expectation-from-product-teams" xr:uid="{8EBF64D3-4E70-467E-8E73-0561431C269B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId228"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId255"/>
 </worksheet>
 </file>
 
@@ -3991,18 +5029,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
         <v>281</v>
-      </c>
-      <c r="B1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>140</v>
@@ -4013,7 +5051,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>185</v>
@@ -4024,18 +5062,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>140</v>
@@ -4046,7 +5084,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>141</v>
@@ -4057,7 +5095,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>154</v>
@@ -4068,7 +5106,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>139</v>
@@ -4079,18 +5117,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>141</v>
@@ -4159,7 +5197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5A624E-043C-48C6-B064-C97761B1FEE2}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\PycharmProjects\Datahub Chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55C776C-8620-41A1-A173-98294DB5C1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49092F73-4EDF-4FCC-8C30-2E3E68091264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="409">
   <si>
     <t>Category</t>
   </si>
@@ -1146,6 +1146,9 @@
   </si>
   <si>
     <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre%20Prod%20Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k#expectation-from-product-teams</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
   <si>
     <t>MDSDataAnalyticsPlatforms</t>
@@ -1711,9 +1714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="87" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="72" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4019,13 +4022,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D110" t="s">
         <v>298</v>
@@ -4034,18 +4037,18 @@
         <v>337</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D111" t="s">
         <v>299</v>
@@ -4054,18 +4057,18 @@
         <v>338</v>
       </c>
       <c r="F111" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D112" t="s">
         <v>300</v>
@@ -4074,12 +4077,12 @@
         <v>339</v>
       </c>
       <c r="F112" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>286</v>
@@ -4094,12 +4097,12 @@
         <v>340</v>
       </c>
       <c r="F113" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>286</v>
@@ -4114,12 +4117,12 @@
         <v>341</v>
       </c>
       <c r="F114" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>286</v>
@@ -4134,18 +4137,18 @@
         <v>342</v>
       </c>
       <c r="F115" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B116" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C116" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D116" t="s">
         <v>304</v>
@@ -4154,18 +4157,18 @@
         <v>343</v>
       </c>
       <c r="F116" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B117" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C117" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D117" t="s">
         <v>305</v>
@@ -4174,18 +4177,18 @@
         <v>344</v>
       </c>
       <c r="F117" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B118" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C118" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D118" t="s">
         <v>306</v>
@@ -4194,18 +4197,18 @@
         <v>345</v>
       </c>
       <c r="F118" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B119" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C119" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D119" t="s">
         <v>307</v>
@@ -4214,18 +4217,18 @@
         <v>346</v>
       </c>
       <c r="F119" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B120" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C120" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D120" t="s">
         <v>308</v>
@@ -4234,18 +4237,18 @@
         <v>347</v>
       </c>
       <c r="F120" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B121" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C121" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D121" t="s">
         <v>309</v>
@@ -4254,18 +4257,18 @@
         <v>348</v>
       </c>
       <c r="F121" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B122" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C122" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D122" t="s">
         <v>310</v>
@@ -4274,18 +4277,18 @@
         <v>349</v>
       </c>
       <c r="F122" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B123" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C123" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D123" t="s">
         <v>311</v>
@@ -4294,18 +4297,18 @@
         <v>350</v>
       </c>
       <c r="F123" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B124" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C124" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D124" t="s">
         <v>312</v>
@@ -4314,18 +4317,18 @@
         <v>351</v>
       </c>
       <c r="F124" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B125" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C125" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D125" t="s">
         <v>313</v>
@@ -4334,18 +4337,18 @@
         <v>352</v>
       </c>
       <c r="F125" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B126" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C126" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D126" t="s">
         <v>314</v>
@@ -4354,18 +4357,18 @@
         <v>353</v>
       </c>
       <c r="F126" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B127" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C127" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D127" t="s">
         <v>315</v>
@@ -4374,18 +4377,18 @@
         <v>354</v>
       </c>
       <c r="F127" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B128" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C128" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D128" t="s">
         <v>316</v>
@@ -4394,32 +4397,38 @@
         <v>355</v>
       </c>
       <c r="F128" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B129" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C129" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D129" t="s">
         <v>317</v>
       </c>
+      <c r="E129" t="s">
+        <v>368</v>
+      </c>
+      <c r="F129" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B130" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C130" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D130" t="s">
         <v>318</v>
@@ -4428,18 +4437,18 @@
         <v>356</v>
       </c>
       <c r="F130" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B131" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D131" t="s">
         <v>319</v>
@@ -4448,18 +4457,18 @@
         <v>357</v>
       </c>
       <c r="F131" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B132" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C132" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D132" t="s">
         <v>320</v>
@@ -4468,18 +4477,18 @@
         <v>358</v>
       </c>
       <c r="F132" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B133" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C133" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D133" t="s">
         <v>321</v>
@@ -4488,32 +4497,38 @@
         <v>359</v>
       </c>
       <c r="F133" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D134" t="s">
         <v>322</v>
       </c>
+      <c r="E134" t="s">
+        <v>368</v>
+      </c>
+      <c r="F134" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B135" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C135" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D135" t="s">
         <v>323</v>
@@ -4522,18 +4537,18 @@
         <v>360</v>
       </c>
       <c r="F135" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B136" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C136" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D136" t="s">
         <v>324</v>
@@ -4542,18 +4557,18 @@
         <v>361</v>
       </c>
       <c r="F136" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B137" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C137" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D137" t="s">
         <v>325</v>
@@ -4562,18 +4577,18 @@
         <v>362</v>
       </c>
       <c r="F137" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B138" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C138" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D138" t="s">
         <v>326</v>
@@ -4582,46 +4597,58 @@
         <v>363</v>
       </c>
       <c r="F138" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B139" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C139" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D139" t="s">
         <v>327</v>
       </c>
+      <c r="E139" t="s">
+        <v>368</v>
+      </c>
+      <c r="F139" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B140" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C140" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D140" t="s">
         <v>328</v>
       </c>
+      <c r="E140" t="s">
+        <v>368</v>
+      </c>
+      <c r="F140" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B141" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C141" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D141" t="s">
         <v>329</v>
@@ -4630,46 +4657,58 @@
         <v>364</v>
       </c>
       <c r="F141" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B142" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C142" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D142" t="s">
         <v>330</v>
       </c>
+      <c r="E142" t="s">
+        <v>368</v>
+      </c>
+      <c r="F142" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B143" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C143" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D143" t="s">
         <v>331</v>
       </c>
+      <c r="E143" t="s">
+        <v>368</v>
+      </c>
+      <c r="F143" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B144" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C144" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D144" t="s">
         <v>332</v>
@@ -4678,46 +4717,58 @@
         <v>365</v>
       </c>
       <c r="F144" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B145" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C145" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D145" t="s">
         <v>333</v>
       </c>
+      <c r="E145" t="s">
+        <v>368</v>
+      </c>
+      <c r="F145" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B146" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C146" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D146" t="s">
         <v>334</v>
       </c>
+      <c r="E146" t="s">
+        <v>368</v>
+      </c>
+      <c r="F146" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B147" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C147" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D147" t="s">
         <v>335</v>
@@ -4726,18 +4777,18 @@
         <v>366</v>
       </c>
       <c r="F147" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B148" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C148" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D148" t="s">
         <v>336</v>
@@ -4746,7 +4797,7 @@
         <v>367</v>
       </c>
       <c r="F148" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\PycharmProjects\Datahub Chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49092F73-4EDF-4FCC-8C30-2E3E68091264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5AAF31-3EA6-44E3-8F5A-6B63211D08FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="400">
   <si>
     <t>Category</t>
   </si>
@@ -995,9 +995,6 @@
     <t>What is the current MDLZ- Azure HLD set up ?</t>
   </si>
   <si>
-    <t>What are the best practices related to Azure and Databricks services?</t>
-  </si>
-  <si>
     <t>What services does the data integration tower provide?</t>
   </si>
   <si>
@@ -1010,9 +1007,6 @@
     <t>How to raise a servicenow ticket for Alteryx?</t>
   </si>
   <si>
-    <t>How can I create custom reports and visualizations from Alteryx workflows?</t>
-  </si>
-  <si>
     <t>Are there any training documents for Alteryx?</t>
   </si>
   <si>
@@ -1025,30 +1019,12 @@
     <t>Who should I contact if my data integration job in Aecorsoft fails?</t>
   </si>
   <si>
-    <t>How do I request access to specific data sets or reports through Collibra?</t>
-  </si>
-  <si>
-    <t>How can I use Collibra to check the quality of data I’m working with?</t>
-  </si>
-  <si>
     <t>What tools and services are offered under SAP BI services?</t>
   </si>
   <si>
-    <t>Where can I find documents related to SAP BI reporting and analytics?</t>
-  </si>
-  <si>
-    <t>How can I access support resources for SAP BI?</t>
-  </si>
-  <si>
     <t>Who do I reach out to incase I need any support?</t>
   </si>
   <si>
-    <t>How do I raise a support ticket for issues related to the D&amp;A platform?</t>
-  </si>
-  <si>
-    <t>How can I request access to specific D&amp;A platform environments?</t>
-  </si>
-  <si>
     <t>Where can I find information on pre-production environment?</t>
   </si>
   <si>
@@ -1146,9 +1122,6 @@
   </si>
   <si>
     <t>https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre%20Prod%20Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k#expectation-from-product-teams</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>MDSDataAnalyticsPlatforms</t>
@@ -1712,11 +1685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B129" activeCellId="1" sqref="A134:XFD134 A129:XFD129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4022,67 +3995,67 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D110" t="s">
         <v>298</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D111" t="s">
         <v>299</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F111" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D112" t="s">
         <v>300</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F112" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>286</v>
@@ -4094,15 +4067,15 @@
         <v>301</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F113" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>286</v>
@@ -4114,15 +4087,15 @@
         <v>302</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F114" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>286</v>
@@ -4134,670 +4107,510 @@
         <v>303</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F115" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B116" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C116" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D116" t="s">
         <v>304</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F116" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B117" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C117" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D117" t="s">
         <v>305</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F117" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B118" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C118" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D118" t="s">
         <v>306</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F118" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B119" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C119" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D119" t="s">
         <v>307</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F119" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B120" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C120" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D120" t="s">
         <v>308</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F120" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B121" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C121" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D121" t="s">
         <v>309</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F121" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B122" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C122" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D122" t="s">
         <v>310</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F122" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B123" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C123" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D123" t="s">
         <v>311</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F123" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B124" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C124" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D124" t="s">
         <v>312</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F124" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B125" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C125" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D125" t="s">
         <v>313</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F125" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B126" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C126" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D126" t="s">
         <v>314</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F126" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B127" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C127" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D127" t="s">
         <v>315</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F127" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B128" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C128" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D128" t="s">
         <v>316</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F128" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B129" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C129" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D129" t="s">
         <v>317</v>
       </c>
-      <c r="E129" t="s">
-        <v>368</v>
+      <c r="E129" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="F129" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B130" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C130" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D130" t="s">
         <v>318</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F130" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B131" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C131" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D131" t="s">
         <v>319</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F131" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B132" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C132" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D132" t="s">
         <v>320</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F132" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B133" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C133" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D133" t="s">
         <v>321</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F133" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B134" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C134" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D134" t="s">
         <v>322</v>
       </c>
-      <c r="E134" t="s">
-        <v>368</v>
+      <c r="E134" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="F134" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B135" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C135" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D135" t="s">
         <v>323</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F135" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B136" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C136" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D136" t="s">
         <v>324</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F136" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B137" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C137" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D137" t="s">
         <v>325</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F137" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B138" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C138" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D138" t="s">
         <v>326</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F138" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>363</v>
+      </c>
+      <c r="B139" t="s">
         <v>372</v>
       </c>
-      <c r="B139" t="s">
-        <v>378</v>
-      </c>
       <c r="C139" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D139" t="s">
         <v>327</v>
       </c>
-      <c r="E139" t="s">
-        <v>368</v>
+      <c r="E139" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="F139" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>363</v>
+      </c>
+      <c r="B140" t="s">
         <v>372</v>
       </c>
-      <c r="B140" t="s">
-        <v>378</v>
-      </c>
       <c r="C140" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D140" t="s">
         <v>328</v>
       </c>
-      <c r="E140" t="s">
-        <v>368</v>
+      <c r="E140" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="F140" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>372</v>
-      </c>
-      <c r="B141" t="s">
-        <v>379</v>
-      </c>
-      <c r="C141" t="s">
-        <v>379</v>
-      </c>
-      <c r="D141" t="s">
-        <v>329</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F141" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>372</v>
-      </c>
-      <c r="B142" t="s">
-        <v>379</v>
-      </c>
-      <c r="C142" t="s">
-        <v>379</v>
-      </c>
-      <c r="D142" t="s">
-        <v>330</v>
-      </c>
-      <c r="E142" t="s">
-        <v>368</v>
-      </c>
-      <c r="F142" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>372</v>
-      </c>
-      <c r="B143" t="s">
-        <v>379</v>
-      </c>
-      <c r="C143" t="s">
-        <v>379</v>
-      </c>
-      <c r="D143" t="s">
-        <v>331</v>
-      </c>
-      <c r="E143" t="s">
-        <v>368</v>
-      </c>
-      <c r="F143" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>372</v>
-      </c>
-      <c r="B144" t="s">
-        <v>380</v>
-      </c>
-      <c r="C144" t="s">
-        <v>380</v>
-      </c>
-      <c r="D144" t="s">
-        <v>332</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F144" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>372</v>
-      </c>
-      <c r="B145" t="s">
-        <v>380</v>
-      </c>
-      <c r="C145" t="s">
-        <v>380</v>
-      </c>
-      <c r="D145" t="s">
-        <v>333</v>
-      </c>
-      <c r="E145" t="s">
-        <v>368</v>
-      </c>
-      <c r="F145" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>372</v>
-      </c>
-      <c r="B146" t="s">
-        <v>380</v>
-      </c>
-      <c r="C146" t="s">
-        <v>380</v>
-      </c>
-      <c r="D146" t="s">
-        <v>334</v>
-      </c>
-      <c r="E146" t="s">
-        <v>368</v>
-      </c>
-      <c r="F146" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>372</v>
-      </c>
-      <c r="B147" t="s">
-        <v>381</v>
-      </c>
-      <c r="C147" t="s">
-        <v>381</v>
-      </c>
-      <c r="D147" t="s">
-        <v>335</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F147" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>372</v>
-      </c>
-      <c r="B148" t="s">
-        <v>381</v>
-      </c>
-      <c r="C148" t="s">
-        <v>381</v>
-      </c>
-      <c r="D148" t="s">
-        <v>336</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F148" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5045,18 +4858,18 @@
     <hyperlink ref="E126" r:id="rId240" location="azure-cloud-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - azure-cloud-platform" xr:uid="{03EA318F-4F44-4564-BDB2-9B1BDB28E2CE}"/>
     <hyperlink ref="E127" r:id="rId241" display="https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/Azure Platform/Databricks_Platform_Overview_0.2.pdf?csf=1&amp;web=1&amp;e=ztKvMt" xr:uid="{D66210B6-DE46-435B-9D50-0821EEF406A7}"/>
     <hyperlink ref="E128" r:id="rId242" display="https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/Azure Platform/MDLZ-Azure-Design-Diagrams-V2 - Azure-HLD1.pdf?csf=1&amp;web=1&amp;e=JqdokL" xr:uid="{5F8FE5E4-3139-4DD4-912D-5554A2D3F484}"/>
-    <hyperlink ref="E130" r:id="rId243" location="data-integration-platforms" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - data-integration-platforms" xr:uid="{DBCD28CC-93A8-4C9B-B4E9-44A5D42822E4}"/>
-    <hyperlink ref="E131" r:id="rId244" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Guidlines for Alteryx usage- MDLZ.pdf?csf=1&amp;web=1&amp;e=owyGdK" xr:uid="{13C082D6-C3B9-4755-A934-E699194D8CDE}"/>
-    <hyperlink ref="E132" r:id="rId245" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx New Project Setup %26 Best Practices.pdf?csf=1&amp;web=1&amp;e=2NAIcG" xr:uid="{4F8EA5C5-572E-45D0-8906-E57D0525F255}"/>
-    <hyperlink ref="E133" r:id="rId246" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx Incident Creation in Service Now (SNOW).pdf?csf=1&amp;web=1&amp;e=TCJuLt" xr:uid="{532682CB-D8D4-4722-A56E-FAEE2E8385E9}"/>
-    <hyperlink ref="E135" r:id="rId247" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx Training/Alteryx Inhouse Training by Vendor.pdf?csf=1&amp;web=1&amp;e=JrCtym" xr:uid="{AD3A5E16-2403-4C83-8CF2-4DA62BA44B5C}"/>
-    <hyperlink ref="E136" r:id="rId248" xr:uid="{E7BAA7FD-6AA1-4FDF-8F9B-F90BE340B991}"/>
-    <hyperlink ref="E137" r:id="rId249" display="https://collaboration.mdlz.com/:f:/r/sites/AecorSoft/Shared Documents/Developer Guides?csf=1&amp;web=1&amp;e=ibnmci" xr:uid="{BE62D4E0-45AA-429E-B891-0BBC6F72DE74}"/>
-    <hyperlink ref="E138" r:id="rId250" display="https://collaboration.mdlz.com/:b:/r/sites/AecorSoft/Shared Documents/Aecrosoft_Incident_Creation_SNOW.pdf?csf=1&amp;web=1&amp;e=PhhiaJ" xr:uid="{EB53023E-5521-468F-AD4A-FB9B65365CEC}"/>
-    <hyperlink ref="E141" r:id="rId251" location="sap-bi-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - sap-bi-platform" xr:uid="{4555F72F-2E17-4E72-9737-FAA89420B6F1}"/>
-    <hyperlink ref="E144" r:id="rId252" xr:uid="{394E101A-FB32-4FFC-B52C-498202901E5C}"/>
-    <hyperlink ref="E147" r:id="rId253" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k" xr:uid="{C0E0FD79-11FF-4E48-8591-06EEA45901F8}"/>
-    <hyperlink ref="E148" r:id="rId254" location="expectation-from-product-teams" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k - expectation-from-product-teams" xr:uid="{8EBF64D3-4E70-467E-8E73-0561431C269B}"/>
+    <hyperlink ref="E129" r:id="rId243" location="data-integration-platforms" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - data-integration-platforms" xr:uid="{DBCD28CC-93A8-4C9B-B4E9-44A5D42822E4}"/>
+    <hyperlink ref="E130" r:id="rId244" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Guidlines for Alteryx usage- MDLZ.pdf?csf=1&amp;web=1&amp;e=owyGdK" xr:uid="{13C082D6-C3B9-4755-A934-E699194D8CDE}"/>
+    <hyperlink ref="E131" r:id="rId245" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx New Project Setup %26 Best Practices.pdf?csf=1&amp;web=1&amp;e=2NAIcG" xr:uid="{4F8EA5C5-572E-45D0-8906-E57D0525F255}"/>
+    <hyperlink ref="E132" r:id="rId246" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx Incident Creation in Service Now (SNOW).pdf?csf=1&amp;web=1&amp;e=TCJuLt" xr:uid="{532682CB-D8D4-4722-A56E-FAEE2E8385E9}"/>
+    <hyperlink ref="E133" r:id="rId247" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx Training/Alteryx Inhouse Training by Vendor.pdf?csf=1&amp;web=1&amp;e=JrCtym" xr:uid="{AD3A5E16-2403-4C83-8CF2-4DA62BA44B5C}"/>
+    <hyperlink ref="E134" r:id="rId248" xr:uid="{E7BAA7FD-6AA1-4FDF-8F9B-F90BE340B991}"/>
+    <hyperlink ref="E135" r:id="rId249" display="https://collaboration.mdlz.com/:f:/r/sites/AecorSoft/Shared Documents/Developer Guides?csf=1&amp;web=1&amp;e=ibnmci" xr:uid="{BE62D4E0-45AA-429E-B891-0BBC6F72DE74}"/>
+    <hyperlink ref="E136" r:id="rId250" display="https://collaboration.mdlz.com/:b:/r/sites/AecorSoft/Shared Documents/Aecrosoft_Incident_Creation_SNOW.pdf?csf=1&amp;web=1&amp;e=PhhiaJ" xr:uid="{EB53023E-5521-468F-AD4A-FB9B65365CEC}"/>
+    <hyperlink ref="E137" r:id="rId251" location="sap-bi-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - sap-bi-platform" xr:uid="{4555F72F-2E17-4E72-9737-FAA89420B6F1}"/>
+    <hyperlink ref="E138" r:id="rId252" xr:uid="{394E101A-FB32-4FFC-B52C-498202901E5C}"/>
+    <hyperlink ref="E139" r:id="rId253" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k" xr:uid="{C0E0FD79-11FF-4E48-8591-06EEA45901F8}"/>
+    <hyperlink ref="E140" r:id="rId254" location="expectation-from-product-teams" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k - expectation-from-product-teams" xr:uid="{8EBF64D3-4E70-467E-8E73-0561431C269B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId255"/>

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\PycharmProjects\Datahub Chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5AAF31-3EA6-44E3-8F5A-6B63211D08FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7183B6-895A-4B57-9FAC-800E487E2B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="545">
   <si>
     <t>Category</t>
   </si>
@@ -1242,6 +1242,441 @@
   </si>
   <si>
     <t>Pre-Prod Expectations from Product Team</t>
+  </si>
+  <si>
+    <t>Data Science COE</t>
+  </si>
+  <si>
+    <t>Getting started</t>
+  </si>
+  <si>
+    <t>What is MLOps</t>
+  </si>
+  <si>
+    <t>Why is  MLOps needed?</t>
+  </si>
+  <si>
+    <t>What are the different components in MLOps</t>
+  </si>
+  <si>
+    <t>What is the folder structure of MLOps enabled Data Science project</t>
+  </si>
+  <si>
+    <t>Machine Learning Lifecycle</t>
+  </si>
+  <si>
+    <t>What is the standard ML lifecycle in Mdlz?</t>
+  </si>
+  <si>
+    <t>How to perform MVP assessment of a data science application?</t>
+  </si>
+  <si>
+    <t>How to perform pre-industrialization assessment of a data science application?</t>
+  </si>
+  <si>
+    <t>Is my application ready for impelmenting MLOPs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How should minor enhancements for data science applications be handled? </t>
+  </si>
+  <si>
+    <t>How should major enhancements for data science applications be handled?</t>
+  </si>
+  <si>
+    <t>Development guidelines</t>
+  </si>
+  <si>
+    <t>What guidelines should be followed when developing Data Science applications?</t>
+  </si>
+  <si>
+    <t>What is MLOps compliance checklist?</t>
+  </si>
+  <si>
+    <t>What coding practices should be followed during the devlopment of Data Science applications?</t>
+  </si>
+  <si>
+    <t>MLOPS components</t>
+  </si>
+  <si>
+    <t>How do I get started with MLOps in my git repository?</t>
+  </si>
+  <si>
+    <t>What are data quality checks?</t>
+  </si>
+  <si>
+    <t>What is data validation?</t>
+  </si>
+  <si>
+    <t>What are the benefits of data validation?</t>
+  </si>
+  <si>
+    <t>How can I setup data validation using MLOps?</t>
+  </si>
+  <si>
+    <t>What is a feature store?</t>
+  </si>
+  <si>
+    <t>what are the benefits of enabling feature store?</t>
+  </si>
+  <si>
+    <t>Give an example of feature store implementation</t>
+  </si>
+  <si>
+    <t>What is data drift?</t>
+  </si>
+  <si>
+    <t>How is data drift detected?</t>
+  </si>
+  <si>
+    <t>Give an example of data drift detection implementation?</t>
+  </si>
+  <si>
+    <t>What is experiment tracking?</t>
+  </si>
+  <si>
+    <t>How to manage versions of machine learning models?</t>
+  </si>
+  <si>
+    <t>How to make modelling process more transparent?</t>
+  </si>
+  <si>
+    <t>How to track model performance efficiently?</t>
+  </si>
+  <si>
+    <t>How do I stay updated on my Machine Learning projects?</t>
+  </si>
+  <si>
+    <t>Where are the Machine Learning models stored?</t>
+  </si>
+  <si>
+    <t>How can I roll back to the previous model version?</t>
+  </si>
+  <si>
+    <t>What is modelOps process?</t>
+  </si>
+  <si>
+    <t>What is model registry?</t>
+  </si>
+  <si>
+    <t>What is model drift?</t>
+  </si>
+  <si>
+    <t>Why is model drift detection needed?</t>
+  </si>
+  <si>
+    <t>what tools are used to detect model drift?</t>
+  </si>
+  <si>
+    <t>Give an example of model drift implementation?</t>
+  </si>
+  <si>
+    <t>How are Machine learning models deployed?</t>
+  </si>
+  <si>
+    <t>What is model serving?</t>
+  </si>
+  <si>
+    <t>How to deploy machine learning models in production?</t>
+  </si>
+  <si>
+    <t>What is model explainability?</t>
+  </si>
+  <si>
+    <t>How can I interpret my model's predictions?</t>
+  </si>
+  <si>
+    <t>What tools are used for model explainability?</t>
+  </si>
+  <si>
+    <t>DevOps for data science</t>
+  </si>
+  <si>
+    <t>How do I roll back my entire ML application?</t>
+  </si>
+  <si>
+    <t>How can I implement CI/CD for my data science application?</t>
+  </si>
+  <si>
+    <t>What is the git branching strategy in MLOps enabled projects?</t>
+  </si>
+  <si>
+    <t>What is CI/CD?</t>
+  </si>
+  <si>
+    <t>What is Continuous integration of code?</t>
+  </si>
+  <si>
+    <t>What is COntinuous deployment of code?</t>
+  </si>
+  <si>
+    <t>What is the approval process for codes?</t>
+  </si>
+  <si>
+    <t>How to enable sonarqube in mdlz?</t>
+  </si>
+  <si>
+    <t>How can sonarqube help my application?</t>
+  </si>
+  <si>
+    <t>What insights can I get from sonarqube?</t>
+  </si>
+  <si>
+    <t>How can I assess the technical debt in my application?</t>
+  </si>
+  <si>
+    <t>How to parameterize my data science application?</t>
+  </si>
+  <si>
+    <t>How to deploy databricks workflows in higher environments?</t>
+  </si>
+  <si>
+    <t>How do I move my code to production?</t>
+  </si>
+  <si>
+    <t>How do I pass credentials to my data science application in databricks?</t>
+  </si>
+  <si>
+    <t>How do I pass confidential parameters to my data science applications?</t>
+  </si>
+  <si>
+    <t>How is logging managed as a part of MLOps?</t>
+  </si>
+  <si>
+    <t>Monitoring &amp; Logging</t>
+  </si>
+  <si>
+    <t>Where are the MLOps monitoring logs stored?</t>
+  </si>
+  <si>
+    <t>What is Information Lifecycle Management?</t>
+  </si>
+  <si>
+    <t>How is historical data managed in MLOps?</t>
+  </si>
+  <si>
+    <t>How do I monitor my resource utilization in databricks?</t>
+  </si>
+  <si>
+    <t>How can spark code be optimized?</t>
+  </si>
+  <si>
+    <t>MLOPs educational sessions</t>
+  </si>
+  <si>
+    <t>Where can I find more information on MLOPs?</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/MLOps_Getting_Started_Document.html#what-is-mlops</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/MLOps_Getting_Started_Document.html#what-are-the-key-challenges-we-intend-to-solve-with-mlops</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/MLOps_Getting_Started_Document.html#mlops-components</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/MLOps_Getting_Started_Document.html#how-to-access-rep</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Machine-Learning-Life-Cycle.html#ml-life-cycle</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Machine-Learning-Life-Cycle.html#mvp-assessment</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Machine-Learning-Life-Cycle.html#pre-industrialization-assessment</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Minor-Enhancement-Workflow.html#minor-enhancement-workflow</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Major-Enhancement-workflow.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Compliance_Checklist.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/SettingUp-MLOps-Workflow.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Data-Validation.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Data-Validation.html#introduction-to-data-validation--its-benefits</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Feature-Store.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Feature-Store.html#introduction-to-feature-stores--its-benefits</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Data-Drift.html#introduction-to-data-drift-and-its-benefits</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Data-Drift.html#tools-for-detecting-data-drift</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Data-Drift.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Model-Experiments.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/SettingUp-Model-Registry-Webhook.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Model-Registry.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Model_Approval_Process.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Model-Drift.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Model-Drift.html#introduction-to-model-drift-and-its-benefits</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Model-Drift.html#tools-for-detecting-model-drift</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Model-Serving.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Model-Explainability.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Model-Explainability.html#frameworks-for-model-xai</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/cicd-strategy.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/cicd-strategy.html#7-continuous-integration-ci</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/cicd-strategy.html#8-continuous-delivery</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/ace-market-place/docs/url=https%3A%2F%2Finsight.mdlz.com%2Fp%2Fd4gvdocs%2FDSGovernance%2Fcicd-strategy.html%2310-github-pull-request-approval-gateway</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/sonarqube_integration.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/sonarqube-analysis-report.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/sonarqube-analysis-report.html#debt</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/cd-pre-requisites.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/cd-job-definition-guide.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Databricks-Secret-Scope.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Generic-Log-Management.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Information-Lifecycle-Management.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Workflow-Performance-Monitoring.html#workflow-performance-montoring</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Pyspark_Guide.html</t>
+  </si>
+  <si>
+    <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Educational-Sessions.html</t>
+  </si>
+  <si>
+    <t>MLOps Getting Started</t>
+  </si>
+  <si>
+    <t>Machine Learning Life Cycle</t>
+  </si>
+  <si>
+    <t>Minor Enhancement Workflow</t>
+  </si>
+  <si>
+    <t>Major Enhancement workflow</t>
+  </si>
+  <si>
+    <t>Compliance Checklist</t>
+  </si>
+  <si>
+    <t>Data Validation</t>
+  </si>
+  <si>
+    <t>Feature Store</t>
+  </si>
+  <si>
+    <t>Data Drift</t>
+  </si>
+  <si>
+    <t>Model Experiments</t>
+  </si>
+  <si>
+    <t>Model Registry</t>
+  </si>
+  <si>
+    <t>Model Drift</t>
+  </si>
+  <si>
+    <t>Model Serving</t>
+  </si>
+  <si>
+    <t>Model Explainability</t>
+  </si>
+  <si>
+    <t>Setting Up MLOps Workflow</t>
+  </si>
+  <si>
+    <t>SettingUp Model-Registry-Webhook</t>
+  </si>
+  <si>
+    <t>Pyspark Guide</t>
+  </si>
+  <si>
+    <t>Educational Sessions</t>
+  </si>
+  <si>
+    <t>CI/CD Strategy</t>
+  </si>
+  <si>
+    <t>Model_Approval Experiments</t>
+  </si>
+  <si>
+    <t>CI/L= Market-Place/Docs/Url=Https%3A%2F%2Finsight.Mdlz.Com%2Fp%2Fd4Gvdocs%2Fdsgovernance%2Fcicd-Strategy</t>
+  </si>
+  <si>
+    <t>CI/NARQUBE_INTEGRATION.HTML Integration</t>
+  </si>
+  <si>
+    <t>CI/NARQUBE Analysis-Report</t>
+  </si>
+  <si>
+    <t>Workflow Performance Monitoring</t>
+  </si>
+  <si>
+    <t>Information Lifecycle Management</t>
+  </si>
+  <si>
+    <t>CD Pre-Requisites</t>
+  </si>
+  <si>
+    <t>CD Job-Definition-Guide</t>
+  </si>
+  <si>
+    <t>DATABRICKS Secret-Scope</t>
+  </si>
+  <si>
+    <t>GENERIC Log-Management</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1368,6 +1803,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1685,11 +2125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B129" activeCellId="1" sqref="A134:XFD134 A129:XFD129"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A142" sqref="A142:A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1698,7 +2138,7 @@
     <col min="2" max="2" width="43.26953125" customWidth="1"/>
     <col min="3" max="3" width="40.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.54296875" customWidth="1"/>
+    <col min="5" max="5" width="105.7265625" customWidth="1"/>
     <col min="6" max="6" width="106" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
@@ -4611,6 +5051,1326 @@
       </c>
       <c r="F140" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>400</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C141" t="s">
+        <v>401</v>
+      </c>
+      <c r="D141" t="s">
+        <v>402</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="F141" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C142" t="s">
+        <v>401</v>
+      </c>
+      <c r="D142" t="s">
+        <v>403</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C143" t="s">
+        <v>401</v>
+      </c>
+      <c r="D143" t="s">
+        <v>404</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C144" t="s">
+        <v>401</v>
+      </c>
+      <c r="D144" t="s">
+        <v>405</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="F144" s="17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C145" t="s">
+        <v>406</v>
+      </c>
+      <c r="D145" t="s">
+        <v>407</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="F145" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C146" t="s">
+        <v>406</v>
+      </c>
+      <c r="D146" t="s">
+        <v>408</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F146" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C147" t="s">
+        <v>406</v>
+      </c>
+      <c r="D147" t="s">
+        <v>409</v>
+      </c>
+      <c r="E147" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="F147" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C148" t="s">
+        <v>406</v>
+      </c>
+      <c r="D148" t="s">
+        <v>410</v>
+      </c>
+      <c r="E148" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="F148" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C149" t="s">
+        <v>406</v>
+      </c>
+      <c r="D149" t="s">
+        <v>411</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="F149" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C150" t="s">
+        <v>406</v>
+      </c>
+      <c r="D150" t="s">
+        <v>412</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="F150" s="17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C151" t="s">
+        <v>413</v>
+      </c>
+      <c r="D151" t="s">
+        <v>414</v>
+      </c>
+      <c r="E151" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C152" t="s">
+        <v>413</v>
+      </c>
+      <c r="D152" t="s">
+        <v>415</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="F152" s="17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C153" t="s">
+        <v>413</v>
+      </c>
+      <c r="D153" t="s">
+        <v>416</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="F153" s="17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C154" t="s">
+        <v>417</v>
+      </c>
+      <c r="D154" t="s">
+        <v>418</v>
+      </c>
+      <c r="E154" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="F154" s="17" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C155" t="s">
+        <v>417</v>
+      </c>
+      <c r="D155" t="s">
+        <v>419</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F155" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C156" t="s">
+        <v>417</v>
+      </c>
+      <c r="D156" t="s">
+        <v>420</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F156" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C157" t="s">
+        <v>417</v>
+      </c>
+      <c r="D157" t="s">
+        <v>421</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="F157" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C158" t="s">
+        <v>417</v>
+      </c>
+      <c r="D158" t="s">
+        <v>422</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F158" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C159" t="s">
+        <v>417</v>
+      </c>
+      <c r="D159" t="s">
+        <v>423</v>
+      </c>
+      <c r="E159" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="F159" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C160" t="s">
+        <v>417</v>
+      </c>
+      <c r="D160" t="s">
+        <v>424</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="F160" s="17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C161" t="s">
+        <v>417</v>
+      </c>
+      <c r="D161" t="s">
+        <v>425</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="F161" s="17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C162" t="s">
+        <v>417</v>
+      </c>
+      <c r="D162" t="s">
+        <v>426</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="F162" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C163" t="s">
+        <v>417</v>
+      </c>
+      <c r="D163" t="s">
+        <v>427</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="F163" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C164" t="s">
+        <v>417</v>
+      </c>
+      <c r="D164" t="s">
+        <v>428</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="F164" s="17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C165" t="s">
+        <v>417</v>
+      </c>
+      <c r="D165" t="s">
+        <v>429</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="F165" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C166" t="s">
+        <v>417</v>
+      </c>
+      <c r="D166" t="s">
+        <v>430</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="F166" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C167" t="s">
+        <v>417</v>
+      </c>
+      <c r="D167" t="s">
+        <v>431</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="F167" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C168" t="s">
+        <v>417</v>
+      </c>
+      <c r="D168" t="s">
+        <v>432</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="F168" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C169" t="s">
+        <v>417</v>
+      </c>
+      <c r="D169" t="s">
+        <v>433</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="F169" s="17" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C170" t="s">
+        <v>417</v>
+      </c>
+      <c r="D170" t="s">
+        <v>434</v>
+      </c>
+      <c r="E170" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="F170" s="17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C171" t="s">
+        <v>417</v>
+      </c>
+      <c r="D171" t="s">
+        <v>435</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="F171" s="17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C172" t="s">
+        <v>417</v>
+      </c>
+      <c r="D172" t="s">
+        <v>436</v>
+      </c>
+      <c r="E172" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="F172" s="17" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C173" t="s">
+        <v>417</v>
+      </c>
+      <c r="D173" t="s">
+        <v>437</v>
+      </c>
+      <c r="E173" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="F173" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C174" t="s">
+        <v>417</v>
+      </c>
+      <c r="D174" t="s">
+        <v>438</v>
+      </c>
+      <c r="E174" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="F174" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C175" t="s">
+        <v>417</v>
+      </c>
+      <c r="D175" t="s">
+        <v>439</v>
+      </c>
+      <c r="E175" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="F175" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C176" t="s">
+        <v>417</v>
+      </c>
+      <c r="D176" t="s">
+        <v>440</v>
+      </c>
+      <c r="E176" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="F176" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C177" t="s">
+        <v>417</v>
+      </c>
+      <c r="D177" t="s">
+        <v>441</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="F177" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C178" t="s">
+        <v>417</v>
+      </c>
+      <c r="D178" t="s">
+        <v>442</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="F178" s="17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C179" t="s">
+        <v>417</v>
+      </c>
+      <c r="D179" t="s">
+        <v>443</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="F179" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C180" t="s">
+        <v>417</v>
+      </c>
+      <c r="D180" t="s">
+        <v>444</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="F180" s="17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C181" t="s">
+        <v>417</v>
+      </c>
+      <c r="D181" t="s">
+        <v>445</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="F181" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C182" t="s">
+        <v>417</v>
+      </c>
+      <c r="D182" t="s">
+        <v>446</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="F182" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C183" t="s">
+        <v>417</v>
+      </c>
+      <c r="D183" t="s">
+        <v>447</v>
+      </c>
+      <c r="E183" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="F183" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C184" t="s">
+        <v>448</v>
+      </c>
+      <c r="D184" t="s">
+        <v>449</v>
+      </c>
+      <c r="E184" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="F184" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C185" t="s">
+        <v>448</v>
+      </c>
+      <c r="D185" t="s">
+        <v>450</v>
+      </c>
+      <c r="E185" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="F185" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C186" t="s">
+        <v>448</v>
+      </c>
+      <c r="D186" t="s">
+        <v>451</v>
+      </c>
+      <c r="E186" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="F186" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C187" t="s">
+        <v>448</v>
+      </c>
+      <c r="D187" t="s">
+        <v>452</v>
+      </c>
+      <c r="E187" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="F187" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C188" t="s">
+        <v>448</v>
+      </c>
+      <c r="D188" t="s">
+        <v>453</v>
+      </c>
+      <c r="E188" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F188" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C189" t="s">
+        <v>448</v>
+      </c>
+      <c r="D189" t="s">
+        <v>454</v>
+      </c>
+      <c r="E189" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="F189" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C190" t="s">
+        <v>448</v>
+      </c>
+      <c r="D190" t="s">
+        <v>455</v>
+      </c>
+      <c r="E190" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F190" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C191" t="s">
+        <v>448</v>
+      </c>
+      <c r="D191" t="s">
+        <v>456</v>
+      </c>
+      <c r="E191" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F191" s="17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C192" t="s">
+        <v>448</v>
+      </c>
+      <c r="D192" t="s">
+        <v>457</v>
+      </c>
+      <c r="E192" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="F192" s="17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C193" t="s">
+        <v>448</v>
+      </c>
+      <c r="D193" t="s">
+        <v>458</v>
+      </c>
+      <c r="E193" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="F193" s="17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C194" t="s">
+        <v>448</v>
+      </c>
+      <c r="D194" t="s">
+        <v>459</v>
+      </c>
+      <c r="E194" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C195" t="s">
+        <v>448</v>
+      </c>
+      <c r="D195" t="s">
+        <v>460</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F195" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C196" t="s">
+        <v>448</v>
+      </c>
+      <c r="D196" t="s">
+        <v>461</v>
+      </c>
+      <c r="E196" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F196" s="17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C197" t="s">
+        <v>448</v>
+      </c>
+      <c r="D197" t="s">
+        <v>462</v>
+      </c>
+      <c r="E197" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F197" s="17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C198" t="s">
+        <v>448</v>
+      </c>
+      <c r="D198" t="s">
+        <v>463</v>
+      </c>
+      <c r="E198" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="F198" s="17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B199" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C199" t="s">
+        <v>448</v>
+      </c>
+      <c r="D199" t="s">
+        <v>464</v>
+      </c>
+      <c r="E199" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="F199" s="17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C200" t="s">
+        <v>448</v>
+      </c>
+      <c r="D200" t="s">
+        <v>465</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="F200" s="17" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C201" t="s">
+        <v>466</v>
+      </c>
+      <c r="D201" t="s">
+        <v>467</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="F201" s="17" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C202" t="s">
+        <v>466</v>
+      </c>
+      <c r="D202" t="s">
+        <v>468</v>
+      </c>
+      <c r="E202" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F202" s="17" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C203" t="s">
+        <v>466</v>
+      </c>
+      <c r="D203" t="s">
+        <v>469</v>
+      </c>
+      <c r="E203" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F203" s="17" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C204" t="s">
+        <v>466</v>
+      </c>
+      <c r="D204" t="s">
+        <v>470</v>
+      </c>
+      <c r="E204" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="F204" s="17" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C205" t="s">
+        <v>413</v>
+      </c>
+      <c r="D205" t="s">
+        <v>471</v>
+      </c>
+      <c r="E205" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="F205" s="17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C206" t="s">
+        <v>472</v>
+      </c>
+      <c r="D206" t="s">
+        <v>473</v>
+      </c>
+      <c r="E206" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="F206" s="17" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -4870,9 +6630,80 @@
     <hyperlink ref="E138" r:id="rId252" xr:uid="{394E101A-FB32-4FFC-B52C-498202901E5C}"/>
     <hyperlink ref="E139" r:id="rId253" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k" xr:uid="{C0E0FD79-11FF-4E48-8591-06EEA45901F8}"/>
     <hyperlink ref="E140" r:id="rId254" location="expectation-from-product-teams" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k - expectation-from-product-teams" xr:uid="{8EBF64D3-4E70-467E-8E73-0561431C269B}"/>
+    <hyperlink ref="E141" r:id="rId255" location="what-is-mlops" xr:uid="{C8976EDF-B239-45E0-A758-4D8DF246940C}"/>
+    <hyperlink ref="E142" r:id="rId256" location="what-are-the-key-challenges-we-intend-to-solve-with-mlops" xr:uid="{46B921A2-5BA1-4F34-B34E-B7A057F57912}"/>
+    <hyperlink ref="E153:E172" r:id="rId257" display="https://insight.mdlz.com/p/" xr:uid="{5C7B1B90-78E4-45B9-AE89-7FED373B06B3}"/>
+    <hyperlink ref="E143:E154" r:id="rId258" display="https://insight.mdlz.com/p/d4gvdocs" xr:uid="{27E25457-87E2-41B2-909C-A2BC0CD41602}"/>
+    <hyperlink ref="E155:E179" r:id="rId259" display="https://insight.mdlz.com/p/" xr:uid="{27B40690-2D5B-403C-AEEA-749F8DB69EF9}"/>
+    <hyperlink ref="E190" r:id="rId260" xr:uid="{64455EDB-2139-43D4-8205-61EF55408519}"/>
+    <hyperlink ref="E143" r:id="rId261" location="mlops-components" xr:uid="{F52AFB75-C423-4D37-BBF4-46CF9B39C536}"/>
+    <hyperlink ref="E144" r:id="rId262" location="how-to-access-rep" xr:uid="{C85870FF-556B-4C73-A616-AAFAA63390FF}"/>
+    <hyperlink ref="E145" r:id="rId263" location="ml-life-cycle" xr:uid="{725B8B13-A1D9-47B5-85BD-FD20E7D80EB2}"/>
+    <hyperlink ref="E146" r:id="rId264" location="mvp-assessment" xr:uid="{CAE8FF48-B44B-43B8-BCC8-5DD35411BFA6}"/>
+    <hyperlink ref="E147" r:id="rId265" location="pre-industrialization-assessment" xr:uid="{92406200-6890-4180-AD34-08E6DC0424ED}"/>
+    <hyperlink ref="E148" r:id="rId266" location="pre-industrialization-assessment" xr:uid="{00507435-5CFC-4C4C-B326-2921CF0AC720}"/>
+    <hyperlink ref="E149" r:id="rId267" location="minor-enhancement-workflow" xr:uid="{DA9F75C0-911C-40B6-B3E9-D131EC615B50}"/>
+    <hyperlink ref="E150" r:id="rId268" xr:uid="{1B87E866-C103-49FD-B70D-1BB3F807402A}"/>
+    <hyperlink ref="E151" r:id="rId269" xr:uid="{75C0A138-F66B-4485-9428-B898043775BE}"/>
+    <hyperlink ref="E152" r:id="rId270" xr:uid="{D6EA4E02-2E89-4352-8BF9-204C2D289436}"/>
+    <hyperlink ref="E153" r:id="rId271" xr:uid="{AA954110-E720-400D-9945-83660136C5B8}"/>
+    <hyperlink ref="E154" r:id="rId272" xr:uid="{9B2E995B-8FDE-4D11-B29B-B698BA78E15F}"/>
+    <hyperlink ref="E155" r:id="rId273" xr:uid="{AF4824DF-1F2C-47E6-8EF1-4E4D7F0E7BB1}"/>
+    <hyperlink ref="E156" r:id="rId274" xr:uid="{7F08D811-70B2-436A-8AFB-CA8A4AD86AC7}"/>
+    <hyperlink ref="E157" r:id="rId275" location="introduction-to-data-validation--its-benefits" xr:uid="{62A20442-5717-409A-B105-DCF57E1B5314}"/>
+    <hyperlink ref="E158" r:id="rId276" xr:uid="{7C58051B-505A-4C87-B85B-4A434BCFF1B5}"/>
+    <hyperlink ref="E159" r:id="rId277" xr:uid="{FE5CE63F-7607-4116-BAB4-FCBDCFF402C7}"/>
+    <hyperlink ref="E160" r:id="rId278" location="introduction-to-feature-stores--its-benefits" xr:uid="{D15F0168-E6C5-4C5B-8EBE-05324283B7D4}"/>
+    <hyperlink ref="E161" r:id="rId279" xr:uid="{C6613939-BB2E-4ED5-9BE2-BB5DC3AE9294}"/>
+    <hyperlink ref="E162" r:id="rId280" location="introduction-to-data-drift-and-its-benefits" xr:uid="{CBA77768-CC2C-4457-92C7-4073A28292BF}"/>
+    <hyperlink ref="E163" r:id="rId281" location="tools-for-detecting-data-drift" xr:uid="{2C81750D-1352-4012-9CE5-07E47EC3DE3F}"/>
+    <hyperlink ref="E164" r:id="rId282" xr:uid="{2EC3D27E-025D-40D2-B7E7-AF3E64D547F8}"/>
+    <hyperlink ref="E165" r:id="rId283" xr:uid="{FCC8D865-E9FE-4985-AAB7-ECBF4D196ED9}"/>
+    <hyperlink ref="E166" r:id="rId284" xr:uid="{FD675F2F-F4C7-4CD8-82E8-583798C35ABD}"/>
+    <hyperlink ref="E167" r:id="rId285" xr:uid="{09D649B1-0EAC-427F-946B-1B92BF94B36D}"/>
+    <hyperlink ref="E168" r:id="rId286" xr:uid="{A6B96C2A-6408-435C-9D9C-EF227813D60C}"/>
+    <hyperlink ref="E169" r:id="rId287" xr:uid="{E98E07E4-B96F-4FC9-BCC2-DAA3469362AE}"/>
+    <hyperlink ref="E170" r:id="rId288" xr:uid="{1A2668A1-C674-4475-97EC-E8DD9243EEB4}"/>
+    <hyperlink ref="E171" r:id="rId289" xr:uid="{0015D9B9-45D8-45BA-AC45-0BB4AFD88C07}"/>
+    <hyperlink ref="E172" r:id="rId290" xr:uid="{7EE3727A-D81A-4FA5-AB2F-361FEEB32315}"/>
+    <hyperlink ref="E173" r:id="rId291" xr:uid="{172907A3-CE9E-41B2-B9DE-EDF605F02737}"/>
+    <hyperlink ref="E174" r:id="rId292" xr:uid="{0A3B9156-D66B-4EB3-9E54-C3305A93D96A}"/>
+    <hyperlink ref="E175" r:id="rId293" location="introduction-to-model-drift-and-its-benefits" xr:uid="{B11F5A27-9846-4CCE-BB35-623DD7461645}"/>
+    <hyperlink ref="E176" r:id="rId294" location="tools-for-detecting-model-drift" xr:uid="{2656C42B-CF2E-48F6-A991-D2700ED8C6E2}"/>
+    <hyperlink ref="E177" r:id="rId295" xr:uid="{A97DD643-83D5-4B21-9181-3C6147F53368}"/>
+    <hyperlink ref="E178" r:id="rId296" xr:uid="{C9605C89-18CC-4E09-8CB4-70A97E73AE41}"/>
+    <hyperlink ref="E179" r:id="rId297" xr:uid="{E0263BB3-4B13-4DFC-9DC6-C8E5BF01ED82}"/>
+    <hyperlink ref="E180:E189" r:id="rId298" display="https://insight.mdlz.com/p/" xr:uid="{65EFBE06-BFCB-4D33-9ED0-3AAFB1EF4140}"/>
+    <hyperlink ref="E174:E180" r:id="rId299" display="https://insight.mdlz.com/p/" xr:uid="{91B6F391-4447-4E46-83D1-A48B2271391F}"/>
+    <hyperlink ref="E180" r:id="rId300" xr:uid="{57ADF882-E9C2-4031-865D-13CBF9AA692E}"/>
+    <hyperlink ref="E181" r:id="rId301" xr:uid="{138E8275-ADE1-4AAD-A782-CDDF2D18E645}"/>
+    <hyperlink ref="E182" r:id="rId302" xr:uid="{7E9DF841-C05E-4C96-B62F-0BF1005CAEB3}"/>
+    <hyperlink ref="E183" r:id="rId303" location="frameworks-for-model-xai" xr:uid="{427C4DD7-A698-4C8E-B4CE-93596DD081F9}"/>
+    <hyperlink ref="E184" r:id="rId304" xr:uid="{6F3D1EA3-A8D3-486C-9CEE-55DE4A3BB7F5}"/>
+    <hyperlink ref="E185" r:id="rId305" xr:uid="{C99B0A4C-B705-4643-9C42-D6C8DCE81D6E}"/>
+    <hyperlink ref="E186" r:id="rId306" xr:uid="{A6ADAB43-85C5-4016-9FB9-28CC47A1AC71}"/>
+    <hyperlink ref="E187" r:id="rId307" xr:uid="{1AEC31E7-D921-43E3-B124-3799BACFF145}"/>
+    <hyperlink ref="E188" r:id="rId308" location="7-continuous-integration-ci" xr:uid="{9C65A458-C346-4E18-96EE-2B3DBDCFBA56}"/>
+    <hyperlink ref="E189" r:id="rId309" location="8-continuous-delivery" xr:uid="{932D40A7-D751-4E16-90F0-04E24FC3A0B2}"/>
+    <hyperlink ref="E191" r:id="rId310" xr:uid="{29F29713-B964-4741-8452-2DF1F5B0DE00}"/>
+    <hyperlink ref="E192" r:id="rId311" xr:uid="{3E680760-3849-4E9F-8E0C-C9488C7E3D70}"/>
+    <hyperlink ref="E193" r:id="rId312" xr:uid="{6BD1BF3C-199F-411C-867D-9765B6D62CEF}"/>
+    <hyperlink ref="E194" r:id="rId313" location="debt" xr:uid="{7DB13559-A9BF-4871-94B8-30FD20DAC041}"/>
+    <hyperlink ref="E195" r:id="rId314" xr:uid="{9B9EC260-8021-4EE6-9564-6DAC90B212A1}"/>
+    <hyperlink ref="E196" r:id="rId315" xr:uid="{7F24618A-017B-4C3C-9977-1162613F5368}"/>
+    <hyperlink ref="E197" r:id="rId316" xr:uid="{EEEB9C05-6CDB-40CC-8337-C6C88D338E11}"/>
+    <hyperlink ref="E198" r:id="rId317" xr:uid="{48CA2A86-E945-459C-B18D-8248FE0545D7}"/>
+    <hyperlink ref="E199" r:id="rId318" xr:uid="{96D681A6-66F0-47EC-AE25-0C2FFFCB23F1}"/>
+    <hyperlink ref="E201" r:id="rId319" xr:uid="{2688664A-C252-4849-AA40-FED3D669A7B2}"/>
+    <hyperlink ref="E200" r:id="rId320" xr:uid="{273A8154-28F2-47AD-9D4E-87EECB0C4BBD}"/>
+    <hyperlink ref="E202" r:id="rId321" xr:uid="{F3C1A791-8D5B-4A54-95A7-F562F06EB2C3}"/>
+    <hyperlink ref="E203" r:id="rId322" xr:uid="{E7E887A9-7FD5-48FB-B81A-36DB31B46619}"/>
+    <hyperlink ref="E204" r:id="rId323" location="workflow-performance-montoring" xr:uid="{594C4E25-2502-431B-B9DD-93C70766EF57}"/>
+    <hyperlink ref="E205" r:id="rId324" xr:uid="{E7902211-39BE-46EB-ACF8-DC755EFBBD66}"/>
+    <hyperlink ref="E206" r:id="rId325" xr:uid="{85F7A8A4-D2C0-446C-9731-05A4912036E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId255"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId326"/>
 </worksheet>
 </file>
 

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\PycharmProjects\Datahub Chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7183B6-895A-4B57-9FAC-800E487E2B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D380BBD9-B669-470C-9573-32E954CA3244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="562">
   <si>
     <t>Category</t>
   </si>
@@ -1595,12 +1595,6 @@
     <t>https://insight.mdlz.com/p/d4gvdocs/DSGovernance/Educational-Sessions.html</t>
   </si>
   <si>
-    <t>MLOps Getting Started</t>
-  </si>
-  <si>
-    <t>Machine Learning Life Cycle</t>
-  </si>
-  <si>
     <t>Minor Enhancement Workflow</t>
   </si>
   <si>
@@ -1616,9 +1610,6 @@
     <t>Feature Store</t>
   </si>
   <si>
-    <t>Data Drift</t>
-  </si>
-  <si>
     <t>Model Experiments</t>
   </si>
   <si>
@@ -1652,15 +1643,9 @@
     <t>Model_Approval Experiments</t>
   </si>
   <si>
-    <t>CI/L= Market-Place/Docs/Url=Https%3A%2F%2Finsight.Mdlz.Com%2Fp%2Fd4Gvdocs%2Fdsgovernance%2Fcicd-Strategy</t>
-  </si>
-  <si>
     <t>CI/NARQUBE_INTEGRATION.HTML Integration</t>
   </si>
   <si>
-    <t>CI/NARQUBE Analysis-Report</t>
-  </si>
-  <si>
     <t>Workflow Performance Monitoring</t>
   </si>
   <si>
@@ -1677,6 +1662,72 @@
   </si>
   <si>
     <t>GENERIC Log-Management</t>
+  </si>
+  <si>
+    <t>MLOps Getting Started - Intro</t>
+  </si>
+  <si>
+    <t>MLOps Getting Started - Key Challenges</t>
+  </si>
+  <si>
+    <t>MLOps Getting Started - Components</t>
+  </si>
+  <si>
+    <t>MLOps Getting Started - How to Access</t>
+  </si>
+  <si>
+    <t>Machine Learning Life Cycle - Intro</t>
+  </si>
+  <si>
+    <t>Machine Learning Life Cycle - MVP Assessment</t>
+  </si>
+  <si>
+    <t>Machine Learning Life Cycle - Pre Industrialization Assessment</t>
+  </si>
+  <si>
+    <t>Machine Learning Life Cycle - Readiness</t>
+  </si>
+  <si>
+    <t>Data Validation - Benefits</t>
+  </si>
+  <si>
+    <t>Feature Store - Benefits</t>
+  </si>
+  <si>
+    <t>Data Drift - Intro</t>
+  </si>
+  <si>
+    <t>Data Drift - Tools for detecting</t>
+  </si>
+  <si>
+    <t>Data Drift - Example Implementation</t>
+  </si>
+  <si>
+    <t>Model Drift - Intro</t>
+  </si>
+  <si>
+    <t>Model Drift - Tools for detecting drift</t>
+  </si>
+  <si>
+    <t>Model Explainability - Framework</t>
+  </si>
+  <si>
+    <t>CI/CD Strategy - Continuous Integration</t>
+  </si>
+  <si>
+    <t>CI/CD Strategy - Continuous Delivery</t>
+  </si>
+  <si>
+    <t>Approval Process</t>
+  </si>
+  <si>
+    <t>SONARQUBE Analysis-Report</t>
+  </si>
+  <si>
+    <t>SONARQUBE Analysis-Report Technical Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Experiments </t>
   </si>
 </sst>
 </file>
@@ -2127,9 +2178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A142" sqref="A142:A206"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F166" sqref="F166:F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5070,7 +5121,7 @@
         <v>474</v>
       </c>
       <c r="F141" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -5090,7 +5141,7 @@
         <v>475</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -5110,7 +5161,7 @@
         <v>476</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -5130,7 +5181,7 @@
         <v>477</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -5150,7 +5201,7 @@
         <v>478</v>
       </c>
       <c r="F145" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -5170,7 +5221,7 @@
         <v>479</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -5190,7 +5241,7 @@
         <v>480</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -5210,7 +5261,7 @@
         <v>480</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -5230,7 +5281,7 @@
         <v>481</v>
       </c>
       <c r="F149" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -5250,7 +5301,7 @@
         <v>482</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -5270,7 +5321,7 @@
         <v>483</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -5290,7 +5341,7 @@
         <v>483</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -5310,7 +5361,7 @@
         <v>483</v>
       </c>
       <c r="F153" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -5330,7 +5381,7 @@
         <v>484</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -5350,7 +5401,7 @@
         <v>485</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -5370,7 +5421,7 @@
         <v>485</v>
       </c>
       <c r="F156" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -5390,7 +5441,7 @@
         <v>486</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -5410,7 +5461,7 @@
         <v>485</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -5430,7 +5481,7 @@
         <v>487</v>
       </c>
       <c r="F159" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -5450,7 +5501,7 @@
         <v>488</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -5470,7 +5521,7 @@
         <v>487</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -5490,7 +5541,7 @@
         <v>489</v>
       </c>
       <c r="F162" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -5510,7 +5561,7 @@
         <v>490</v>
       </c>
       <c r="F163" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -5530,7 +5581,7 @@
         <v>491</v>
       </c>
       <c r="F164" s="17" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -5550,7 +5601,7 @@
         <v>492</v>
       </c>
       <c r="F165" s="17" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -5570,7 +5621,7 @@
         <v>492</v>
       </c>
       <c r="F166" s="17" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -5590,7 +5641,7 @@
         <v>492</v>
       </c>
       <c r="F167" s="17" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -5610,7 +5661,7 @@
         <v>492</v>
       </c>
       <c r="F168" s="17" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -5630,7 +5681,7 @@
         <v>493</v>
       </c>
       <c r="F169" s="17" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -5650,7 +5701,7 @@
         <v>494</v>
       </c>
       <c r="F170" s="17" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -5670,7 +5721,7 @@
         <v>494</v>
       </c>
       <c r="F171" s="17" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -5690,7 +5741,7 @@
         <v>495</v>
       </c>
       <c r="F172" s="17" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -5710,7 +5761,7 @@
         <v>494</v>
       </c>
       <c r="F173" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -5730,7 +5781,7 @@
         <v>496</v>
       </c>
       <c r="F174" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -5750,7 +5801,7 @@
         <v>497</v>
       </c>
       <c r="F175" s="17" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -5770,7 +5821,7 @@
         <v>498</v>
       </c>
       <c r="F176" s="17" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -5790,7 +5841,7 @@
         <v>496</v>
       </c>
       <c r="F177" s="17" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -5810,7 +5861,7 @@
         <v>499</v>
       </c>
       <c r="F178" s="17" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -5850,7 +5901,7 @@
         <v>499</v>
       </c>
       <c r="F180" s="17" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -5870,7 +5921,7 @@
         <v>500</v>
       </c>
       <c r="F181" s="17" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -5890,7 +5941,7 @@
         <v>500</v>
       </c>
       <c r="F182" s="17" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -5910,7 +5961,7 @@
         <v>501</v>
       </c>
       <c r="F183" s="17" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -5930,7 +5981,7 @@
         <v>502</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -5950,7 +6001,7 @@
         <v>502</v>
       </c>
       <c r="F185" s="17" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -5970,7 +6021,7 @@
         <v>502</v>
       </c>
       <c r="F186" s="17" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -5990,7 +6041,7 @@
         <v>502</v>
       </c>
       <c r="F187" s="17" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -6010,7 +6061,7 @@
         <v>503</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -6030,7 +6081,7 @@
         <v>504</v>
       </c>
       <c r="F189" s="17" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -6050,7 +6101,7 @@
         <v>505</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -6070,7 +6121,7 @@
         <v>506</v>
       </c>
       <c r="F191" s="17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -6090,7 +6141,7 @@
         <v>507</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -6110,7 +6161,7 @@
         <v>507</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
@@ -6130,7 +6181,7 @@
         <v>508</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -6150,7 +6201,7 @@
         <v>509</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -6170,7 +6221,7 @@
         <v>510</v>
       </c>
       <c r="F196" s="17" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -6190,7 +6241,7 @@
         <v>510</v>
       </c>
       <c r="F197" s="17" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -6210,7 +6261,7 @@
         <v>511</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -6230,7 +6281,7 @@
         <v>511</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -6250,7 +6301,7 @@
         <v>512</v>
       </c>
       <c r="F200" s="17" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -6270,7 +6321,7 @@
         <v>512</v>
       </c>
       <c r="F201" s="17" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -6290,7 +6341,7 @@
         <v>513</v>
       </c>
       <c r="F202" s="17" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -6310,7 +6361,7 @@
         <v>513</v>
       </c>
       <c r="F203" s="17" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -6330,7 +6381,7 @@
         <v>514</v>
       </c>
       <c r="F204" s="17" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -6350,7 +6401,7 @@
         <v>515</v>
       </c>
       <c r="F205" s="17" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -6370,7 +6421,7 @@
         <v>516</v>
       </c>
       <c r="F206" s="17" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\PycharmProjects\Datahub Chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D380BBD9-B669-470C-9573-32E954CA3244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA2139-739B-4643-9651-E2D5DDC3B14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="621">
   <si>
     <t>Category</t>
   </si>
@@ -1728,6 +1728,183 @@
   </si>
   <si>
     <t xml:space="preserve">Model Experiments </t>
+  </si>
+  <si>
+    <t>MDS Project Mgmt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Mondelez Portfolio (MSPO) Process </t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/PVRTeam</t>
+  </si>
+  <si>
+    <t>What is Mondelez Project Mgmt. Capability Framework</t>
+  </si>
+  <si>
+    <t>https://intranet.mdlz.com/sites/MIU/Pages/PMCDF.aspx</t>
+  </si>
+  <si>
+    <t>What is Mondelez Toll Gate Methodology for Project Delivery</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/tollgatemethodology/Pages/HomePage.aspx</t>
+  </si>
+  <si>
+    <t>D&amp;A Project Mgmt.</t>
+  </si>
+  <si>
+    <t>Mondelez MDS D&amp;A General Onboarding</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/sites/usarise/Shared%20Documents/Forms/AllItems.aspx?FolderCTID=0x0120009687463DA2EB954FB59C1AE67439BA4C&amp;id=%2Fsites%2Fusarise%2FShared%20Documents%2FGeneral%2F00%2E%20Onboarding%2F01%2E%20MDS%2F10%2E%20Onboarding%20videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where do I need to capture D&amp;A Project (Incl. Prototype) or Program Demand </t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/:x:/r/sites/ibsdataandanalytics/_layouts/15/Doc.aspx?sourcedoc=%7BB0793A6C-1CCA-4F8F-93B9-B1268718CB9D%7D&amp;file=Demand%20Tracker%20v.1.xlsx&amp;action=default&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>What is CMDL (Certified Master Data Lake)</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/CMDLComms</t>
+  </si>
+  <si>
+    <t>Project Execution</t>
+  </si>
+  <si>
+    <t>Where can I find all Projects which are in Execution</t>
+  </si>
+  <si>
+    <t>Project Mgmt.</t>
+  </si>
+  <si>
+    <t>What is D&amp;A Operating Model for Project Delivery followed in LA region</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=C7C4X1&amp;CID=8d0e24a9%2D7bea%2D46a6%2D9501%2D656778853926&amp;FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model</t>
+  </si>
+  <si>
+    <t>What are deliverables to consider as part of D&amp;A Project Delivery</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/:b:/r/sites/enterprisedataplatformteam/Shared%20Documents/General/D%26A_Governance%20%26%20Methodology/1.%20D%26A%20Operating%20Model/Project%20Deliverables_by%20Phase.pdf?csf=1&amp;web=1&amp;e=whjcKp</t>
+  </si>
+  <si>
+    <t>How to move source code changes and prep for move to production?</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/sites/ibsdataandanalytics/Shared%20Documents/Production%20Change%20Control/01.%20Change%20Advisory%20Board/D&amp;A%20Calendar%20&amp;%20CAB%20-%20FAQ's.pptx?web=1</t>
+  </si>
+  <si>
+    <t>What is D&amp;A schedule for releasing changes in production environment?</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/sites/ibsdataandanalytics/Shared%20Documents/Production%20Change%20Control/01.%20Change%20Advisory%20Board/MDS%20D&amp;A%20Release%20Calendar_v1.xlsx?web=1</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is DevOps Engineer Practices </t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/:w:/r/sites/d4gvdevopscoe/_layouts/15/Doc.aspx?sourcedoc=%7BB405DD08-92FA-4C1A-B0D8-D05372A5E0A3%7D&amp;file=D4GV%20DevOps%20Handbook%202024.docx&amp;action=default&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>What is D&amp;A DevOps GitHub Branching Strategy and Process?</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/:w:/r/sites/ibsdataandanalytics/Shared%20Documents/Production%20Change%20Control/01.%20Change%20Advisory%20Board/CAB%20and%20GitHub%20code%20deployment%20process%20v2.docx?d=wbf81de9c93024ecb9c6cd27152081d0a&amp;csf=1&amp;web=1&amp;e=qopwwv</t>
+  </si>
+  <si>
+    <t>Test Mgmt.</t>
+  </si>
+  <si>
+    <t>What is D&amp;A Testing Framework</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/:p:/r/sites/d4gvdevopscoe/_layouts/15/Doc.aspx?sourcedoc=%7BABC5CA2C-F718-4163-828F-F18CF5B61AA5%7D&amp;file=Mondelez%20D%26A%20Testing%20Framework%20V2.0.pptx&amp;action=edit&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>What is D&amp;A Testing Handbook</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/:p:/r/sites/d4gvdevopscoe/_layouts/15/Doc.aspx?sourcedoc=%7B78F88548-641D-4497-9FDE-C895165FB6CE%7D&amp;file=D&amp;A%20Testing_Playbook.pptx=&amp;action=edit&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>How to use qTest for D&amp;A Project</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/:w:/r/sites/d4gvdevopscoe/_layouts/15/Doc.aspx?sourcedoc=%7B428FDC4F-ED90-41E5-AD5D-D8B4C53922CC%7D&amp;file=qTest%20User%20Manual.docx&amp;action=default&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>What is a Project Manager Handbook to be followed as best practices LA region</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:w:/r/sites/LADataAnalytics/_layouts/15/guestaccess.aspx?share=EdBTILiOXkRLnjD_D7qeh4QBxpjsmZvjDmxtyooAaskaRg</t>
+  </si>
+  <si>
+    <t>https://partners.mdlz.com/:w:/r/sites/AMEADAWS/_layouts/15/doc2.aspx?sourcedoc=%7Bfa127fe4-126d-4545-a18d-60983f0d9927%7D&amp;action=edit&amp;wdPid=552febe9&amp;cid=4d38515f-afdf-4d61-a306-d25df37f26ae</t>
+  </si>
+  <si>
+    <t>What is a Project Manager Handbook to be followed as best practices AMEA region</t>
+  </si>
+  <si>
+    <t>MSPO Process</t>
+  </si>
+  <si>
+    <t>PMCDF</t>
+  </si>
+  <si>
+    <t>Toll Gate Methodology</t>
+  </si>
+  <si>
+    <t>D&amp;A General Onboarding</t>
+  </si>
+  <si>
+    <t>D&amp;A Demand Tracker</t>
+  </si>
+  <si>
+    <t>CMDL</t>
+  </si>
+  <si>
+    <t>Project List</t>
+  </si>
+  <si>
+    <t>D&amp;A Operating Model for Project Delivery</t>
+  </si>
+  <si>
+    <t>Project Manager Handbook LA</t>
+  </si>
+  <si>
+    <t>Project Manager Handbook AMEA</t>
+  </si>
+  <si>
+    <t>Project Deliverables</t>
+  </si>
+  <si>
+    <t>Production Change Control - FAQ</t>
+  </si>
+  <si>
+    <t>Production Change Control - Release Calendar</t>
+  </si>
+  <si>
+    <t>DevOps Handbook</t>
+  </si>
+  <si>
+    <t>Production Change Control - Deployment Process</t>
+  </si>
+  <si>
+    <t>D&amp;A Testing Framework</t>
+  </si>
+  <si>
+    <t>D&amp;A Testing Playbook</t>
+  </si>
+  <si>
+    <t>qTest</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1956,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1813,12 +1990,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1856,11 +2042,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2176,11 +2373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
-  <dimension ref="A1:L206"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F166" sqref="F166:F168"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F225" sqref="F225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5108,7 +5305,7 @@
       <c r="A141" t="s">
         <v>400</v>
       </c>
-      <c r="B141" s="17" t="s">
+      <c r="B141" s="19" t="s">
         <v>401</v>
       </c>
       <c r="C141" t="s">
@@ -5117,7 +5314,7 @@
       <c r="D141" t="s">
         <v>402</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="20" t="s">
         <v>474</v>
       </c>
       <c r="F141" t="s">
@@ -5125,10 +5322,10 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="19" t="s">
         <v>401</v>
       </c>
       <c r="C142" t="s">
@@ -5137,18 +5334,18 @@
       <c r="D142" t="s">
         <v>403</v>
       </c>
-      <c r="E142" s="19" t="s">
+      <c r="E142" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="F142" s="17" t="s">
+      <c r="F142" s="19" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="19" t="s">
         <v>401</v>
       </c>
       <c r="C143" t="s">
@@ -5157,18 +5354,18 @@
       <c r="D143" t="s">
         <v>404</v>
       </c>
-      <c r="E143" s="18" t="s">
+      <c r="E143" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="F143" s="17" t="s">
+      <c r="F143" s="19" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="19" t="s">
         <v>401</v>
       </c>
       <c r="C144" t="s">
@@ -5177,18 +5374,18 @@
       <c r="D144" t="s">
         <v>405</v>
       </c>
-      <c r="E144" s="18" t="s">
+      <c r="E144" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="F144" s="17" t="s">
+      <c r="F144" s="19" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="17" t="s">
+      <c r="A145" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="19" t="s">
         <v>406</v>
       </c>
       <c r="C145" t="s">
@@ -5197,7 +5394,7 @@
       <c r="D145" t="s">
         <v>407</v>
       </c>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="20" t="s">
         <v>478</v>
       </c>
       <c r="F145" t="s">
@@ -5205,10 +5402,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="19" t="s">
         <v>406</v>
       </c>
       <c r="C146" t="s">
@@ -5217,18 +5414,18 @@
       <c r="D146" t="s">
         <v>408</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="F146" s="17" t="s">
+      <c r="F146" s="19" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="17" t="s">
+      <c r="A147" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="19" t="s">
         <v>406</v>
       </c>
       <c r="C147" t="s">
@@ -5237,18 +5434,18 @@
       <c r="D147" t="s">
         <v>409</v>
       </c>
-      <c r="E147" s="18" t="s">
+      <c r="E147" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="F147" s="17" t="s">
+      <c r="F147" s="19" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="17" t="s">
+      <c r="A148" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="19" t="s">
         <v>406</v>
       </c>
       <c r="C148" t="s">
@@ -5257,18 +5454,18 @@
       <c r="D148" t="s">
         <v>410</v>
       </c>
-      <c r="E148" s="18" t="s">
+      <c r="E148" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="F148" s="17" t="s">
+      <c r="F148" s="19" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="17" t="s">
+      <c r="A149" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="19" t="s">
         <v>406</v>
       </c>
       <c r="C149" t="s">
@@ -5277,7 +5474,7 @@
       <c r="D149" t="s">
         <v>411</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="20" t="s">
         <v>481</v>
       </c>
       <c r="F149" t="s">
@@ -5285,10 +5482,10 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="19" t="s">
         <v>406</v>
       </c>
       <c r="C150" t="s">
@@ -5297,18 +5494,18 @@
       <c r="D150" t="s">
         <v>412</v>
       </c>
-      <c r="E150" s="18" t="s">
+      <c r="E150" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="F150" s="17" t="s">
+      <c r="F150" s="19" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="17" t="s">
+      <c r="A151" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="19" t="s">
         <v>413</v>
       </c>
       <c r="C151" t="s">
@@ -5317,18 +5514,18 @@
       <c r="D151" t="s">
         <v>414</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="F151" s="17" t="s">
+      <c r="F151" s="19" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" s="17" t="s">
+      <c r="A152" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="19" t="s">
         <v>413</v>
       </c>
       <c r="C152" t="s">
@@ -5337,18 +5534,18 @@
       <c r="D152" t="s">
         <v>415</v>
       </c>
-      <c r="E152" s="18" t="s">
+      <c r="E152" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="F152" s="17" t="s">
+      <c r="F152" s="19" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="17" t="s">
+      <c r="A153" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="19" t="s">
         <v>413</v>
       </c>
       <c r="C153" t="s">
@@ -5357,18 +5554,18 @@
       <c r="D153" t="s">
         <v>416</v>
       </c>
-      <c r="E153" s="18" t="s">
+      <c r="E153" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="F153" s="17" t="s">
+      <c r="F153" s="19" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="17" t="s">
+      <c r="A154" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C154" t="s">
@@ -5377,18 +5574,18 @@
       <c r="D154" t="s">
         <v>418</v>
       </c>
-      <c r="E154" s="18" t="s">
+      <c r="E154" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="F154" s="17" t="s">
+      <c r="F154" s="19" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B155" s="17" t="s">
+      <c r="B155" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C155" t="s">
@@ -5397,18 +5594,18 @@
       <c r="D155" t="s">
         <v>419</v>
       </c>
-      <c r="E155" s="18" t="s">
+      <c r="E155" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="F155" s="17" t="s">
+      <c r="F155" s="19" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B156" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C156" t="s">
@@ -5417,18 +5614,18 @@
       <c r="D156" t="s">
         <v>420</v>
       </c>
-      <c r="E156" s="18" t="s">
+      <c r="E156" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="F156" s="17" t="s">
+      <c r="F156" s="19" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="17" t="s">
+      <c r="A157" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C157" t="s">
@@ -5437,18 +5634,18 @@
       <c r="D157" t="s">
         <v>421</v>
       </c>
-      <c r="E157" s="18" t="s">
+      <c r="E157" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="F157" s="17" t="s">
+      <c r="F157" s="19" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B158" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C158" t="s">
@@ -5457,18 +5654,18 @@
       <c r="D158" t="s">
         <v>422</v>
       </c>
-      <c r="E158" s="18" t="s">
+      <c r="E158" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="F158" s="17" t="s">
+      <c r="F158" s="19" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C159" t="s">
@@ -5477,7 +5674,7 @@
       <c r="D159" t="s">
         <v>423</v>
       </c>
-      <c r="E159" s="18" t="s">
+      <c r="E159" s="20" t="s">
         <v>487</v>
       </c>
       <c r="F159" t="s">
@@ -5485,10 +5682,10 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="17" t="s">
+      <c r="A160" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C160" t="s">
@@ -5497,18 +5694,18 @@
       <c r="D160" t="s">
         <v>424</v>
       </c>
-      <c r="E160" s="18" t="s">
+      <c r="E160" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="F160" s="17" t="s">
+      <c r="F160" s="19" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" s="17" t="s">
+      <c r="A161" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C161" t="s">
@@ -5517,18 +5714,18 @@
       <c r="D161" t="s">
         <v>425</v>
       </c>
-      <c r="E161" s="18" t="s">
+      <c r="E161" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="F161" s="17" t="s">
+      <c r="F161" s="19" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" s="17" t="s">
+      <c r="A162" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C162" t="s">
@@ -5537,7 +5734,7 @@
       <c r="D162" t="s">
         <v>426</v>
       </c>
-      <c r="E162" s="18" t="s">
+      <c r="E162" s="20" t="s">
         <v>489</v>
       </c>
       <c r="F162" t="s">
@@ -5545,10 +5742,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" s="17" t="s">
+      <c r="A163" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B163" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C163" t="s">
@@ -5557,7 +5754,7 @@
       <c r="D163" t="s">
         <v>427</v>
       </c>
-      <c r="E163" s="18" t="s">
+      <c r="E163" s="20" t="s">
         <v>490</v>
       </c>
       <c r="F163" t="s">
@@ -5565,10 +5762,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" s="17" t="s">
+      <c r="A164" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C164" t="s">
@@ -5577,18 +5774,18 @@
       <c r="D164" t="s">
         <v>428</v>
       </c>
-      <c r="E164" s="18" t="s">
+      <c r="E164" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="F164" s="17" t="s">
+      <c r="F164" s="19" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="17" t="s">
+      <c r="A165" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C165" t="s">
@@ -5597,18 +5794,18 @@
       <c r="D165" t="s">
         <v>429</v>
       </c>
-      <c r="E165" s="18" t="s">
+      <c r="E165" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="F165" s="17" t="s">
+      <c r="F165" s="19" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" s="17" t="s">
+      <c r="A166" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C166" t="s">
@@ -5617,18 +5814,18 @@
       <c r="D166" t="s">
         <v>430</v>
       </c>
-      <c r="E166" s="18" t="s">
+      <c r="E166" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="F166" s="17" t="s">
+      <c r="F166" s="19" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C167" t="s">
@@ -5637,18 +5834,18 @@
       <c r="D167" t="s">
         <v>431</v>
       </c>
-      <c r="E167" s="18" t="s">
+      <c r="E167" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="F167" s="17" t="s">
+      <c r="F167" s="19" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="17" t="s">
+      <c r="A168" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C168" t="s">
@@ -5657,18 +5854,18 @@
       <c r="D168" t="s">
         <v>432</v>
       </c>
-      <c r="E168" s="18" t="s">
+      <c r="E168" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="F168" s="17" t="s">
+      <c r="F168" s="19" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="17" t="s">
+      <c r="A169" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C169" t="s">
@@ -5677,18 +5874,18 @@
       <c r="D169" t="s">
         <v>433</v>
       </c>
-      <c r="E169" s="18" t="s">
+      <c r="E169" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="F169" s="17" t="s">
+      <c r="F169" s="19" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" s="17" t="s">
+      <c r="A170" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C170" t="s">
@@ -5697,18 +5894,18 @@
       <c r="D170" t="s">
         <v>434</v>
       </c>
-      <c r="E170" s="18" t="s">
+      <c r="E170" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="F170" s="17" t="s">
+      <c r="F170" s="19" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" s="17" t="s">
+      <c r="A171" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C171" t="s">
@@ -5717,18 +5914,18 @@
       <c r="D171" t="s">
         <v>435</v>
       </c>
-      <c r="E171" s="18" t="s">
+      <c r="E171" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="F171" s="17" t="s">
+      <c r="F171" s="19" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="17" t="s">
+      <c r="A172" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C172" t="s">
@@ -5737,18 +5934,18 @@
       <c r="D172" t="s">
         <v>436</v>
       </c>
-      <c r="E172" s="18" t="s">
+      <c r="E172" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="F172" s="17" t="s">
+      <c r="F172" s="19" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="17" t="s">
+      <c r="A173" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="B173" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C173" t="s">
@@ -5757,18 +5954,18 @@
       <c r="D173" t="s">
         <v>437</v>
       </c>
-      <c r="E173" s="18" t="s">
+      <c r="E173" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="F173" s="17" t="s">
+      <c r="F173" s="19" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="17" t="s">
+      <c r="A174" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B174" s="17" t="s">
+      <c r="B174" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C174" t="s">
@@ -5777,18 +5974,18 @@
       <c r="D174" t="s">
         <v>438</v>
       </c>
-      <c r="E174" s="18" t="s">
+      <c r="E174" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="F174" s="17" t="s">
+      <c r="F174" s="19" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="17" t="s">
+      <c r="A175" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C175" t="s">
@@ -5797,18 +5994,18 @@
       <c r="D175" t="s">
         <v>439</v>
       </c>
-      <c r="E175" s="18" t="s">
+      <c r="E175" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="F175" s="17" t="s">
+      <c r="F175" s="19" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" s="17" t="s">
+      <c r="A176" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C176" t="s">
@@ -5817,18 +6014,18 @@
       <c r="D176" t="s">
         <v>440</v>
       </c>
-      <c r="E176" s="18" t="s">
+      <c r="E176" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="F176" s="17" t="s">
+      <c r="F176" s="19" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="17" t="s">
+      <c r="A177" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B177" s="17" t="s">
+      <c r="B177" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C177" t="s">
@@ -5837,18 +6034,18 @@
       <c r="D177" t="s">
         <v>441</v>
       </c>
-      <c r="E177" s="18" t="s">
+      <c r="E177" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="F177" s="17" t="s">
+      <c r="F177" s="19" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="17" t="s">
+      <c r="A178" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B178" s="17" t="s">
+      <c r="B178" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C178" t="s">
@@ -5857,18 +6054,18 @@
       <c r="D178" t="s">
         <v>442</v>
       </c>
-      <c r="E178" s="18" t="s">
+      <c r="E178" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F178" s="17" t="s">
+      <c r="F178" s="19" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C179" t="s">
@@ -5877,18 +6074,18 @@
       <c r="D179" t="s">
         <v>443</v>
       </c>
-      <c r="E179" s="18" t="s">
+      <c r="E179" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F179" s="17" t="s">
+      <c r="F179" s="19" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" s="17" t="s">
+      <c r="A180" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C180" t="s">
@@ -5897,18 +6094,18 @@
       <c r="D180" t="s">
         <v>444</v>
       </c>
-      <c r="E180" s="18" t="s">
+      <c r="E180" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F180" s="17" t="s">
+      <c r="F180" s="19" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="17" t="s">
+      <c r="A181" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C181" t="s">
@@ -5917,18 +6114,18 @@
       <c r="D181" t="s">
         <v>445</v>
       </c>
-      <c r="E181" s="18" t="s">
+      <c r="E181" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F181" s="17" t="s">
+      <c r="F181" s="19" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="17" t="s">
+      <c r="A182" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C182" t="s">
@@ -5937,18 +6134,18 @@
       <c r="D182" t="s">
         <v>446</v>
       </c>
-      <c r="E182" s="18" t="s">
+      <c r="E182" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F182" s="17" t="s">
+      <c r="F182" s="19" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="17" t="s">
+      <c r="A183" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B183" s="17" t="s">
+      <c r="B183" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C183" t="s">
@@ -5957,18 +6154,18 @@
       <c r="D183" t="s">
         <v>447</v>
       </c>
-      <c r="E183" s="18" t="s">
+      <c r="E183" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="F183" s="17" t="s">
+      <c r="F183" s="19" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="17" t="s">
+      <c r="A184" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B184" s="17" t="s">
+      <c r="B184" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C184" t="s">
@@ -5977,18 +6174,18 @@
       <c r="D184" t="s">
         <v>449</v>
       </c>
-      <c r="E184" s="18" t="s">
+      <c r="E184" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="F184" s="17" t="s">
+      <c r="F184" s="19" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="17" t="s">
+      <c r="A185" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B185" s="17" t="s">
+      <c r="B185" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C185" t="s">
@@ -5997,18 +6194,18 @@
       <c r="D185" t="s">
         <v>450</v>
       </c>
-      <c r="E185" s="18" t="s">
+      <c r="E185" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="F185" s="17" t="s">
+      <c r="F185" s="19" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" s="17" t="s">
+      <c r="A186" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B186" s="17" t="s">
+      <c r="B186" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C186" t="s">
@@ -6017,18 +6214,18 @@
       <c r="D186" t="s">
         <v>451</v>
       </c>
-      <c r="E186" s="18" t="s">
+      <c r="E186" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="F186" s="17" t="s">
+      <c r="F186" s="19" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" s="17" t="s">
+      <c r="A187" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B187" s="17" t="s">
+      <c r="B187" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C187" t="s">
@@ -6037,18 +6234,18 @@
       <c r="D187" t="s">
         <v>452</v>
       </c>
-      <c r="E187" s="18" t="s">
+      <c r="E187" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="F187" s="17" t="s">
+      <c r="F187" s="19" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="17" t="s">
+      <c r="A188" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C188" t="s">
@@ -6057,18 +6254,18 @@
       <c r="D188" t="s">
         <v>453</v>
       </c>
-      <c r="E188" s="18" t="s">
+      <c r="E188" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="F188" s="17" t="s">
+      <c r="F188" s="19" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="17" t="s">
+      <c r="A189" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B189" s="17" t="s">
+      <c r="B189" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C189" t="s">
@@ -6077,18 +6274,18 @@
       <c r="D189" t="s">
         <v>454</v>
       </c>
-      <c r="E189" s="18" t="s">
+      <c r="E189" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="F189" s="17" t="s">
+      <c r="F189" s="19" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="17" t="s">
+      <c r="A190" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B190" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C190" t="s">
@@ -6097,18 +6294,18 @@
       <c r="D190" t="s">
         <v>455</v>
       </c>
-      <c r="E190" s="18" t="s">
+      <c r="E190" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="F190" s="17" t="s">
+      <c r="F190" s="19" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="17" t="s">
+      <c r="A191" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B191" s="17" t="s">
+      <c r="B191" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C191" t="s">
@@ -6117,18 +6314,18 @@
       <c r="D191" t="s">
         <v>456</v>
       </c>
-      <c r="E191" s="18" t="s">
+      <c r="E191" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="F191" s="17" t="s">
+      <c r="F191" s="19" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="17" t="s">
+      <c r="A192" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C192" t="s">
@@ -6137,18 +6334,18 @@
       <c r="D192" t="s">
         <v>457</v>
       </c>
-      <c r="E192" s="18" t="s">
+      <c r="E192" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="F192" s="17" t="s">
+      <c r="F192" s="19" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="17" t="s">
+      <c r="A193" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B193" s="17" t="s">
+      <c r="B193" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C193" t="s">
@@ -6157,18 +6354,18 @@
       <c r="D193" t="s">
         <v>458</v>
       </c>
-      <c r="E193" s="18" t="s">
+      <c r="E193" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="F193" s="17" t="s">
+      <c r="F193" s="19" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="17" t="s">
+      <c r="A194" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B194" s="17" t="s">
+      <c r="B194" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C194" t="s">
@@ -6177,18 +6374,18 @@
       <c r="D194" t="s">
         <v>459</v>
       </c>
-      <c r="E194" s="18" t="s">
+      <c r="E194" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="F194" s="17" t="s">
+      <c r="F194" s="19" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="17" t="s">
+      <c r="A195" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B195" s="17" t="s">
+      <c r="B195" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C195" t="s">
@@ -6197,18 +6394,18 @@
       <c r="D195" t="s">
         <v>460</v>
       </c>
-      <c r="E195" s="18" t="s">
+      <c r="E195" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="F195" s="17" t="s">
+      <c r="F195" s="19" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="17" t="s">
+      <c r="A196" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="B196" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C196" t="s">
@@ -6217,18 +6414,18 @@
       <c r="D196" t="s">
         <v>461</v>
       </c>
-      <c r="E196" s="18" t="s">
+      <c r="E196" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="F196" s="17" t="s">
+      <c r="F196" s="19" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="17" t="s">
+      <c r="A197" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B197" s="17" t="s">
+      <c r="B197" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C197" t="s">
@@ -6237,18 +6434,18 @@
       <c r="D197" t="s">
         <v>462</v>
       </c>
-      <c r="E197" s="18" t="s">
+      <c r="E197" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="F197" s="17" t="s">
+      <c r="F197" s="19" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="17" t="s">
+      <c r="A198" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B198" s="17" t="s">
+      <c r="B198" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C198" t="s">
@@ -6257,18 +6454,18 @@
       <c r="D198" t="s">
         <v>463</v>
       </c>
-      <c r="E198" s="18" t="s">
+      <c r="E198" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="F198" s="17" t="s">
+      <c r="F198" s="19" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" s="17" t="s">
+      <c r="A199" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B199" s="17" t="s">
+      <c r="B199" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C199" t="s">
@@ -6277,18 +6474,18 @@
       <c r="D199" t="s">
         <v>464</v>
       </c>
-      <c r="E199" s="18" t="s">
+      <c r="E199" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="F199" s="17" t="s">
+      <c r="F199" s="19" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" s="17" t="s">
+      <c r="A200" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B200" s="17" t="s">
+      <c r="B200" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C200" t="s">
@@ -6297,18 +6494,18 @@
       <c r="D200" t="s">
         <v>465</v>
       </c>
-      <c r="E200" s="18" t="s">
+      <c r="E200" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="F200" s="17" t="s">
+      <c r="F200" s="19" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="17" t="s">
+      <c r="A201" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B201" s="17" t="s">
+      <c r="B201" s="19" t="s">
         <v>466</v>
       </c>
       <c r="C201" t="s">
@@ -6317,18 +6514,18 @@
       <c r="D201" t="s">
         <v>467</v>
       </c>
-      <c r="E201" s="18" t="s">
+      <c r="E201" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="F201" s="17" t="s">
+      <c r="F201" s="19" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A202" s="17" t="s">
+      <c r="A202" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B202" s="17" t="s">
+      <c r="B202" s="19" t="s">
         <v>466</v>
       </c>
       <c r="C202" t="s">
@@ -6337,18 +6534,18 @@
       <c r="D202" t="s">
         <v>468</v>
       </c>
-      <c r="E202" s="18" t="s">
+      <c r="E202" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="F202" s="17" t="s">
+      <c r="F202" s="19" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="17" t="s">
+      <c r="A203" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B203" s="17" t="s">
+      <c r="B203" s="19" t="s">
         <v>466</v>
       </c>
       <c r="C203" t="s">
@@ -6357,18 +6554,18 @@
       <c r="D203" t="s">
         <v>469</v>
       </c>
-      <c r="E203" s="18" t="s">
+      <c r="E203" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="F203" s="17" t="s">
+      <c r="F203" s="19" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="17" t="s">
+      <c r="A204" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B204" s="17" t="s">
+      <c r="B204" s="19" t="s">
         <v>466</v>
       </c>
       <c r="C204" t="s">
@@ -6377,18 +6574,18 @@
       <c r="D204" t="s">
         <v>470</v>
       </c>
-      <c r="E204" s="18" t="s">
+      <c r="E204" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="F204" s="17" t="s">
+      <c r="F204" s="19" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" s="17" t="s">
+      <c r="A205" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B205" s="17" t="s">
+      <c r="B205" s="19" t="s">
         <v>413</v>
       </c>
       <c r="C205" t="s">
@@ -6397,18 +6594,18 @@
       <c r="D205" t="s">
         <v>471</v>
       </c>
-      <c r="E205" s="18" t="s">
+      <c r="E205" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="F205" s="17" t="s">
+      <c r="F205" s="19" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="17" t="s">
+      <c r="A206" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B206" s="17" t="s">
+      <c r="B206" s="19" t="s">
         <v>472</v>
       </c>
       <c r="C206" t="s">
@@ -6417,11 +6614,371 @@
       <c r="D206" t="s">
         <v>473</v>
       </c>
-      <c r="E206" s="18" t="s">
+      <c r="E206" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="F206" s="17" t="s">
+      <c r="F206" s="19" t="s">
         <v>530</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D207" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="E207" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="F207" s="17" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="B208" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D208" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="E208" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="F208" s="18" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="B209" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="E209" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="F209" s="18" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A210" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B210" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D210" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="E210" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="F210" s="18" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A211" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B211" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="E211" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="F211" s="18" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B212" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D212" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="E212" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="F212" s="18" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A213" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B213" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C213" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="E213" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="F213" s="18" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A214" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B214" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C214" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="D214" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="E214" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="F214" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A215" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B215" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C215" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="D215" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="E215" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="F215" s="26" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A216" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B216" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C216" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="D216" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="E216" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="F216" s="18" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A217" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B217" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C217" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="D217" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="E217" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="F217" s="18" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A218" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B218" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C218" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="D218" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="E218" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="F218" s="18" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A219" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B219" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C219" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="D219" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="E219" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="F219" s="18" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A220" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B220" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C220" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="D220" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="E220" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="F220" s="18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A221" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B221" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C221" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="D221" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="E221" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="F221" s="18" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A222" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B222" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C222" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="E222" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="F222" s="18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A223" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B223" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C223" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D223" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="E223" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="F223" s="18" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A224" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B224" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C224" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D224" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="E224" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="F224" s="18" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -6752,9 +7309,29 @@
     <hyperlink ref="E204" r:id="rId323" location="workflow-performance-montoring" xr:uid="{594C4E25-2502-431B-B9DD-93C70766EF57}"/>
     <hyperlink ref="E205" r:id="rId324" xr:uid="{E7902211-39BE-46EB-ACF8-DC755EFBBD66}"/>
     <hyperlink ref="E206" r:id="rId325" xr:uid="{85F7A8A4-D2C0-446C-9731-05A4912036E2}"/>
+    <hyperlink ref="E207" r:id="rId326" xr:uid="{D60C86CA-DE10-42CE-B8BC-016EF3BEC45B}"/>
+    <hyperlink ref="E208" r:id="rId327" xr:uid="{B88A28D6-2776-4E6D-8E8F-0CAF4F45B6D9}"/>
+    <hyperlink ref="E209" r:id="rId328" xr:uid="{2B6CB2D2-7818-4692-BB5E-1D4D13590EC8}"/>
+    <hyperlink ref="E210" r:id="rId329" xr:uid="{AF6C72DF-4FBD-4CB0-9D30-4F887C820BC6}"/>
+    <hyperlink ref="E211" r:id="rId330" xr:uid="{B5DB5909-CAE3-41DE-8FAA-2BE9405FE89D}"/>
+    <hyperlink ref="E212" r:id="rId331" xr:uid="{EB971EED-5319-4B5A-866B-6272F1177031}"/>
+    <hyperlink ref="E213" r:id="rId332" xr:uid="{572B6EAD-FA78-4215-8917-A3C00D5ABFE0}"/>
+    <hyperlink ref="E214" r:id="rId333" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=C7C4X1&amp;CID=8d0e24a9%2D7bea%2D46a6%2D9501%2D656778853926&amp;FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model" xr:uid="{68BBCE6F-8DA7-464D-950F-BC16B0FF571C}"/>
+    <hyperlink ref="E220" r:id="rId334" xr:uid="{4CB97E97-7749-4435-94AD-D2868D458F68}"/>
+    <hyperlink ref="E222" r:id="rId335" xr:uid="{A474367E-A77D-4DEF-85B7-EEA70951388E}"/>
+    <hyperlink ref="E223" r:id="rId336" xr:uid="{68A144C1-9301-4982-9D52-3E933824C145}"/>
+    <hyperlink ref="E224" r:id="rId337" xr:uid="{A289F92F-FDC4-4101-860D-E87FC724D2BF}"/>
+    <hyperlink ref="E217" r:id="rId338" xr:uid="{7FE505FE-5854-4EEC-9F18-EC57B446CAB8}"/>
+    <hyperlink ref="E218" r:id="rId339" xr:uid="{FAF735B2-76DF-4822-819D-3825B225638C}"/>
+    <hyperlink ref="E219" r:id="rId340" xr:uid="{BFCB53CB-917E-4F45-9B9B-5CF694A05B23}"/>
+    <hyperlink ref="E221" r:id="rId341" xr:uid="{60C77EDA-E2FD-4625-89AC-626B3B109939}"/>
+    <hyperlink ref="E216" r:id="rId342" xr:uid="{9B7F4E7B-88C8-478A-BA8C-0835ECDAC49D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId326"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId343"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Mondelez International Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6936,6 +7513,9 @@
     <hyperlink ref="C4" r:id="rId20" xr:uid="{1F0BA727-989D-43C6-B103-92A2D5D31CEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Mondelez International Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8621,5 +9201,14 @@
     <hyperlink ref="E93" r:id="rId88" display="../../../../:b:/s/dadocumentrepository/EaCM77nIUIhAspPUFy-P0UsBIEVBLHGi1AZ9QLbrrBrLcA?e=vjl2Jr" xr:uid="{7DDCDDE9-71A9-4A16-B9B4-82C685432B2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Mondelez International Internal</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{a9324442-4656-4fca-b26e-099b64ea741e}" enabled="1" method="Standard" siteId="{18a01ad8-9727-498a-a47d-17374c6fd9f7}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>
--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\PycharmProjects\Datahub Chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA2139-739B-4643-9651-E2D5DDC3B14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989A3AE4-CB6E-41A1-8076-EC91245F1CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FAQ!$A$1:$A$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$224</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="16"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="619">
   <si>
     <t>Category</t>
   </si>
@@ -905,9 +905,6 @@
     <t>Demand Intake</t>
   </si>
   <si>
-    <t>PMO</t>
-  </si>
-  <si>
     <t>ACE</t>
   </si>
   <si>
@@ -1728,9 +1725,6 @@
   </si>
   <si>
     <t xml:space="preserve">Model Experiments </t>
-  </si>
-  <si>
-    <t>MDS Project Mgmt.</t>
   </si>
   <si>
     <t xml:space="preserve">What is Mondelez Portfolio (MSPO) Process </t>
@@ -2376,8 +2370,8 @@
   <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F225" sqref="F225"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A105" sqref="A105:A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4361,7 +4355,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>268</v>
       </c>
@@ -4521,7 +4515,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>268</v>
       </c>
@@ -4582,8 +4576,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>287</v>
+      <c r="A105" s="25" t="s">
+        <v>567</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>259</v>
@@ -4602,8 +4596,8 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>287</v>
+      <c r="A106" s="25" t="s">
+        <v>567</v>
       </c>
       <c r="B106" t="s">
         <v>259</v>
@@ -4622,8 +4616,8 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>287</v>
+      <c r="A107" s="25" t="s">
+        <v>567</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>261</v>
@@ -4643,7 +4637,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>264</v>
@@ -4663,7 +4657,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>265</v>
@@ -4683,67 +4677,67 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>362</v>
+      </c>
+      <c r="B110" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B110" s="16" t="s">
-        <v>364</v>
-      </c>
       <c r="C110" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D110" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B111" s="16" t="s">
-        <v>364</v>
-      </c>
       <c r="C111" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D111" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F111" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>362</v>
+      </c>
+      <c r="B112" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B112" s="16" t="s">
-        <v>364</v>
-      </c>
       <c r="C112" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D112" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F112" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>286</v>
@@ -4752,18 +4746,18 @@
         <v>286</v>
       </c>
       <c r="D113" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F113" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>286</v>
@@ -4772,18 +4766,18 @@
         <v>286</v>
       </c>
       <c r="D114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F114" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>286</v>
@@ -4792,1838 +4786,1838 @@
         <v>286</v>
       </c>
       <c r="D115" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F115" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D117" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F117" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B118" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C118" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D118" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F118" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B119" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C119" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D119" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F119" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D120" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F120" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C121" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D121" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F121" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B122" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C122" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D122" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F122" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B123" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C123" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D123" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F123" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D124" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F124" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B125" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C125" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F125" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B126" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C126" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D126" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B127" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C127" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D127" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F127" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B128" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C128" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D128" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B129" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C129" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D129" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F129" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D130" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F130" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B131" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C131" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D131" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B132" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C132" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D132" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F132" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B133" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C133" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D133" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F133" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B134" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C134" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D134" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F134" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B135" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C135" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D135" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F135" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B136" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C136" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F136" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B137" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C137" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F137" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B138" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C138" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D138" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F138" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B139" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C139" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D139" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F139" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B140" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C140" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D140" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F140" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>399</v>
+      </c>
+      <c r="B141" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="C141" t="s">
+        <v>400</v>
+      </c>
+      <c r="D141" t="s">
         <v>401</v>
       </c>
-      <c r="C141" t="s">
-        <v>401</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="E141" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="F141" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A142" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C142" t="s">
+        <v>400</v>
+      </c>
+      <c r="D142" t="s">
         <v>402</v>
       </c>
-      <c r="E141" s="20" t="s">
+      <c r="E142" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F142" s="19" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="C142" t="s">
-        <v>401</v>
-      </c>
-      <c r="D142" t="s">
-        <v>403</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F142" s="19" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B143" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B143" s="19" t="s">
-        <v>401</v>
-      </c>
       <c r="C143" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D143" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E143" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B144" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B144" s="19" t="s">
-        <v>401</v>
-      </c>
       <c r="C144" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D144" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E144" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B145" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C145" t="s">
+        <v>405</v>
+      </c>
+      <c r="D145" t="s">
         <v>406</v>
       </c>
-      <c r="C145" t="s">
-        <v>406</v>
-      </c>
-      <c r="D145" t="s">
-        <v>407</v>
-      </c>
       <c r="E145" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F145" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C146" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D146" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E146" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D147" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E147" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C148" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D148" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C149" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D149" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E149" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F149" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C150" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D150" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B151" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C151" t="s">
+        <v>412</v>
+      </c>
+      <c r="D151" t="s">
         <v>413</v>
       </c>
-      <c r="C151" t="s">
-        <v>413</v>
-      </c>
-      <c r="D151" t="s">
-        <v>414</v>
-      </c>
       <c r="E151" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C152" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D152" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D153" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E153" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B154" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="C154" t="s">
+        <v>416</v>
+      </c>
+      <c r="D154" t="s">
         <v>417</v>
       </c>
-      <c r="C154" t="s">
-        <v>417</v>
-      </c>
-      <c r="D154" t="s">
-        <v>418</v>
-      </c>
       <c r="E154" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C155" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D155" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E155" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C156" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D156" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E156" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C157" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D157" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C158" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D158" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E158" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C159" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D159" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E159" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F159" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C160" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D160" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E160" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C161" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D161" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E161" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C162" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D162" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E162" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F162" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C163" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D163" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E163" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F163" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C164" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D164" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E164" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F164" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C165" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D165" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F165" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C166" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D166" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E166" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C167" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D167" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E167" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C168" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D168" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E168" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F168" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C169" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D169" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E169" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F169" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C170" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D170" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E170" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F170" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C171" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D171" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E171" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F171" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C172" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D172" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E172" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C173" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D173" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E173" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C174" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D174" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E174" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F174" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C175" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D175" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C176" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D176" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E176" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C177" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D177" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E177" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F177" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C178" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D178" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E178" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C179" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D179" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E179" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F179" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C180" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D180" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E180" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F180" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C181" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D181" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E181" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F181" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C182" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D182" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E182" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F182" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C183" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D183" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F183" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B184" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="C184" t="s">
+        <v>447</v>
+      </c>
+      <c r="D184" t="s">
         <v>448</v>
       </c>
-      <c r="C184" t="s">
-        <v>448</v>
-      </c>
-      <c r="D184" t="s">
-        <v>449</v>
-      </c>
       <c r="E184" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C185" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D185" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E185" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F185" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C186" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D186" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E186" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C187" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D187" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E187" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C188" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D188" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E188" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F188" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C189" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D189" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E189" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C190" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D190" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E190" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C191" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D191" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E191" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F191" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C192" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D192" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E192" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C193" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D193" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E193" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F193" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C194" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D194" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E194" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F194" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C195" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D195" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F195" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C196" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D196" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E196" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C197" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D197" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E197" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F197" s="19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C198" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D198" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E198" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F198" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C199" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D199" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E199" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F199" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C200" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D200" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E200" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F200" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B201" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C201" t="s">
+        <v>465</v>
+      </c>
+      <c r="D201" t="s">
         <v>466</v>
       </c>
-      <c r="C201" t="s">
-        <v>466</v>
-      </c>
-      <c r="D201" t="s">
-        <v>467</v>
-      </c>
       <c r="E201" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F201" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C202" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D202" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E202" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F202" s="19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C203" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D203" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E203" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F203" s="19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C204" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D204" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E204" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F204" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C205" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D205" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E205" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F205" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B206" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C206" t="s">
+        <v>471</v>
+      </c>
+      <c r="D206" t="s">
         <v>472</v>
       </c>
-      <c r="C206" t="s">
-        <v>472</v>
-      </c>
-      <c r="D206" t="s">
-        <v>473</v>
-      </c>
       <c r="E206" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F206" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="25" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B207" s="25" t="s">
         <v>15</v>
@@ -6632,18 +6626,18 @@
         <v>22</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E207" s="24" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F207" s="17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="25" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B208" s="25" t="s">
         <v>15</v>
@@ -6652,18 +6646,18 @@
         <v>22</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E208" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="25" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B209" s="25" t="s">
         <v>15</v>
@@ -6672,18 +6666,18 @@
         <v>22</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E209" s="24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A210" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B210" s="25" t="s">
         <v>15</v>
@@ -6692,18 +6686,18 @@
         <v>22</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E210" s="24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B211" s="25" t="s">
         <v>15</v>
@@ -6712,18 +6706,18 @@
         <v>22</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E211" s="24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B212" s="25" t="s">
         <v>15</v>
@@ -6732,257 +6726,257 @@
         <v>22</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E212" s="24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C213" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E213" s="24" t="s">
         <v>262</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A214" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B214" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C214" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="C214" s="25" t="s">
+      <c r="D214" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="E214" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="D214" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="E214" s="24" t="s">
-        <v>580</v>
-      </c>
       <c r="F214" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B215" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C215" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="C215" s="25" t="s">
-        <v>578</v>
-      </c>
       <c r="D215" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E215" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F215" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B216" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C216" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="C216" s="25" t="s">
-        <v>578</v>
-      </c>
       <c r="D216" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E216" s="24" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A217" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B217" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C217" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="C217" s="25" t="s">
-        <v>578</v>
-      </c>
       <c r="D217" s="25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E217" s="24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B218" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C218" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="C218" s="25" t="s">
-        <v>578</v>
-      </c>
       <c r="D218" s="25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E218" s="24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B219" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C219" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="C219" s="25" t="s">
-        <v>578</v>
-      </c>
       <c r="D219" s="25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E219" s="24" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C220" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="D220" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="E220" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="D220" s="23" t="s">
-        <v>588</v>
-      </c>
-      <c r="E220" s="24" t="s">
-        <v>589</v>
-      </c>
       <c r="F220" s="18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A221" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E221" s="24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C222" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="E222" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="D222" s="23" t="s">
-        <v>593</v>
-      </c>
-      <c r="E222" s="24" t="s">
-        <v>594</v>
-      </c>
       <c r="F222" s="18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E223" s="24" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E224" s="24" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G111" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}"/>
+  <autoFilter ref="A1:G224" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}"/>
   <hyperlinks>
     <hyperlink ref="L11" r:id="rId1" display="https://teams.mdlz.com/:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{C9234C41-0B35-449D-A059-14FCD43DD586}"/>
     <hyperlink ref="L12" r:id="rId2" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{B1E49C27-813B-4F81-B6D4-F88CC7C95F9A}"/>
@@ -7363,7 +7357,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>140</v>
@@ -7374,7 +7368,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>185</v>
@@ -7385,7 +7379,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>284</v>
@@ -7396,7 +7390,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>140</v>
@@ -7407,7 +7401,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>141</v>
@@ -7418,7 +7412,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>154</v>
@@ -7429,7 +7423,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>139</v>
@@ -7440,7 +7434,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>283</v>
@@ -7451,7 +7445,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>141</v>

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\PycharmProjects\Datahub Chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989A3AE4-CB6E-41A1-8076-EC91245F1CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C18AA5-E8DD-4809-9102-AEA13FA26DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -2367,11 +2367,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105:A107"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2416,7 +2417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -2462,7 +2463,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>268</v>
       </c>
@@ -2483,7 +2484,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -2504,7 +2505,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>268</v>
       </c>
@@ -2525,7 +2526,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>268</v>
       </c>
@@ -2571,7 +2572,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>268</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>268</v>
       </c>
@@ -2617,7 +2618,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>268</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>286</v>
       </c>
@@ -2688,7 +2689,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>268</v>
       </c>
@@ -2709,7 +2710,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -2881,7 +2882,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -2923,7 +2924,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -2944,7 +2945,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>268</v>
       </c>
@@ -2965,7 +2966,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -2986,7 +2987,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>268</v>
       </c>
@@ -3007,7 +3008,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>268</v>
       </c>
@@ -3028,7 +3029,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>268</v>
       </c>
@@ -3049,7 +3050,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>268</v>
       </c>
@@ -3070,7 +3071,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>268</v>
       </c>
@@ -3091,7 +3092,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>268</v>
       </c>
@@ -3112,7 +3113,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>286</v>
       </c>
@@ -3133,7 +3134,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>268</v>
       </c>
@@ -3154,7 +3155,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>268</v>
       </c>
@@ -3175,7 +3176,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>268</v>
       </c>
@@ -3196,7 +3197,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>268</v>
       </c>
@@ -3217,7 +3218,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>268</v>
       </c>
@@ -3238,7 +3239,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>268</v>
       </c>
@@ -3259,7 +3260,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>268</v>
       </c>
@@ -3280,7 +3281,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>268</v>
       </c>
@@ -3301,7 +3302,7 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>268</v>
       </c>
@@ -3322,7 +3323,7 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>268</v>
       </c>
@@ -3343,7 +3344,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>268</v>
       </c>
@@ -3364,7 +3365,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>268</v>
       </c>
@@ -3385,7 +3386,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>268</v>
       </c>
@@ -3406,7 +3407,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -3427,7 +3428,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>268</v>
       </c>
@@ -3448,7 +3449,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>268</v>
       </c>
@@ -3469,7 +3470,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>268</v>
       </c>
@@ -3490,7 +3491,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -3511,7 +3512,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>268</v>
       </c>
@@ -3532,7 +3533,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>268</v>
       </c>
@@ -3553,7 +3554,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>268</v>
       </c>
@@ -3574,7 +3575,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -3595,7 +3596,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -3616,7 +3617,7 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>268</v>
       </c>
@@ -3637,7 +3638,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>268</v>
       </c>
@@ -3658,7 +3659,7 @@
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>286</v>
       </c>
@@ -3679,7 +3680,7 @@
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>268</v>
       </c>
@@ -3700,7 +3701,7 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>286</v>
       </c>
@@ -3721,7 +3722,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>286</v>
       </c>
@@ -3742,7 +3743,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>286</v>
       </c>
@@ -3763,7 +3764,7 @@
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>286</v>
       </c>
@@ -3784,7 +3785,7 @@
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>268</v>
       </c>
@@ -3805,7 +3806,7 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -3826,7 +3827,7 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>286</v>
       </c>
@@ -3847,7 +3848,7 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>286</v>
       </c>
@@ -3868,7 +3869,7 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>268</v>
       </c>
@@ -3889,7 +3890,7 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>268</v>
       </c>
@@ -3910,7 +3911,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>268</v>
       </c>
@@ -3931,7 +3932,7 @@
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>268</v>
       </c>
@@ -3952,7 +3953,7 @@
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>286</v>
       </c>
@@ -3973,7 +3974,7 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>286</v>
       </c>
@@ -3994,7 +3995,7 @@
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>286</v>
       </c>
@@ -4015,7 +4016,7 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>268</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>268</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>268</v>
       </c>
@@ -4095,7 +4096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>268</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>268</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>268</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>268</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>268</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>268</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>268</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>268</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>268</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>268</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>268</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>268</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>268</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>268</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>268</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>268</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>268</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>268</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>268</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>268</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>268</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>268</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="25" t="s">
         <v>567</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="25" t="s">
         <v>567</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="25" t="s">
         <v>567</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>287</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>362</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>362</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>362</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>362</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>362</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>362</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>362</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>362</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>362</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>362</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>362</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>362</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>362</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>362</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>362</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>362</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>362</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>362</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>362</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>362</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>362</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>362</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>362</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>362</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>362</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>362</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>362</v>
       </c>
@@ -5215,7 +5216,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>362</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>362</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>362</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>362</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>399</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="19" t="s">
         <v>399</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="19" t="s">
         <v>399</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="19" t="s">
         <v>399</v>
       </c>
@@ -5375,7 +5376,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="19" t="s">
         <v>399</v>
       </c>
@@ -5395,7 +5396,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="19" t="s">
         <v>399</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="19" t="s">
         <v>399</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="19" t="s">
         <v>399</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="19" t="s">
         <v>399</v>
       </c>
@@ -5475,7 +5476,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="19" t="s">
         <v>399</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="19" t="s">
         <v>399</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="19" t="s">
         <v>399</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="19" t="s">
         <v>399</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="19" t="s">
         <v>399</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="19" t="s">
         <v>399</v>
       </c>
@@ -5595,7 +5596,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="19" t="s">
         <v>399</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="19" t="s">
         <v>399</v>
       </c>
@@ -5635,7 +5636,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="19" t="s">
         <v>399</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="19" t="s">
         <v>399</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="19" t="s">
         <v>399</v>
       </c>
@@ -5695,7 +5696,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="19" t="s">
         <v>399</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="19" t="s">
         <v>399</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="19" t="s">
         <v>399</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="19" t="s">
         <v>399</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="19" t="s">
         <v>399</v>
       </c>
@@ -5795,7 +5796,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="19" t="s">
         <v>399</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="19" t="s">
         <v>399</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="19" t="s">
         <v>399</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="19" t="s">
         <v>399</v>
       </c>
@@ -5875,7 +5876,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="19" t="s">
         <v>399</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="19" t="s">
         <v>399</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="19" t="s">
         <v>399</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="19" t="s">
         <v>399</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="19" t="s">
         <v>399</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="19" t="s">
         <v>399</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="19" t="s">
         <v>399</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="19" t="s">
         <v>399</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="19" t="s">
         <v>399</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="19" t="s">
         <v>399</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="19" t="s">
         <v>399</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="19" t="s">
         <v>399</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="19" t="s">
         <v>399</v>
       </c>
@@ -6135,7 +6136,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="19" t="s">
         <v>399</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="19" t="s">
         <v>399</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="19" t="s">
         <v>399</v>
       </c>
@@ -6195,7 +6196,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="19" t="s">
         <v>399</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="19" t="s">
         <v>399</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="19" t="s">
         <v>399</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="19" t="s">
         <v>399</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="19" t="s">
         <v>399</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="19" t="s">
         <v>399</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="19" t="s">
         <v>399</v>
       </c>
@@ -6335,7 +6336,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="19" t="s">
         <v>399</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="19" t="s">
         <v>399</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="19" t="s">
         <v>399</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="19" t="s">
         <v>399</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="19" t="s">
         <v>399</v>
       </c>
@@ -6435,7 +6436,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="19" t="s">
         <v>399</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="19" t="s">
         <v>399</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="19" t="s">
         <v>399</v>
       </c>
@@ -6495,7 +6496,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="19" t="s">
         <v>399</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="19" t="s">
         <v>399</v>
       </c>
@@ -6535,7 +6536,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="19" t="s">
         <v>399</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="19" t="s">
         <v>399</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="19" t="s">
         <v>399</v>
       </c>
@@ -6595,7 +6596,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="19" t="s">
         <v>399</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="25" t="s">
         <v>567</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="25" t="s">
         <v>567</v>
       </c>
@@ -6775,7 +6776,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" s="22" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="25" t="s">
         <v>567</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="25" t="s">
         <v>567</v>
       </c>
@@ -6815,7 +6816,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="25" t="s">
         <v>567</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="25" t="s">
         <v>567</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="25" t="s">
         <v>567</v>
       </c>
@@ -6875,7 +6876,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="25" t="s">
         <v>567</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="25" t="s">
         <v>567</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="25" t="s">
         <v>567</v>
       </c>
@@ -6935,7 +6936,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="25" t="s">
         <v>567</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="25" t="s">
         <v>567</v>
       </c>
@@ -6976,7 +6977,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G224" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}"/>
+  <autoFilter ref="A1:G224" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Onboarding"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="L11" r:id="rId1" display="https://teams.mdlz.com/:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{C9234C41-0B35-449D-A059-14FCD43DD586}"/>
     <hyperlink ref="L12" r:id="rId2" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{B1E49C27-813B-4F81-B6D4-F88CC7C95F9A}"/>

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\PycharmProjects\Datahub Chatbot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C18AA5-E8DD-4809-9102-AEA13FA26DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB715D12-F6FD-4B5E-93BF-AFA478D942FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FAQ!$A$1:$A$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$225</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="16"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="622">
   <si>
     <t>Category</t>
   </si>
@@ -1899,6 +1899,15 @@
   </si>
   <si>
     <t>qTest</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/sites/daas/Shared Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdaas%2FShared Documents%2FData COE WoW%2FData COE End-to-End Process Document%2Epdf&amp;parent=%2Fsites%2Fdaas%2FShared Documents%2FData COE WoW&amp;p=true&amp;ga=1</t>
+  </si>
+  <si>
+    <t>Data COE E2E Process Document</t>
+  </si>
+  <si>
+    <t>What is the end to end process including Dataset Creation, Source System Configuration, GCP Infra Creation, Service Account Creation for D&amp;A projects in D4GV?</t>
   </si>
 </sst>
 </file>
@@ -2367,12 +2376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L224"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2417,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -2442,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -2463,7 +2471,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>268</v>
       </c>
@@ -2484,7 +2492,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -2505,7 +2513,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>268</v>
       </c>
@@ -2526,7 +2534,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -2551,7 +2559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>268</v>
       </c>
@@ -2572,7 +2580,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>268</v>
       </c>
@@ -2597,7 +2605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>268</v>
       </c>
@@ -2618,7 +2626,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -2643,8 +2651,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
         <v>268</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2653,75 +2661,77 @@
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="G13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>286</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>286</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>141</v>
@@ -2731,7 +2741,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -2741,22 +2751,18 @@
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -2766,8 +2772,8 @@
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>60</v>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>143</v>
@@ -2776,29 +2782,33 @@
         <v>122</v>
       </c>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -2806,10 +2816,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>144</v>
@@ -2819,7 +2829,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>268</v>
       </c>
@@ -2827,20 +2837,20 @@
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>268</v>
       </c>
@@ -2848,20 +2858,20 @@
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>268</v>
       </c>
@@ -2869,31 +2879,31 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>268</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>147</v>
@@ -2903,60 +2913,60 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>268</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>268</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>268</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>140</v>
@@ -2966,7 +2976,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -2977,7 +2987,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>140</v>
@@ -2987,28 +2997,28 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>268</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>268</v>
       </c>
@@ -3019,7 +3029,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>148</v>
@@ -3029,49 +3039,49 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>268</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>268</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>268</v>
       </c>
@@ -3082,7 +3092,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>149</v>
@@ -3092,81 +3102,81 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>268</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>286</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>268</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>268</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>151</v>
@@ -3176,70 +3186,70 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>268</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>268</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>268</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>268</v>
       </c>
@@ -3250,7 +3260,7 @@
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>219</v>
@@ -3260,7 +3270,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>268</v>
       </c>
@@ -3268,20 +3278,20 @@
         <v>274</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>268</v>
       </c>
@@ -3292,7 +3302,7 @@
         <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>153</v>
@@ -3302,28 +3312,28 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>268</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>268</v>
       </c>
@@ -3331,10 +3341,10 @@
         <v>269</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>141</v>
@@ -3344,49 +3354,49 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>268</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>268</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>268</v>
       </c>
@@ -3394,10 +3404,10 @@
         <v>269</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>141</v>
@@ -3407,7 +3417,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -3415,10 +3425,10 @@
         <v>269</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>141</v>
@@ -3428,7 +3438,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>268</v>
       </c>
@@ -3436,10 +3446,10 @@
         <v>269</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>141</v>
@@ -3449,7 +3459,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>268</v>
       </c>
@@ -3457,10 +3467,10 @@
         <v>269</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>141</v>
@@ -3470,7 +3480,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>268</v>
       </c>
@@ -3478,10 +3488,10 @@
         <v>269</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>141</v>
@@ -3491,7 +3501,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -3499,10 +3509,10 @@
         <v>269</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>141</v>
@@ -3512,7 +3522,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>268</v>
       </c>
@@ -3520,10 +3530,10 @@
         <v>269</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>141</v>
@@ -3533,7 +3543,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>268</v>
       </c>
@@ -3541,10 +3551,10 @@
         <v>269</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>141</v>
@@ -3554,28 +3564,28 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>268</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>275</v>
+      <c r="B55" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -3586,7 +3596,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>154</v>
@@ -3596,18 +3606,18 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>268</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>269</v>
+      <c r="B57" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>154</v>
@@ -3617,18 +3627,18 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>268</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>275</v>
+      <c r="B58" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>154</v>
@@ -3638,7 +3648,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>268</v>
       </c>
@@ -3649,7 +3659,7 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>154</v>
@@ -3659,41 +3669,41 @@
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>286</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>268</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="D61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -3701,28 +3711,28 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>140</v>
+        <v>42</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>286</v>
       </c>
@@ -3733,7 +3743,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>140</v>
@@ -3743,7 +3753,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>286</v>
       </c>
@@ -3751,10 +3761,10 @@
         <v>273</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>140</v>
@@ -3762,9 +3772,9 @@
       <c r="F64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>286</v>
       </c>
@@ -3772,41 +3782,41 @@
         <v>273</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>268</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -3817,7 +3827,7 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>155</v>
@@ -3827,28 +3837,28 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>286</v>
       </c>
@@ -3859,7 +3869,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>141</v>
@@ -3869,70 +3879,70 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>268</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>268</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>268</v>
       </c>
@@ -3943,38 +3953,38 @@
         <v>23</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>286</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>286</v>
       </c>
@@ -3985,7 +3995,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>141</v>
@@ -3993,9 +4003,9 @@
       <c r="F75" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>286</v>
       </c>
@@ -4006,7 +4016,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>141</v>
@@ -4016,18 +4026,18 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>158</v>
+        <v>25</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>141</v>
@@ -4035,8 +4045,9 @@
       <c r="F77" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -4044,10 +4055,10 @@
         <v>270</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>141</v>
@@ -4056,18 +4067,18 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>141</v>
@@ -4076,18 +4087,18 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>268</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>141</v>
@@ -4096,27 +4107,27 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>268</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>268</v>
       </c>
@@ -4124,19 +4135,19 @@
         <v>276</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>268</v>
       </c>
@@ -4144,19 +4155,19 @@
         <v>276</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>186</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>268</v>
       </c>
@@ -4164,19 +4175,19 @@
         <v>276</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>268</v>
       </c>
@@ -4184,19 +4195,19 @@
         <v>276</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>268</v>
       </c>
@@ -4204,19 +4215,19 @@
         <v>276</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>268</v>
       </c>
@@ -4224,59 +4235,59 @@
         <v>276</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>268</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>268</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -4287,56 +4298,56 @@
         <v>181</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>268</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>184</v>
+      <c r="C91" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>268</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>165</v>
+      <c r="C92" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>268</v>
       </c>
@@ -4347,36 +4358,36 @@
         <v>165</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>268</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>224</v>
+      <c r="B94" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>268</v>
       </c>
@@ -4387,16 +4398,16 @@
         <v>223</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>268</v>
       </c>
@@ -4407,16 +4418,16 @@
         <v>223</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>268</v>
       </c>
@@ -4424,19 +4435,19 @@
         <v>275</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>268</v>
       </c>
@@ -4444,19 +4455,19 @@
         <v>275</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>268</v>
       </c>
@@ -4464,19 +4475,19 @@
         <v>275</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>268</v>
       </c>
@@ -4484,19 +4495,19 @@
         <v>275</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>268</v>
       </c>
@@ -4506,17 +4517,17 @@
       <c r="C101" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D101" s="10" t="s">
-        <v>241</v>
+      <c r="D101" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>268</v>
       </c>
@@ -4524,19 +4535,19 @@
         <v>275</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>268</v>
       </c>
@@ -4547,16 +4558,16 @@
         <v>235</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>268</v>
       </c>
@@ -4567,46 +4578,46 @@
         <v>235</v>
       </c>
       <c r="D104" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>268</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E104" s="12" t="s">
+      <c r="E105" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="F104" s="12" t="s">
+      <c r="F105" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="13" t="s">
         <v>259</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -4616,58 +4627,58 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" t="s">
+        <v>259</v>
+      </c>
+      <c r="D107" t="s">
+        <v>259</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C108" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D108" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F107" s="15" t="s">
+      <c r="F108" s="15" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>287</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>287</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>140</v>
@@ -4676,27 +4687,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>362</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="D110" t="s">
-        <v>297</v>
+        <v>287</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>362</v>
       </c>
@@ -4707,16 +4718,16 @@
         <v>363</v>
       </c>
       <c r="D111" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F111" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>362</v>
       </c>
@@ -4727,36 +4738,36 @@
         <v>363</v>
       </c>
       <c r="D112" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F112" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>362</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="D113" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F113" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>362</v>
       </c>
@@ -4767,16 +4778,16 @@
         <v>286</v>
       </c>
       <c r="D114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F114" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>362</v>
       </c>
@@ -4787,56 +4798,56 @@
         <v>286</v>
       </c>
       <c r="D115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F115" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>362</v>
       </c>
-      <c r="B116" t="s">
-        <v>364</v>
-      </c>
-      <c r="C116" t="s">
-        <v>364</v>
+      <c r="B116" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="D116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F116" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>362</v>
       </c>
       <c r="B117" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C117" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F117" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>362</v>
       </c>
@@ -4847,16 +4858,16 @@
         <v>365</v>
       </c>
       <c r="D118" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F118" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>362</v>
       </c>
@@ -4867,16 +4878,16 @@
         <v>365</v>
       </c>
       <c r="D119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F119" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>362</v>
       </c>
@@ -4887,36 +4898,36 @@
         <v>365</v>
       </c>
       <c r="D120" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F120" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>362</v>
       </c>
       <c r="B121" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C121" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F121" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>362</v>
       </c>
@@ -4927,16 +4938,16 @@
         <v>366</v>
       </c>
       <c r="D122" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F122" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>362</v>
       </c>
@@ -4947,16 +4958,16 @@
         <v>366</v>
       </c>
       <c r="D123" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F123" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>362</v>
       </c>
@@ -4967,16 +4978,16 @@
         <v>366</v>
       </c>
       <c r="D124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F124" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>362</v>
       </c>
@@ -4987,36 +4998,36 @@
         <v>366</v>
       </c>
       <c r="D125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F125" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>362</v>
       </c>
       <c r="B126" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C126" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D126" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F126" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>362</v>
       </c>
@@ -5027,16 +5038,16 @@
         <v>367</v>
       </c>
       <c r="D127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F127" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>362</v>
       </c>
@@ -5047,36 +5058,36 @@
         <v>367</v>
       </c>
       <c r="D128" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F128" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>362</v>
       </c>
       <c r="B129" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C129" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D129" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F129" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>362</v>
       </c>
@@ -5087,16 +5098,16 @@
         <v>368</v>
       </c>
       <c r="D130" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F130" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>362</v>
       </c>
@@ -5107,16 +5118,16 @@
         <v>368</v>
       </c>
       <c r="D131" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F131" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>362</v>
       </c>
@@ -5127,16 +5138,16 @@
         <v>368</v>
       </c>
       <c r="D132" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F132" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>362</v>
       </c>
@@ -5147,16 +5158,16 @@
         <v>368</v>
       </c>
       <c r="D133" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F133" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>362</v>
       </c>
@@ -5167,16 +5178,16 @@
         <v>368</v>
       </c>
       <c r="D134" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F134" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>362</v>
       </c>
@@ -5187,16 +5198,16 @@
         <v>368</v>
       </c>
       <c r="D135" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F135" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>362</v>
       </c>
@@ -5207,76 +5218,76 @@
         <v>368</v>
       </c>
       <c r="D136" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F136" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>362</v>
       </c>
       <c r="B137" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C137" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D137" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F137" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>362</v>
       </c>
       <c r="B138" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C138" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D138" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F138" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>362</v>
       </c>
       <c r="B139" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C139" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D139" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F139" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>362</v>
       </c>
@@ -5287,37 +5298,37 @@
         <v>371</v>
       </c>
       <c r="D140" t="s">
+        <v>326</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F140" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>362</v>
+      </c>
+      <c r="B141" t="s">
+        <v>371</v>
+      </c>
+      <c r="C141" t="s">
+        <v>371</v>
+      </c>
+      <c r="D141" t="s">
         <v>327</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F141" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>399</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="C141" t="s">
-        <v>400</v>
-      </c>
-      <c r="D141" t="s">
-        <v>401</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="F141" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="19" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>399</v>
       </c>
       <c r="B142" s="19" t="s">
@@ -5327,16 +5338,16 @@
         <v>400</v>
       </c>
       <c r="D142" t="s">
-        <v>402</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="F142" s="19" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+      <c r="E142" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="F142" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="19" t="s">
         <v>399</v>
       </c>
@@ -5347,16 +5358,16 @@
         <v>400</v>
       </c>
       <c r="D143" t="s">
-        <v>403</v>
-      </c>
-      <c r="E143" s="20" t="s">
-        <v>475</v>
+        <v>402</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>474</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="19" t="s">
         <v>399</v>
       </c>
@@ -5367,36 +5378,36 @@
         <v>400</v>
       </c>
       <c r="D144" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E144" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="19" t="s">
         <v>399</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C145" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D145" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E145" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="F145" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+      <c r="F145" s="19" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="19" t="s">
         <v>399</v>
       </c>
@@ -5407,16 +5418,16 @@
         <v>405</v>
       </c>
       <c r="D146" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E146" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="F146" s="19" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+      <c r="F146" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="19" t="s">
         <v>399</v>
       </c>
@@ -5427,16 +5438,16 @@
         <v>405</v>
       </c>
       <c r="D147" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E147" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="19" t="s">
         <v>399</v>
       </c>
@@ -5447,16 +5458,16 @@
         <v>405</v>
       </c>
       <c r="D148" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E148" s="20" t="s">
         <v>479</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="19" t="s">
         <v>399</v>
       </c>
@@ -5467,16 +5478,16 @@
         <v>405</v>
       </c>
       <c r="D149" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E149" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="F149" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+      <c r="F149" s="19" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="19" t="s">
         <v>399</v>
       </c>
@@ -5487,36 +5498,36 @@
         <v>405</v>
       </c>
       <c r="D150" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="F150" s="19" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+      <c r="F150" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="19" t="s">
         <v>399</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C151" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D151" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E151" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="19" t="s">
         <v>399</v>
       </c>
@@ -5527,7 +5538,7 @@
         <v>412</v>
       </c>
       <c r="D152" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E152" s="20" t="s">
         <v>482</v>
@@ -5536,7 +5547,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="19" t="s">
         <v>399</v>
       </c>
@@ -5547,7 +5558,7 @@
         <v>412</v>
       </c>
       <c r="D153" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E153" s="20" t="s">
         <v>482</v>
@@ -5556,27 +5567,27 @@
         <v>518</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="19" t="s">
         <v>399</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C154" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D154" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E154" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="19" t="s">
         <v>399</v>
       </c>
@@ -5587,16 +5598,16 @@
         <v>416</v>
       </c>
       <c r="D155" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E155" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="19" t="s">
         <v>399</v>
       </c>
@@ -5607,7 +5618,7 @@
         <v>416</v>
       </c>
       <c r="D156" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E156" s="20" t="s">
         <v>484</v>
@@ -5616,7 +5627,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="19" t="s">
         <v>399</v>
       </c>
@@ -5627,16 +5638,16 @@
         <v>416</v>
       </c>
       <c r="D157" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="19" t="s">
         <v>399</v>
       </c>
@@ -5647,16 +5658,16 @@
         <v>416</v>
       </c>
       <c r="D158" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E158" s="20" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="19" t="s">
         <v>399</v>
       </c>
@@ -5667,16 +5678,16 @@
         <v>416</v>
       </c>
       <c r="D159" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E159" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="F159" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="19" t="s">
         <v>399</v>
       </c>
@@ -5687,16 +5698,16 @@
         <v>416</v>
       </c>
       <c r="D160" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E160" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="F160" s="19" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+      <c r="F160" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="19" t="s">
         <v>399</v>
       </c>
@@ -5707,16 +5718,16 @@
         <v>416</v>
       </c>
       <c r="D161" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E161" s="20" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="19" t="s">
         <v>399</v>
       </c>
@@ -5727,16 +5738,16 @@
         <v>416</v>
       </c>
       <c r="D162" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E162" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="F162" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+      <c r="F162" s="19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="19" t="s">
         <v>399</v>
       </c>
@@ -5747,16 +5758,16 @@
         <v>416</v>
       </c>
       <c r="D163" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E163" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F163" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="19" t="s">
         <v>399</v>
       </c>
@@ -5767,16 +5778,16 @@
         <v>416</v>
       </c>
       <c r="D164" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E164" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="F164" s="19" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+      <c r="F164" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="19" t="s">
         <v>399</v>
       </c>
@@ -5787,16 +5798,16 @@
         <v>416</v>
       </c>
       <c r="D165" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F165" s="19" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="19" t="s">
         <v>399</v>
       </c>
@@ -5807,7 +5818,7 @@
         <v>416</v>
       </c>
       <c r="D166" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E166" s="20" t="s">
         <v>491</v>
@@ -5816,7 +5827,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="19" t="s">
         <v>399</v>
       </c>
@@ -5827,7 +5838,7 @@
         <v>416</v>
       </c>
       <c r="D167" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E167" s="20" t="s">
         <v>491</v>
@@ -5836,7 +5847,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="19" t="s">
         <v>399</v>
       </c>
@@ -5847,7 +5858,7 @@
         <v>416</v>
       </c>
       <c r="D168" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E168" s="20" t="s">
         <v>491</v>
@@ -5856,7 +5867,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="19" t="s">
         <v>399</v>
       </c>
@@ -5867,16 +5878,16 @@
         <v>416</v>
       </c>
       <c r="D169" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E169" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F169" s="19" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="19" t="s">
         <v>399</v>
       </c>
@@ -5887,16 +5898,16 @@
         <v>416</v>
       </c>
       <c r="D170" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E170" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F170" s="19" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="19" t="s">
         <v>399</v>
       </c>
@@ -5907,7 +5918,7 @@
         <v>416</v>
       </c>
       <c r="D171" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E171" s="20" t="s">
         <v>493</v>
@@ -5916,7 +5927,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="19" t="s">
         <v>399</v>
       </c>
@@ -5927,16 +5938,16 @@
         <v>416</v>
       </c>
       <c r="D172" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E172" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="19" t="s">
         <v>399</v>
       </c>
@@ -5947,16 +5958,16 @@
         <v>416</v>
       </c>
       <c r="D173" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E173" s="20" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="19" t="s">
         <v>399</v>
       </c>
@@ -5967,16 +5978,16 @@
         <v>416</v>
       </c>
       <c r="D174" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E174" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F174" s="19" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="19" t="s">
         <v>399</v>
       </c>
@@ -5987,16 +5998,16 @@
         <v>416</v>
       </c>
       <c r="D175" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="19" t="s">
         <v>399</v>
       </c>
@@ -6007,16 +6018,16 @@
         <v>416</v>
       </c>
       <c r="D176" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E176" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="19" t="s">
         <v>399</v>
       </c>
@@ -6027,16 +6038,16 @@
         <v>416</v>
       </c>
       <c r="D177" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E177" s="20" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F177" s="19" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="19" t="s">
         <v>399</v>
       </c>
@@ -6047,16 +6058,16 @@
         <v>416</v>
       </c>
       <c r="D178" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E178" s="20" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="19" t="s">
         <v>399</v>
       </c>
@@ -6067,7 +6078,7 @@
         <v>416</v>
       </c>
       <c r="D179" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E179" s="20" t="s">
         <v>498</v>
@@ -6076,7 +6087,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="19" t="s">
         <v>399</v>
       </c>
@@ -6087,7 +6098,7 @@
         <v>416</v>
       </c>
       <c r="D180" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E180" s="20" t="s">
         <v>498</v>
@@ -6096,7 +6107,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="19" t="s">
         <v>399</v>
       </c>
@@ -6107,16 +6118,16 @@
         <v>416</v>
       </c>
       <c r="D181" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E181" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F181" s="19" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="19" t="s">
         <v>399</v>
       </c>
@@ -6127,16 +6138,16 @@
         <v>416</v>
       </c>
       <c r="D182" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E182" s="20" t="s">
         <v>499</v>
       </c>
       <c r="F182" s="19" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="19" t="s">
         <v>399</v>
       </c>
@@ -6147,36 +6158,36 @@
         <v>416</v>
       </c>
       <c r="D183" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F183" s="19" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="19" t="s">
         <v>399</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="C184" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="D184" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E184" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="19" t="s">
         <v>399</v>
       </c>
@@ -6187,7 +6198,7 @@
         <v>447</v>
       </c>
       <c r="D185" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E185" s="20" t="s">
         <v>501</v>
@@ -6196,7 +6207,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="19" t="s">
         <v>399</v>
       </c>
@@ -6207,7 +6218,7 @@
         <v>447</v>
       </c>
       <c r="D186" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E186" s="20" t="s">
         <v>501</v>
@@ -6216,7 +6227,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="19" t="s">
         <v>399</v>
       </c>
@@ -6227,7 +6238,7 @@
         <v>447</v>
       </c>
       <c r="D187" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E187" s="20" t="s">
         <v>501</v>
@@ -6236,7 +6247,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="19" t="s">
         <v>399</v>
       </c>
@@ -6247,16 +6258,16 @@
         <v>447</v>
       </c>
       <c r="D188" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E188" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F188" s="19" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="19" t="s">
         <v>399</v>
       </c>
@@ -6267,16 +6278,16 @@
         <v>447</v>
       </c>
       <c r="D189" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E189" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="19" t="s">
         <v>399</v>
       </c>
@@ -6287,16 +6298,16 @@
         <v>447</v>
       </c>
       <c r="D190" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E190" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="19" t="s">
         <v>399</v>
       </c>
@@ -6307,16 +6318,16 @@
         <v>447</v>
       </c>
       <c r="D191" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E191" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F191" s="19" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="19" t="s">
         <v>399</v>
       </c>
@@ -6327,16 +6338,16 @@
         <v>447</v>
       </c>
       <c r="D192" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E192" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="19" t="s">
         <v>399</v>
       </c>
@@ -6347,7 +6358,7 @@
         <v>447</v>
       </c>
       <c r="D193" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E193" s="20" t="s">
         <v>506</v>
@@ -6356,7 +6367,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="19" t="s">
         <v>399</v>
       </c>
@@ -6367,16 +6378,16 @@
         <v>447</v>
       </c>
       <c r="D194" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E194" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F194" s="19" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="19" t="s">
         <v>399</v>
       </c>
@@ -6387,16 +6398,16 @@
         <v>447</v>
       </c>
       <c r="D195" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F195" s="19" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="19" t="s">
         <v>399</v>
       </c>
@@ -6407,16 +6418,16 @@
         <v>447</v>
       </c>
       <c r="D196" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E196" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="19" t="s">
         <v>399</v>
       </c>
@@ -6427,7 +6438,7 @@
         <v>447</v>
       </c>
       <c r="D197" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E197" s="20" t="s">
         <v>509</v>
@@ -6436,7 +6447,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="19" t="s">
         <v>399</v>
       </c>
@@ -6447,16 +6458,16 @@
         <v>447</v>
       </c>
       <c r="D198" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E198" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F198" s="19" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="19" t="s">
         <v>399</v>
       </c>
@@ -6467,7 +6478,7 @@
         <v>447</v>
       </c>
       <c r="D199" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E199" s="20" t="s">
         <v>510</v>
@@ -6476,7 +6487,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="19" t="s">
         <v>399</v>
       </c>
@@ -6487,27 +6498,27 @@
         <v>447</v>
       </c>
       <c r="D200" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E200" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F200" s="19" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="19" t="s">
         <v>399</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="C201" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="D201" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>511</v>
@@ -6516,7 +6527,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="19" t="s">
         <v>399</v>
       </c>
@@ -6527,16 +6538,16 @@
         <v>465</v>
       </c>
       <c r="D202" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E202" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F202" s="19" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="19" t="s">
         <v>399</v>
       </c>
@@ -6547,7 +6558,7 @@
         <v>465</v>
       </c>
       <c r="D203" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E203" s="20" t="s">
         <v>512</v>
@@ -6556,7 +6567,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="19" t="s">
         <v>399</v>
       </c>
@@ -6567,73 +6578,73 @@
         <v>465</v>
       </c>
       <c r="D204" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E204" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F204" s="19" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="19" t="s">
         <v>399</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="C205" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="D205" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E205" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F205" s="19" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="19" t="s">
         <v>399</v>
       </c>
       <c r="B206" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C206" t="s">
+        <v>412</v>
+      </c>
+      <c r="D206" t="s">
+        <v>470</v>
+      </c>
+      <c r="E206" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="F206" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B207" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>471</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D207" t="s">
         <v>472</v>
       </c>
-      <c r="E206" s="20" t="s">
+      <c r="E207" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="F206" s="19" t="s">
+      <c r="F207" s="19" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="B207" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C207" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D207" s="23" t="s">
-        <v>561</v>
-      </c>
-      <c r="E207" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="F207" s="17" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
@@ -6647,13 +6658,13 @@
         <v>22</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E208" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="F208" s="18" t="s">
-        <v>602</v>
+        <v>562</v>
+      </c>
+      <c r="F208" s="17" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
@@ -6667,16 +6678,16 @@
         <v>22</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E209" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="25" t="s">
         <v>567</v>
       </c>
@@ -6687,16 +6698,16 @@
         <v>22</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E210" s="24" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A211" s="25" t="s">
         <v>567</v>
       </c>
@@ -6707,16 +6718,16 @@
         <v>22</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E211" s="24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="25" t="s">
         <v>567</v>
       </c>
@@ -6727,36 +6738,36 @@
         <v>22</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E212" s="24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="25" t="s">
         <v>567</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>574</v>
+        <v>15</v>
       </c>
       <c r="C213" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E213" s="24" t="s">
-        <v>262</v>
+        <v>573</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="25" t="s">
         <v>567</v>
       </c>
@@ -6764,19 +6775,19 @@
         <v>574</v>
       </c>
       <c r="C214" s="25" t="s">
-        <v>576</v>
+        <v>22</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E214" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="F214" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" s="22" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+      <c r="F214" s="18" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A215" s="25" t="s">
         <v>567</v>
       </c>
@@ -6787,16 +6798,16 @@
         <v>576</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="E215" s="24" t="s">
-        <v>598</v>
-      </c>
-      <c r="F215" s="26" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>578</v>
+      </c>
+      <c r="F215" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="25" t="s">
         <v>567</v>
       </c>
@@ -6807,16 +6818,16 @@
         <v>576</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E216" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="F216" s="18" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="25" t="s">
         <v>567</v>
       </c>
@@ -6826,17 +6837,17 @@
       <c r="C217" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="D217" s="25" t="s">
-        <v>579</v>
+      <c r="D217" s="23" t="s">
+        <v>600</v>
       </c>
       <c r="E217" s="24" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A218" s="25" t="s">
         <v>567</v>
       </c>
@@ -6847,16 +6858,16 @@
         <v>576</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E218" s="24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="25" t="s">
         <v>567</v>
       </c>
@@ -6867,16 +6878,16 @@
         <v>576</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E219" s="24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="25" t="s">
         <v>567</v>
       </c>
@@ -6884,19 +6895,19 @@
         <v>574</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="D220" s="23" t="s">
-        <v>586</v>
+        <v>576</v>
+      </c>
+      <c r="D220" s="25" t="s">
+        <v>583</v>
       </c>
       <c r="E220" s="24" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" s="25" t="s">
         <v>567</v>
       </c>
@@ -6907,16 +6918,16 @@
         <v>585</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E221" s="24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A222" s="25" t="s">
         <v>567</v>
       </c>
@@ -6924,19 +6935,19 @@
         <v>574</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E222" s="24" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="25" t="s">
         <v>567</v>
       </c>
@@ -6947,16 +6958,16 @@
         <v>590</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E223" s="24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="25" t="s">
         <v>567</v>
       </c>
@@ -6966,150 +6977,164 @@
       <c r="C224" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="D224" s="25" t="s">
+      <c r="D224" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="E224" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="F224" s="18" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A225" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B225" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C225" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="D225" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="E224" s="24" t="s">
+      <c r="E225" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="F224" s="18" t="s">
+      <c r="F225" s="18" t="s">
         <v>618</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G224" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Onboarding"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G225" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}"/>
   <hyperlinks>
     <hyperlink ref="L11" r:id="rId1" display="https://teams.mdlz.com/:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{C9234C41-0B35-449D-A059-14FCD43DD586}"/>
-    <hyperlink ref="L12" r:id="rId2" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{B1E49C27-813B-4F81-B6D4-F88CC7C95F9A}"/>
-    <hyperlink ref="L16" r:id="rId3" display="https://teams.mdlz.com/:p:/s/ibsdataandanalytics/EVrP0mGMOf9EvBkgm8gU_5IBqPMpzSw1aYPDVTJZYX6hzw?e=EiwiBW" xr:uid="{C3AA22A2-9448-47A1-98CB-1E8256A5FDD2}"/>
+    <hyperlink ref="L13" r:id="rId2" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{B1E49C27-813B-4F81-B6D4-F88CC7C95F9A}"/>
+    <hyperlink ref="L17" r:id="rId3" display="https://teams.mdlz.com/:p:/s/ibsdataandanalytics/EVrP0mGMOf9EvBkgm8gU_5IBqPMpzSw1aYPDVTJZYX6hzw?e=EiwiBW" xr:uid="{C3AA22A2-9448-47A1-98CB-1E8256A5FDD2}"/>
     <hyperlink ref="L9" r:id="rId4" display="https://teams.mdlz.com/:x:/s/dadocumentrepository/Ea8BmoziXHpCqcet4wqn_DwBVl21LXea7ftBnEOspwxPfQ?e=zvVKNz" xr:uid="{7510047E-702D-463A-821B-A0CEDF158254}"/>
     <hyperlink ref="L7" r:id="rId5" display="https://teams.mdlz.com/:w:/s/dadocumentrepository/EZEgrySuDI5ChmDd2oec7XoBnfmEyvUwV3n0OdOE2dKvVA" xr:uid="{583F33A3-6CB6-4689-A743-9518AA18EA56}"/>
     <hyperlink ref="L2" r:id="rId6" display="https://teams.mdlz.com/:x:/s/dadocumentrepository/ETxZMJmOoXtPn56iyMKWILMB8Y3nqyjsz0TwMKQHlisXpQ" xr:uid="{707D1260-1BE1-4C49-A37C-4F7B935267C1}"/>
-    <hyperlink ref="E61" r:id="rId7" xr:uid="{CDEA1FA0-3B3E-471D-AD2A-C2A8DA752CD1}"/>
-    <hyperlink ref="E65" r:id="rId8" xr:uid="{E0F69382-F8F3-4DF6-B88F-1E83FFD91E63}"/>
-    <hyperlink ref="E70" r:id="rId9" xr:uid="{51875C5D-A9D4-4456-8C9A-1C9766203DA2}"/>
-    <hyperlink ref="E72" r:id="rId10" xr:uid="{1C6F8DE6-9772-460F-943D-08A7E24F0B43}"/>
-    <hyperlink ref="E67" r:id="rId11" xr:uid="{CC989F47-1FA8-4720-AF12-5FDCCF06F19A}"/>
-    <hyperlink ref="E66" r:id="rId12" xr:uid="{686E5F8D-844C-4C18-9501-9E6758C603E8}"/>
-    <hyperlink ref="E24" r:id="rId13" xr:uid="{9594DC43-05C5-4838-AD7D-1BC8D5EFD8A4}"/>
-    <hyperlink ref="E73" r:id="rId14" xr:uid="{99EABB0F-E4A2-4DDC-9EF5-A351FEF65D4E}"/>
-    <hyperlink ref="E59" r:id="rId15" xr:uid="{C9B5CF69-8987-424C-8F20-66D362A2C12D}"/>
-    <hyperlink ref="E58" r:id="rId16" xr:uid="{0BE0E0F4-A8F0-4A77-9164-DD340F69677A}"/>
-    <hyperlink ref="E57" r:id="rId17" xr:uid="{2501E0CA-BFF1-42DE-AE77-BC958B364763}"/>
-    <hyperlink ref="E56" r:id="rId18" xr:uid="{BD52AF16-2BBA-441F-A592-8A2D9F2C83A4}"/>
-    <hyperlink ref="E55" r:id="rId19" xr:uid="{565D6E72-B6B9-4C95-ABA9-9429D45E0DDF}"/>
-    <hyperlink ref="E42" r:id="rId20" xr:uid="{67C6D6DE-DEF8-4FB2-8612-469E441DD613}"/>
-    <hyperlink ref="E41" r:id="rId21" xr:uid="{8CF3EC86-4232-4237-B44A-67C19504998A}"/>
-    <hyperlink ref="E38" r:id="rId22" display="https://collaboration.mdlz.com/sites/GlobalInformationArchitecture/Teamsite%20Docs/Forms/AllItems.aspx?RootFolder=%2Fsites%2FGlobalInformationArchitecture%2FTeamsite%20Docs%2F03%20Data%20Modelling%2F08%20Internal%2FDMGB%2FGoogle%20Cloud%20Platform%20%28GCP%29&amp;FolderCTID=0x012000C84CF3322F5395439F970FFE45F11624&amp;View=%7B0051ADD9%2D3492%2D4EB4%2D9003%2D8DFC4812C26A%7D" xr:uid="{CC4B9869-C29C-46F3-B287-2316039C2E19}"/>
-    <hyperlink ref="E36" r:id="rId23" xr:uid="{456ADA60-16DA-484E-883F-8707EA751CF8}"/>
-    <hyperlink ref="E35" r:id="rId24" xr:uid="{5A753773-5C17-4ADD-8C4A-366528AFA560}"/>
-    <hyperlink ref="E34" r:id="rId25" display="https://teams.mdlz.com/sites/ibsdataandanalytics/Shared%20Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=84dhni&amp;CID=1970e002%2Dc09b%2D4529%2Dae90%2Dc45ebad9e166&amp;FolderCTID=0x012000442F74408945C8449981E1D447B1A95A&amp;id=%2Fsites%2Fibsdataandanalytics%2FShared%20Documents%2FDemand%20Intake%20%28Demand%20Management%29%2FInventory&amp;viewid=ef187201%2D331f%2D4fed%2D9fa9%2D4a5466e904fe" xr:uid="{DFC81AD3-2B79-42DC-8D54-13E4C0470F8E}"/>
-    <hyperlink ref="E32" r:id="rId26" xr:uid="{F04ED0D4-F445-40E8-8E58-2589FF117322}"/>
-    <hyperlink ref="E31" r:id="rId27" xr:uid="{F0AAC984-5059-47CD-B9EE-6D85858CCFAD}"/>
-    <hyperlink ref="E29" r:id="rId28" xr:uid="{35C80290-8A76-4B64-99F1-B574A9D5C6EF}"/>
-    <hyperlink ref="E28" r:id="rId29" xr:uid="{90EDFEA4-5DD7-4A14-A1D8-0C7F95925C34}"/>
-    <hyperlink ref="E23" r:id="rId30" xr:uid="{19660AAA-ACC9-474C-B197-147EB625060D}"/>
-    <hyperlink ref="E22" r:id="rId31" xr:uid="{465D43E2-D47A-4B64-8DE2-81BBD53C4C87}"/>
-    <hyperlink ref="E16" r:id="rId32" xr:uid="{809D2478-6369-4614-8080-BF7B17C99938}"/>
-    <hyperlink ref="E20" r:id="rId33" xr:uid="{4F9B489D-28CD-4B53-BE6B-57AFB0910D4B}"/>
-    <hyperlink ref="E37" r:id="rId34" xr:uid="{AC263CAA-FA63-4773-950B-21A9093827BA}"/>
-    <hyperlink ref="E19" r:id="rId35" xr:uid="{A67E0CAC-B324-4165-BB2D-E4B33C536308}"/>
-    <hyperlink ref="E18" r:id="rId36" xr:uid="{0F8D66A4-1A9D-41FC-A84B-B60915CF0A17}"/>
-    <hyperlink ref="E17" r:id="rId37" xr:uid="{3B78E189-C2F7-46AF-8239-B1DE21D8EC14}"/>
-    <hyperlink ref="E64" r:id="rId38" xr:uid="{50FA1012-8249-4E58-8823-79887C67908E}"/>
-    <hyperlink ref="E63" r:id="rId39" xr:uid="{F52B67BA-2FE6-460B-8392-D47E7AAC0292}"/>
-    <hyperlink ref="E62" r:id="rId40" xr:uid="{2DE72495-E0E0-46C8-BADE-EBF6444469DB}"/>
-    <hyperlink ref="E26" r:id="rId41" xr:uid="{DD2C39DA-D6CB-4520-8C88-441E1827EE5C}"/>
-    <hyperlink ref="E27" r:id="rId42" xr:uid="{4F6EEDB5-9C0A-4EA7-B9FA-3E68BD396E9A}"/>
-    <hyperlink ref="E13" r:id="rId43" xr:uid="{AC414B62-9A7B-4B7B-8E4C-567EB618631E}"/>
-    <hyperlink ref="E76" r:id="rId44" xr:uid="{E425C267-4132-46E8-8B55-EF90DFDB2294}"/>
-    <hyperlink ref="E75" r:id="rId45" xr:uid="{9650BE8A-1ABE-45DA-9078-04937240F75C}"/>
-    <hyperlink ref="E74" r:id="rId46" xr:uid="{48090E4E-4843-4EEB-9D4E-8DCD9BCA72D9}"/>
-    <hyperlink ref="E71" r:id="rId47" xr:uid="{B83621A1-0420-4925-ADE8-B909FF267105}"/>
-    <hyperlink ref="E69" r:id="rId48" xr:uid="{B57F3E74-8F01-45AA-9239-B5B8D0090662}"/>
-    <hyperlink ref="E68" r:id="rId49" xr:uid="{11BAE57F-7FE9-4D9F-A709-E42FE89998B5}"/>
-    <hyperlink ref="E54" r:id="rId50" xr:uid="{7DDD7085-558E-43C5-B519-935AC2D923B3}"/>
-    <hyperlink ref="E53" r:id="rId51" xr:uid="{6C9C9FDD-ADF0-4C05-8E4F-C77D71C7B704}"/>
-    <hyperlink ref="E52" r:id="rId52" xr:uid="{F95577AB-8CB4-4BA8-A804-66C2E69312E0}"/>
-    <hyperlink ref="E51" r:id="rId53" xr:uid="{E378EE4E-0C39-4CAE-9979-58FFD29F216B}"/>
-    <hyperlink ref="E50" r:id="rId54" xr:uid="{944E3722-0C65-4FF0-8574-1D80ADD42183}"/>
-    <hyperlink ref="E49" r:id="rId55" xr:uid="{3FD6CD22-665F-4A95-82B0-84EAD62C7331}"/>
-    <hyperlink ref="E48" r:id="rId56" xr:uid="{1F212AB4-942F-4CE1-A355-87E7EFCA59E9}"/>
-    <hyperlink ref="E46" r:id="rId57" xr:uid="{11BE553E-F607-4CE7-B916-5476AEA7FFCC}"/>
-    <hyperlink ref="E44" r:id="rId58" xr:uid="{B98E24EC-931D-48E1-8B30-C6007D202F8C}"/>
-    <hyperlink ref="E43" r:id="rId59" xr:uid="{7392B55F-9A6D-4BB6-82BD-EC3A839EB271}"/>
-    <hyperlink ref="E33" r:id="rId60" xr:uid="{AF1F7CF6-28A6-481A-BD7B-C1F472DCF452}"/>
-    <hyperlink ref="E30" r:id="rId61" xr:uid="{60065E9E-58F8-409B-8963-8848D5F10AA1}"/>
-    <hyperlink ref="E14" r:id="rId62" xr:uid="{0061FA96-2237-4E7D-9A7F-597618428A6C}"/>
+    <hyperlink ref="E62" r:id="rId7" xr:uid="{CDEA1FA0-3B3E-471D-AD2A-C2A8DA752CD1}"/>
+    <hyperlink ref="E66" r:id="rId8" xr:uid="{E0F69382-F8F3-4DF6-B88F-1E83FFD91E63}"/>
+    <hyperlink ref="E71" r:id="rId9" xr:uid="{51875C5D-A9D4-4456-8C9A-1C9766203DA2}"/>
+    <hyperlink ref="E73" r:id="rId10" xr:uid="{1C6F8DE6-9772-460F-943D-08A7E24F0B43}"/>
+    <hyperlink ref="E68" r:id="rId11" xr:uid="{CC989F47-1FA8-4720-AF12-5FDCCF06F19A}"/>
+    <hyperlink ref="E67" r:id="rId12" xr:uid="{686E5F8D-844C-4C18-9501-9E6758C603E8}"/>
+    <hyperlink ref="E25" r:id="rId13" xr:uid="{9594DC43-05C5-4838-AD7D-1BC8D5EFD8A4}"/>
+    <hyperlink ref="E74" r:id="rId14" xr:uid="{99EABB0F-E4A2-4DDC-9EF5-A351FEF65D4E}"/>
+    <hyperlink ref="E60" r:id="rId15" xr:uid="{C9B5CF69-8987-424C-8F20-66D362A2C12D}"/>
+    <hyperlink ref="E59" r:id="rId16" xr:uid="{0BE0E0F4-A8F0-4A77-9164-DD340F69677A}"/>
+    <hyperlink ref="E58" r:id="rId17" xr:uid="{2501E0CA-BFF1-42DE-AE77-BC958B364763}"/>
+    <hyperlink ref="E57" r:id="rId18" xr:uid="{BD52AF16-2BBA-441F-A592-8A2D9F2C83A4}"/>
+    <hyperlink ref="E56" r:id="rId19" xr:uid="{565D6E72-B6B9-4C95-ABA9-9429D45E0DDF}"/>
+    <hyperlink ref="E43" r:id="rId20" xr:uid="{67C6D6DE-DEF8-4FB2-8612-469E441DD613}"/>
+    <hyperlink ref="E42" r:id="rId21" xr:uid="{8CF3EC86-4232-4237-B44A-67C19504998A}"/>
+    <hyperlink ref="E39" r:id="rId22" display="https://collaboration.mdlz.com/sites/GlobalInformationArchitecture/Teamsite%20Docs/Forms/AllItems.aspx?RootFolder=%2Fsites%2FGlobalInformationArchitecture%2FTeamsite%20Docs%2F03%20Data%20Modelling%2F08%20Internal%2FDMGB%2FGoogle%20Cloud%20Platform%20%28GCP%29&amp;FolderCTID=0x012000C84CF3322F5395439F970FFE45F11624&amp;View=%7B0051ADD9%2D3492%2D4EB4%2D9003%2D8DFC4812C26A%7D" xr:uid="{CC4B9869-C29C-46F3-B287-2316039C2E19}"/>
+    <hyperlink ref="E37" r:id="rId23" xr:uid="{456ADA60-16DA-484E-883F-8707EA751CF8}"/>
+    <hyperlink ref="E36" r:id="rId24" xr:uid="{5A753773-5C17-4ADD-8C4A-366528AFA560}"/>
+    <hyperlink ref="E35" r:id="rId25" display="https://teams.mdlz.com/sites/ibsdataandanalytics/Shared%20Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=84dhni&amp;CID=1970e002%2Dc09b%2D4529%2Dae90%2Dc45ebad9e166&amp;FolderCTID=0x012000442F74408945C8449981E1D447B1A95A&amp;id=%2Fsites%2Fibsdataandanalytics%2FShared%20Documents%2FDemand%20Intake%20%28Demand%20Management%29%2FInventory&amp;viewid=ef187201%2D331f%2D4fed%2D9fa9%2D4a5466e904fe" xr:uid="{DFC81AD3-2B79-42DC-8D54-13E4C0470F8E}"/>
+    <hyperlink ref="E33" r:id="rId26" xr:uid="{F04ED0D4-F445-40E8-8E58-2589FF117322}"/>
+    <hyperlink ref="E32" r:id="rId27" xr:uid="{F0AAC984-5059-47CD-B9EE-6D85858CCFAD}"/>
+    <hyperlink ref="E30" r:id="rId28" xr:uid="{35C80290-8A76-4B64-99F1-B574A9D5C6EF}"/>
+    <hyperlink ref="E29" r:id="rId29" xr:uid="{90EDFEA4-5DD7-4A14-A1D8-0C7F95925C34}"/>
+    <hyperlink ref="E24" r:id="rId30" xr:uid="{19660AAA-ACC9-474C-B197-147EB625060D}"/>
+    <hyperlink ref="E23" r:id="rId31" xr:uid="{465D43E2-D47A-4B64-8DE2-81BBD53C4C87}"/>
+    <hyperlink ref="E17" r:id="rId32" xr:uid="{809D2478-6369-4614-8080-BF7B17C99938}"/>
+    <hyperlink ref="E21" r:id="rId33" xr:uid="{4F9B489D-28CD-4B53-BE6B-57AFB0910D4B}"/>
+    <hyperlink ref="E38" r:id="rId34" xr:uid="{AC263CAA-FA63-4773-950B-21A9093827BA}"/>
+    <hyperlink ref="E20" r:id="rId35" xr:uid="{A67E0CAC-B324-4165-BB2D-E4B33C536308}"/>
+    <hyperlink ref="E19" r:id="rId36" xr:uid="{0F8D66A4-1A9D-41FC-A84B-B60915CF0A17}"/>
+    <hyperlink ref="E18" r:id="rId37" xr:uid="{3B78E189-C2F7-46AF-8239-B1DE21D8EC14}"/>
+    <hyperlink ref="E65" r:id="rId38" xr:uid="{50FA1012-8249-4E58-8823-79887C67908E}"/>
+    <hyperlink ref="E64" r:id="rId39" xr:uid="{F52B67BA-2FE6-460B-8392-D47E7AAC0292}"/>
+    <hyperlink ref="E63" r:id="rId40" xr:uid="{2DE72495-E0E0-46C8-BADE-EBF6444469DB}"/>
+    <hyperlink ref="E27" r:id="rId41" xr:uid="{DD2C39DA-D6CB-4520-8C88-441E1827EE5C}"/>
+    <hyperlink ref="E28" r:id="rId42" xr:uid="{4F6EEDB5-9C0A-4EA7-B9FA-3E68BD396E9A}"/>
+    <hyperlink ref="E14" r:id="rId43" xr:uid="{AC414B62-9A7B-4B7B-8E4C-567EB618631E}"/>
+    <hyperlink ref="E77" r:id="rId44" xr:uid="{E425C267-4132-46E8-8B55-EF90DFDB2294}"/>
+    <hyperlink ref="E76" r:id="rId45" xr:uid="{9650BE8A-1ABE-45DA-9078-04937240F75C}"/>
+    <hyperlink ref="E75" r:id="rId46" xr:uid="{48090E4E-4843-4EEB-9D4E-8DCD9BCA72D9}"/>
+    <hyperlink ref="E72" r:id="rId47" xr:uid="{B83621A1-0420-4925-ADE8-B909FF267105}"/>
+    <hyperlink ref="E70" r:id="rId48" xr:uid="{B57F3E74-8F01-45AA-9239-B5B8D0090662}"/>
+    <hyperlink ref="E69" r:id="rId49" xr:uid="{11BAE57F-7FE9-4D9F-A709-E42FE89998B5}"/>
+    <hyperlink ref="E55" r:id="rId50" xr:uid="{7DDD7085-558E-43C5-B519-935AC2D923B3}"/>
+    <hyperlink ref="E54" r:id="rId51" xr:uid="{6C9C9FDD-ADF0-4C05-8E4F-C77D71C7B704}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{F95577AB-8CB4-4BA8-A804-66C2E69312E0}"/>
+    <hyperlink ref="E52" r:id="rId53" xr:uid="{E378EE4E-0C39-4CAE-9979-58FFD29F216B}"/>
+    <hyperlink ref="E51" r:id="rId54" xr:uid="{944E3722-0C65-4FF0-8574-1D80ADD42183}"/>
+    <hyperlink ref="E50" r:id="rId55" xr:uid="{3FD6CD22-665F-4A95-82B0-84EAD62C7331}"/>
+    <hyperlink ref="E49" r:id="rId56" xr:uid="{1F212AB4-942F-4CE1-A355-87E7EFCA59E9}"/>
+    <hyperlink ref="E47" r:id="rId57" xr:uid="{11BE553E-F607-4CE7-B916-5476AEA7FFCC}"/>
+    <hyperlink ref="E45" r:id="rId58" xr:uid="{B98E24EC-931D-48E1-8B30-C6007D202F8C}"/>
+    <hyperlink ref="E44" r:id="rId59" xr:uid="{7392B55F-9A6D-4BB6-82BD-EC3A839EB271}"/>
+    <hyperlink ref="E34" r:id="rId60" xr:uid="{AF1F7CF6-28A6-481A-BD7B-C1F472DCF452}"/>
+    <hyperlink ref="E31" r:id="rId61" xr:uid="{60065E9E-58F8-409B-8963-8848D5F10AA1}"/>
+    <hyperlink ref="E15" r:id="rId62" xr:uid="{0061FA96-2237-4E7D-9A7F-597618428A6C}"/>
     <hyperlink ref="E10" r:id="rId63" xr:uid="{F0ECBBAE-0D96-4638-91A3-63464B248A7A}"/>
     <hyperlink ref="E7" r:id="rId64" xr:uid="{62548266-15A2-4615-B711-31611204224E}"/>
     <hyperlink ref="E6" r:id="rId65" xr:uid="{759AF8B6-ED20-4EAF-8DB9-0FD2B8442629}"/>
     <hyperlink ref="E5" r:id="rId66" xr:uid="{3074B0C2-AF4E-4AAF-8129-163B772D5908}"/>
     <hyperlink ref="E9" r:id="rId67" xr:uid="{F3E446E6-0C7B-45B4-962A-A6C751C2540F}"/>
-    <hyperlink ref="F76" r:id="rId68" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{9867CAF2-6FCD-4820-9C27-32DA5B72D253}"/>
-    <hyperlink ref="F75" r:id="rId69" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{591E5EED-CAB2-4BBA-A9F4-1CA3B1F8D869}"/>
-    <hyperlink ref="F74" r:id="rId70" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{CE059ADC-6593-4384-8635-CA0EE6AEE7C9}"/>
-    <hyperlink ref="F72" r:id="rId71" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSectionb42953d2b733bb5dd6bd?experience=power-bi" xr:uid="{34154F27-7F7B-4066-A191-511F7D0AF888}"/>
-    <hyperlink ref="F71" r:id="rId72" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{0859B6D9-E623-4946-A526-7CD2BD3DE51F}"/>
-    <hyperlink ref="F70" r:id="rId73" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSection?experience=power-bi" xr:uid="{BAE0BF21-E86D-4A88-9650-9CFCE4782EB6}"/>
-    <hyperlink ref="F69" r:id="rId74" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{C57306CA-EAC3-40DF-A343-FA1178E5728B}"/>
-    <hyperlink ref="F68" r:id="rId75" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{9EB27B76-E0D8-4E48-87C8-4DF7E662EA48}"/>
-    <hyperlink ref="F67" r:id="rId76" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{51072E9D-621D-4C68-A2FE-725D880607E0}"/>
-    <hyperlink ref="F66" r:id="rId77" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{1B892013-6EFE-4FBE-82A0-1FB2CD4DF289}"/>
-    <hyperlink ref="F65" r:id="rId78" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{3F27E5F9-0378-42B0-8F03-D9C6C7B44762}"/>
-    <hyperlink ref="F64" r:id="rId79" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{E3D08A91-8AC8-4C53-BA4D-038D1C7598A4}"/>
-    <hyperlink ref="F63" r:id="rId80" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{C70B2A6F-7885-4645-AC8C-DE34699EF0BE}"/>
-    <hyperlink ref="F62" r:id="rId81" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{0EDD96FC-6962-4EA5-9DD8-47DA6F849526}"/>
-    <hyperlink ref="F61" r:id="rId82" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{4F26B3EC-FCBE-4E9A-96DA-1373FEDEB838}"/>
-    <hyperlink ref="F59" r:id="rId83" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{F33F75FE-C766-40FA-BF6C-40609279EC84}"/>
-    <hyperlink ref="F58" r:id="rId84" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{2B26B620-89B4-4C32-B8B8-46512E4BDB72}"/>
-    <hyperlink ref="F57" r:id="rId85" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{DA516C46-1107-4A85-BCC4-D9E20122F9B0}"/>
-    <hyperlink ref="F56" r:id="rId86" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{0B8C35B6-3936-4575-A80F-0940D5E684C0}"/>
-    <hyperlink ref="F55" r:id="rId87" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{0C872069-8AC3-46AD-ADE1-635E8AA3A1B7}"/>
-    <hyperlink ref="F54" r:id="rId88" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{82CD685A-0390-4F58-BCD1-3A8C83567296}"/>
-    <hyperlink ref="F53" r:id="rId89" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{F73788BD-4321-49D1-B302-17F2255A4187}"/>
-    <hyperlink ref="F52" r:id="rId90" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{FDCDFB82-30F2-4F1F-92A1-12337DDD9352}"/>
-    <hyperlink ref="F51" r:id="rId91" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{B015FBDC-5ADE-4F7A-A9B3-F17F3E3E293F}"/>
-    <hyperlink ref="F50" r:id="rId92" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{3181A8D5-43E8-42F1-B647-0B7E6B568CAB}"/>
-    <hyperlink ref="F49" r:id="rId93" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{1600E465-E9CC-4EE6-9880-7141BC94999F}"/>
-    <hyperlink ref="F48" r:id="rId94" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{612ECDF9-26FE-4827-AFB5-9F52CC18AC9B}"/>
-    <hyperlink ref="F47" r:id="rId95" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{A6CADB67-155A-44C8-A39C-EE37F5AF617D}"/>
-    <hyperlink ref="F46" r:id="rId96" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{A3E36300-F9C5-4FB8-8583-27F0592AEC4E}"/>
-    <hyperlink ref="F45" r:id="rId97" display="../../../../:x:/r/sites/dadocumentrepository/Shared Documents/General/Templates/gcp template for objects to be added in config sheet v2.0.xlsx?d=w1bbc4240fbcc438496f29750f91d6a4b&amp;csf=1&amp;web=1&amp;e=q63Sy6" xr:uid="{C5D3CAA7-6722-4E97-9595-6F27C53453ED}"/>
-    <hyperlink ref="F44" r:id="rId98" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{6349C4E6-467E-4BB0-A69C-EE1EC2439648}"/>
-    <hyperlink ref="F43" r:id="rId99" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{FA9F97BE-2456-4D29-AC6B-30981ED16685}"/>
-    <hyperlink ref="F42" r:id="rId100" display="../../../../:x:/s/dadocumentrepository/Ed33gQWPYzdKv0ohxxDwgBwBvkW3A8oyg-3tvHZBCXbf6w?e=LK7BgY" xr:uid="{600DCF95-01B6-4708-8821-A7D523F1B230}"/>
-    <hyperlink ref="F41" r:id="rId101" display="../../../../:x:/s/dadocumentrepository/Ed33gQWPYzdKv0ohxxDwgBwBvkW3A8oyg-3tvHZBCXbf6w?e=LK7BgY" xr:uid="{F57E9171-154D-45CB-B7F2-3D017B5C2046}"/>
-    <hyperlink ref="F40" r:id="rId102" display="../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{6FF2CF78-3E3E-416E-AAF3-04D22BAAC71B}"/>
-    <hyperlink ref="F39" r:id="rId103" display="../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{97C36AAA-C61A-4A66-B62C-C9C6E92E25FC}"/>
-    <hyperlink ref="F38" r:id="rId104" display="https://collaboration.mdlz.com/sites/GlobalInformationArchitecture/Teamsite Docs/Forms/AllItems.aspx?RootFolder=%2Fsites%2FGlobalInformationArchitecture%2FTeamsite%20Docs%2F03%20Data%20Modelling%2F08%20Internal%2FDMGB%2FGoogle%20Cloud%20Platform%20%28GCP%29&amp;FolderCTID=0x012000C84CF3322F5395439F970FFE45F11624&amp;View=%7B0051ADD9%2D3492%2D4EB4%2D9003%2D8DFC4812C26A%7D" xr:uid="{02C1B7D3-FB88-42C6-936D-C6FB6132D9D5}"/>
-    <hyperlink ref="F37" r:id="rId105" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{745009E0-1B7B-4291-9DBA-3244501D95F9}"/>
-    <hyperlink ref="F35" r:id="rId106" xr:uid="{D3AA1FF5-634E-4695-8D4A-3573FF16FF84}"/>
-    <hyperlink ref="F34" r:id="rId107" display="../../../ibsdataandanalytics/Shared Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=84dhni&amp;CID=1970e002%2Dc09b%2D4529%2Dae90%2Dc45ebad9e166&amp;FolderCTID=0x012000442F74408945C8449981E1D447B1A95A&amp;id=%2Fsites%2Fibsdataandanalytics%2FShared%20Documents%2FDemand%20Intake%20%28Demand%20Management%29%2FInventory&amp;viewid=ef187201%2D331f%2D4fed%2D9fa9%2D4a5466e904fe" xr:uid="{AF797BDA-A4DB-4879-9101-F93DCACBF4C4}"/>
-    <hyperlink ref="F33" r:id="rId108" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{BDA9D5AC-E305-4375-BDCB-A3A2C70A472C}"/>
-    <hyperlink ref="F32" r:id="rId109" display="../../../../:w:/s/dadocumentrepository/EZEgrySuDI5ChmDd2oec7XoBnfmEyvUwV3n0OdOE2dKvVA" xr:uid="{46EE7B3F-0273-463D-B0A9-DCD842863A1F}"/>
-    <hyperlink ref="F30" r:id="rId110" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{70B2CD7B-6CDC-4217-AFEB-4A6AC5C86B81}"/>
-    <hyperlink ref="F29" r:id="rId111" display="../../../../:x:/s/dadocumentrepository/ETxZMJmOoXtPn56iyMKWILMB8Y3nqyjsz0TwMKQHlisXpQ" xr:uid="{CCD37624-847E-4FA1-82DD-AA197880B1BE}"/>
-    <hyperlink ref="F28" r:id="rId112" display="../../../../:x:/s/dadocumentrepository/ETxZMJmOoXtPn56iyMKWILMB8Y3nqyjsz0TwMKQHlisXpQ" xr:uid="{21C71FB1-879B-4CE1-A339-E508591A6958}"/>
-    <hyperlink ref="F27" r:id="rId113" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{AA3036CB-1C68-43BE-854C-EC292421BD10}"/>
-    <hyperlink ref="F26" r:id="rId114" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{4C81825C-D975-41F0-A666-EEA72F608211}"/>
-    <hyperlink ref="F24" r:id="rId115" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{C4C085F5-00BD-4B5D-9D52-D0540B07C2A8}"/>
-    <hyperlink ref="F23" r:id="rId116" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - TDD process-20240628_192242-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=hTamLo" xr:uid="{54A9E086-FA10-4D99-BA6A-FA6FB708D347}"/>
-    <hyperlink ref="F22" r:id="rId117" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - TDD process-20240628_192242-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=hTamLo" xr:uid="{5BB218F5-4C13-4153-A6BC-1B41EA5ED425}"/>
-    <hyperlink ref="F21" r:id="rId118" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - LDMs-20240627_193717-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=huqlGC" xr:uid="{753F7098-C7B3-4E17-AF1F-C3E2F4A6FF1C}"/>
-    <hyperlink ref="F20" r:id="rId119" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 2_ CDM-20240626_153706-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=cS1ef2" xr:uid="{39EB1B3E-27B1-44FB-8B36-ABDFAC4D5F8B}"/>
-    <hyperlink ref="F19" r:id="rId120" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 1_ IIT BRD-20240626_123420-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=5MZdUs" xr:uid="{1F1F5E2B-EE4B-4F99-99F7-DAE6CA3449CE}"/>
-    <hyperlink ref="F18" r:id="rId121" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 1_ IIT BRD-20240626_123420-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=5MZdUs" xr:uid="{93616845-B62C-4AB4-85EB-E73F1EAF01D3}"/>
-    <hyperlink ref="F17" r:id="rId122" display="../../../../:x:/r/sites/ibsdataandanalytics/Shared Documents/Demand Intake (Demand Management)/Tracker/Self-Service calculator - ROM for AR.xlsx?d=w79218858523d4b12a255c9a5f44abe45&amp;csf=1&amp;web=1&amp;e=VgtJLO" xr:uid="{BEF845F3-6C3A-4AA6-BF76-B71A92915C1E}"/>
-    <hyperlink ref="F16" r:id="rId123" display="../../../../:x:/r/sites/ibsdataandanalytics/Shared Documents/Demand Intake (Demand Management)/Tracker/Self-Service calculator - ROM for AR.xlsx?d=w79218858523d4b12a255c9a5f44abe45&amp;csf=1&amp;web=1&amp;e=VgtJLO" xr:uid="{6708F064-C65D-4829-94FE-14979D4496A8}"/>
-    <hyperlink ref="F14" r:id="rId124" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{1B1E0613-449C-4E4F-9CB6-C8584B5CA3DA}"/>
-    <hyperlink ref="F13" r:id="rId125" display="../../../../:p:/s/ibsdataandanalytics/EVrP0mGMOf9EvBkgm8gU_5IBqPMpzSw1aYPDVTJZYX6hzw?e=EiwiBW" xr:uid="{63EC8D18-6F3D-4C13-BF66-AFA071C3FC6D}"/>
+    <hyperlink ref="F77" r:id="rId68" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{9867CAF2-6FCD-4820-9C27-32DA5B72D253}"/>
+    <hyperlink ref="F76" r:id="rId69" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{591E5EED-CAB2-4BBA-A9F4-1CA3B1F8D869}"/>
+    <hyperlink ref="F75" r:id="rId70" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{CE059ADC-6593-4384-8635-CA0EE6AEE7C9}"/>
+    <hyperlink ref="F73" r:id="rId71" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSectionb42953d2b733bb5dd6bd?experience=power-bi" xr:uid="{34154F27-7F7B-4066-A191-511F7D0AF888}"/>
+    <hyperlink ref="F72" r:id="rId72" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{0859B6D9-E623-4946-A526-7CD2BD3DE51F}"/>
+    <hyperlink ref="F71" r:id="rId73" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSection?experience=power-bi" xr:uid="{BAE0BF21-E86D-4A88-9650-9CFCE4782EB6}"/>
+    <hyperlink ref="F70" r:id="rId74" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{C57306CA-EAC3-40DF-A343-FA1178E5728B}"/>
+    <hyperlink ref="F69" r:id="rId75" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{9EB27B76-E0D8-4E48-87C8-4DF7E662EA48}"/>
+    <hyperlink ref="F68" r:id="rId76" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{51072E9D-621D-4C68-A2FE-725D880607E0}"/>
+    <hyperlink ref="F67" r:id="rId77" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{1B892013-6EFE-4FBE-82A0-1FB2CD4DF289}"/>
+    <hyperlink ref="F66" r:id="rId78" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{3F27E5F9-0378-42B0-8F03-D9C6C7B44762}"/>
+    <hyperlink ref="F65" r:id="rId79" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{E3D08A91-8AC8-4C53-BA4D-038D1C7598A4}"/>
+    <hyperlink ref="F64" r:id="rId80" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{C70B2A6F-7885-4645-AC8C-DE34699EF0BE}"/>
+    <hyperlink ref="F63" r:id="rId81" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{0EDD96FC-6962-4EA5-9DD8-47DA6F849526}"/>
+    <hyperlink ref="F62" r:id="rId82" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{4F26B3EC-FCBE-4E9A-96DA-1373FEDEB838}"/>
+    <hyperlink ref="F60" r:id="rId83" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{F33F75FE-C766-40FA-BF6C-40609279EC84}"/>
+    <hyperlink ref="F59" r:id="rId84" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{2B26B620-89B4-4C32-B8B8-46512E4BDB72}"/>
+    <hyperlink ref="F58" r:id="rId85" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{DA516C46-1107-4A85-BCC4-D9E20122F9B0}"/>
+    <hyperlink ref="F57" r:id="rId86" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{0B8C35B6-3936-4575-A80F-0940D5E684C0}"/>
+    <hyperlink ref="F56" r:id="rId87" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{0C872069-8AC3-46AD-ADE1-635E8AA3A1B7}"/>
+    <hyperlink ref="F55" r:id="rId88" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{82CD685A-0390-4F58-BCD1-3A8C83567296}"/>
+    <hyperlink ref="F54" r:id="rId89" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{F73788BD-4321-49D1-B302-17F2255A4187}"/>
+    <hyperlink ref="F53" r:id="rId90" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{FDCDFB82-30F2-4F1F-92A1-12337DDD9352}"/>
+    <hyperlink ref="F52" r:id="rId91" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{B015FBDC-5ADE-4F7A-A9B3-F17F3E3E293F}"/>
+    <hyperlink ref="F51" r:id="rId92" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{3181A8D5-43E8-42F1-B647-0B7E6B568CAB}"/>
+    <hyperlink ref="F50" r:id="rId93" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{1600E465-E9CC-4EE6-9880-7141BC94999F}"/>
+    <hyperlink ref="F49" r:id="rId94" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{612ECDF9-26FE-4827-AFB5-9F52CC18AC9B}"/>
+    <hyperlink ref="F48" r:id="rId95" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{A6CADB67-155A-44C8-A39C-EE37F5AF617D}"/>
+    <hyperlink ref="F47" r:id="rId96" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{A3E36300-F9C5-4FB8-8583-27F0592AEC4E}"/>
+    <hyperlink ref="F46" r:id="rId97" display="../../../../:x:/r/sites/dadocumentrepository/Shared Documents/General/Templates/gcp template for objects to be added in config sheet v2.0.xlsx?d=w1bbc4240fbcc438496f29750f91d6a4b&amp;csf=1&amp;web=1&amp;e=q63Sy6" xr:uid="{C5D3CAA7-6722-4E97-9595-6F27C53453ED}"/>
+    <hyperlink ref="F45" r:id="rId98" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{6349C4E6-467E-4BB0-A69C-EE1EC2439648}"/>
+    <hyperlink ref="F44" r:id="rId99" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{FA9F97BE-2456-4D29-AC6B-30981ED16685}"/>
+    <hyperlink ref="F43" r:id="rId100" display="../../../../:x:/s/dadocumentrepository/Ed33gQWPYzdKv0ohxxDwgBwBvkW3A8oyg-3tvHZBCXbf6w?e=LK7BgY" xr:uid="{600DCF95-01B6-4708-8821-A7D523F1B230}"/>
+    <hyperlink ref="F42" r:id="rId101" display="../../../../:x:/s/dadocumentrepository/Ed33gQWPYzdKv0ohxxDwgBwBvkW3A8oyg-3tvHZBCXbf6w?e=LK7BgY" xr:uid="{F57E9171-154D-45CB-B7F2-3D017B5C2046}"/>
+    <hyperlink ref="F41" r:id="rId102" display="../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{6FF2CF78-3E3E-416E-AAF3-04D22BAAC71B}"/>
+    <hyperlink ref="F40" r:id="rId103" display="../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{97C36AAA-C61A-4A66-B62C-C9C6E92E25FC}"/>
+    <hyperlink ref="F39" r:id="rId104" display="https://collaboration.mdlz.com/sites/GlobalInformationArchitecture/Teamsite Docs/Forms/AllItems.aspx?RootFolder=%2Fsites%2FGlobalInformationArchitecture%2FTeamsite%20Docs%2F03%20Data%20Modelling%2F08%20Internal%2FDMGB%2FGoogle%20Cloud%20Platform%20%28GCP%29&amp;FolderCTID=0x012000C84CF3322F5395439F970FFE45F11624&amp;View=%7B0051ADD9%2D3492%2D4EB4%2D9003%2D8DFC4812C26A%7D" xr:uid="{02C1B7D3-FB88-42C6-936D-C6FB6132D9D5}"/>
+    <hyperlink ref="F38" r:id="rId105" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{745009E0-1B7B-4291-9DBA-3244501D95F9}"/>
+    <hyperlink ref="F36" r:id="rId106" xr:uid="{D3AA1FF5-634E-4695-8D4A-3573FF16FF84}"/>
+    <hyperlink ref="F35" r:id="rId107" display="../../../ibsdataandanalytics/Shared Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=84dhni&amp;CID=1970e002%2Dc09b%2D4529%2Dae90%2Dc45ebad9e166&amp;FolderCTID=0x012000442F74408945C8449981E1D447B1A95A&amp;id=%2Fsites%2Fibsdataandanalytics%2FShared%20Documents%2FDemand%20Intake%20%28Demand%20Management%29%2FInventory&amp;viewid=ef187201%2D331f%2D4fed%2D9fa9%2D4a5466e904fe" xr:uid="{AF797BDA-A4DB-4879-9101-F93DCACBF4C4}"/>
+    <hyperlink ref="F34" r:id="rId108" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{BDA9D5AC-E305-4375-BDCB-A3A2C70A472C}"/>
+    <hyperlink ref="F33" r:id="rId109" display="../../../../:w:/s/dadocumentrepository/EZEgrySuDI5ChmDd2oec7XoBnfmEyvUwV3n0OdOE2dKvVA" xr:uid="{46EE7B3F-0273-463D-B0A9-DCD842863A1F}"/>
+    <hyperlink ref="F31" r:id="rId110" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{70B2CD7B-6CDC-4217-AFEB-4A6AC5C86B81}"/>
+    <hyperlink ref="F30" r:id="rId111" display="../../../../:x:/s/dadocumentrepository/ETxZMJmOoXtPn56iyMKWILMB8Y3nqyjsz0TwMKQHlisXpQ" xr:uid="{CCD37624-847E-4FA1-82DD-AA197880B1BE}"/>
+    <hyperlink ref="F29" r:id="rId112" display="../../../../:x:/s/dadocumentrepository/ETxZMJmOoXtPn56iyMKWILMB8Y3nqyjsz0TwMKQHlisXpQ" xr:uid="{21C71FB1-879B-4CE1-A339-E508591A6958}"/>
+    <hyperlink ref="F28" r:id="rId113" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{AA3036CB-1C68-43BE-854C-EC292421BD10}"/>
+    <hyperlink ref="F27" r:id="rId114" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{4C81825C-D975-41F0-A666-EEA72F608211}"/>
+    <hyperlink ref="F25" r:id="rId115" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{C4C085F5-00BD-4B5D-9D52-D0540B07C2A8}"/>
+    <hyperlink ref="F24" r:id="rId116" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - TDD process-20240628_192242-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=hTamLo" xr:uid="{54A9E086-FA10-4D99-BA6A-FA6FB708D347}"/>
+    <hyperlink ref="F23" r:id="rId117" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - TDD process-20240628_192242-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=hTamLo" xr:uid="{5BB218F5-4C13-4153-A6BC-1B41EA5ED425}"/>
+    <hyperlink ref="F22" r:id="rId118" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - LDMs-20240627_193717-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=huqlGC" xr:uid="{753F7098-C7B3-4E17-AF1F-C3E2F4A6FF1C}"/>
+    <hyperlink ref="F21" r:id="rId119" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 2_ CDM-20240626_153706-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=cS1ef2" xr:uid="{39EB1B3E-27B1-44FB-8B36-ABDFAC4D5F8B}"/>
+    <hyperlink ref="F20" r:id="rId120" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 1_ IIT BRD-20240626_123420-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=5MZdUs" xr:uid="{1F1F5E2B-EE4B-4F99-99F7-DAE6CA3449CE}"/>
+    <hyperlink ref="F19" r:id="rId121" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 1_ IIT BRD-20240626_123420-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=5MZdUs" xr:uid="{93616845-B62C-4AB4-85EB-E73F1EAF01D3}"/>
+    <hyperlink ref="F18" r:id="rId122" display="../../../../:x:/r/sites/ibsdataandanalytics/Shared Documents/Demand Intake (Demand Management)/Tracker/Self-Service calculator - ROM for AR.xlsx?d=w79218858523d4b12a255c9a5f44abe45&amp;csf=1&amp;web=1&amp;e=VgtJLO" xr:uid="{BEF845F3-6C3A-4AA6-BF76-B71A92915C1E}"/>
+    <hyperlink ref="F17" r:id="rId123" display="../../../../:x:/r/sites/ibsdataandanalytics/Shared Documents/Demand Intake (Demand Management)/Tracker/Self-Service calculator - ROM for AR.xlsx?d=w79218858523d4b12a255c9a5f44abe45&amp;csf=1&amp;web=1&amp;e=VgtJLO" xr:uid="{6708F064-C65D-4829-94FE-14979D4496A8}"/>
+    <hyperlink ref="F15" r:id="rId124" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{1B1E0613-449C-4E4F-9CB6-C8584B5CA3DA}"/>
+    <hyperlink ref="F14" r:id="rId125" display="../../../../:p:/s/ibsdataandanalytics/EVrP0mGMOf9EvBkgm8gU_5IBqPMpzSw1aYPDVTJZYX6hzw?e=EiwiBW" xr:uid="{63EC8D18-6F3D-4C13-BF66-AFA071C3FC6D}"/>
     <hyperlink ref="F10" r:id="rId126" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{25E80D15-9E64-45BF-BAE9-C49F5F5D6B3C}"/>
     <hyperlink ref="F9" r:id="rId127" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSection?experience=power-bi" xr:uid="{6A1008A0-A608-4A0D-B7B4-92596FDD5629}"/>
     <hyperlink ref="F7" r:id="rId128" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{1E5F5CCB-0C32-403C-B218-BD8973F8369E}"/>
@@ -7118,84 +7143,84 @@
     <hyperlink ref="F4" r:id="rId131" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{8319F334-E55B-4064-BCE4-839676879ED0}"/>
     <hyperlink ref="F3" r:id="rId132" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{524F87E9-CDDC-49AB-B9F4-88A802FC1416}"/>
     <hyperlink ref="F2" r:id="rId133" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{F4CD31E4-542B-4BB1-8982-3720E8D92EBF}"/>
-    <hyperlink ref="E39" r:id="rId134" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Data Domain Experts/../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{5895702F-D5C4-49C2-BF03-3FAFAEBCBBEF}"/>
-    <hyperlink ref="E40" r:id="rId135" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Data Domain Experts/../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{E164F0E7-3C31-4612-9785-9BDD931A79F8}"/>
-    <hyperlink ref="E45" r:id="rId136" xr:uid="{4B4BC587-AA04-40D7-802C-54232295A852}"/>
-    <hyperlink ref="E77" r:id="rId137" xr:uid="{615BC649-E8CB-4F56-8FAA-59203E8FAABE}"/>
-    <hyperlink ref="E78" r:id="rId138" xr:uid="{68C0B065-BC94-43B6-B60E-1C87D9329AE6}"/>
-    <hyperlink ref="E79" r:id="rId139" xr:uid="{A2889DD6-4B21-4E85-89E4-2E413E97743A}"/>
-    <hyperlink ref="E80" r:id="rId140" xr:uid="{C9526E0D-6D70-480D-80F6-7C25A5D05D84}"/>
-    <hyperlink ref="E81" r:id="rId141" xr:uid="{F79B17E9-E5E1-4682-BE14-02309E82801C}"/>
-    <hyperlink ref="E82" r:id="rId142" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{F8E298A9-D82A-4F65-AB92-3861B1BA6A03}"/>
-    <hyperlink ref="E83" r:id="rId143" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{08B439EF-B172-4F73-BAFE-40C0627CDFC6}"/>
-    <hyperlink ref="E84" r:id="rId144" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FGithub&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{3CC686B1-9C15-48F1-80EB-BC6970B7A1A6}"/>
-    <hyperlink ref="E85" r:id="rId145" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FAutomic&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{63FB6FF1-1327-4E25-9322-7F48DA7BD2A4}"/>
-    <hyperlink ref="E86" r:id="rId146" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FNaming%20Convention&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{D171D700-6885-452F-9F72-073B26067447}"/>
-    <hyperlink ref="E87" r:id="rId147" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FWorkflow%20best%20Practices&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{A1E63B6C-8E54-435D-B108-16DF8C4F4292}"/>
-    <hyperlink ref="E88" r:id="rId148" xr:uid="{6F9E2F46-75CF-45C3-A844-CBF2EE4195DE}"/>
-    <hyperlink ref="E89" r:id="rId149" xr:uid="{E8B37FB3-CFF4-4399-BB28-6BECAA3742EF}"/>
-    <hyperlink ref="E90" r:id="rId150" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared%20Documents/General/Data%20Ingestion%20%26%20Engineering%20Tower/AecorSoft/Aecorsoft%20CDC%20task%20configuration%20for%20init%20and%20delta%20load.docx?d=w729d1b343ff64dca9f9c287751dc0908&amp;csf=1&amp;web=1&amp;e=3OAvh1" xr:uid="{D745C36D-B72F-4AA7-A8C3-2A4DC6731F20}"/>
-    <hyperlink ref="E91" r:id="rId151" xr:uid="{4897C36E-281F-4878-9871-6BFA39CA2D9E}"/>
-    <hyperlink ref="F77" r:id="rId152" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{766A6DA7-7398-4A09-B6DD-87174E3031F9}"/>
-    <hyperlink ref="F78" r:id="rId153" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{E78BC6FF-4E17-4F95-853C-5BCA6959ECA5}"/>
-    <hyperlink ref="F79" r:id="rId154" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{666694D8-A717-4816-9528-155C63F6EA7A}"/>
-    <hyperlink ref="F80" r:id="rId155" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{E17B8DA9-5C81-439D-BD98-6E9FA73305B0}"/>
-    <hyperlink ref="F81" r:id="rId156" display="https://teams.mdlz.com/:v:/s/dadocumentrepository/EQ6Fv2roU5ZPkHmVzrEZMmcB7KbJW2owkcr9snTwFCFaXw?e=xrpq28" xr:uid="{E4C995C5-55E5-47F2-BB9C-86D2B940D901}"/>
-    <hyperlink ref="F82" r:id="rId157" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{139D63ED-6FCC-4B80-B6E3-EBE9017CD5B5}"/>
-    <hyperlink ref="F83" r:id="rId158" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{928A8B63-0BCD-471D-8309-F00AA92688BA}"/>
-    <hyperlink ref="F84" r:id="rId159" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FGithub&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{5E23FBD5-ADCD-4372-BCAA-BE3EB2F3322E}"/>
-    <hyperlink ref="F85" r:id="rId160" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FAutomic&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{3BE913CB-FFC3-45BF-BD72-1CF965B9685E}"/>
-    <hyperlink ref="F86" r:id="rId161" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FNaming%20Convention&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{BF28B088-055D-4027-8379-899AC2AA5F25}"/>
-    <hyperlink ref="F87" r:id="rId162" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FWorkflow%20best%20Practices&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{B570AC19-9328-4C88-BC8A-D51E1E70EA7C}"/>
-    <hyperlink ref="F88" r:id="rId163" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft Access Request.docx?d=w6d9ab4d3d2f04991b6816d590966d12f&amp;csf=1&amp;web=1&amp;e=vgXvXk" xr:uid="{6B9E2D68-93B3-4BBA-AE75-15F0DE369A40}"/>
-    <hyperlink ref="F89" r:id="rId164" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft CDC to BQ Task Guidelines.docx?d=w0b729a15ca8c41389ab6f1c3e796602b&amp;csf=1&amp;web=1&amp;e=4vgNBO" xr:uid="{BE39935E-07F8-4F34-8050-7AA23FB635D3}"/>
-    <hyperlink ref="F90" r:id="rId165" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft CDC task configuration for init and delta load.docx?d=w729d1b343ff64dca9f9c287751dc0908&amp;csf=1&amp;web=1&amp;e=3OAvh1" xr:uid="{E3FA2B4E-7A32-4B8E-9E64-8B8D585B5FAD}"/>
-    <hyperlink ref="F91" r:id="rId166" display="https://teams.mdlz.com/:w:/s/dadocumentrepository/EeWQW49qOuhAn50aSi7_jmcBP5hMdobNQfDLu8LntsfHLw?e=d6GrrP" xr:uid="{B7D9E73F-A3E9-4B82-AFE1-D75D4C27C2FF}"/>
-    <hyperlink ref="F92" r:id="rId167" display="../../../../:b:/s/dadocumentrepository/EQtd_KpL0F1Ct47CBwFYPCEBAnnanAL9si5ZyXBfYdL1Jw?e=NJdhKP" xr:uid="{4B62558A-94A0-4AFC-BFC7-2DC10922E43E}"/>
-    <hyperlink ref="F93" r:id="rId168" display="../../../../:b:/s/dadocumentrepository/EaCM77nIUIhAspPUFy-P0UsBIEVBLHGi1AZ9QLbrrBrLcA?e=vjl2Jr" xr:uid="{B6A65FEA-06F7-47B1-BE75-472ACAC427CB}"/>
-    <hyperlink ref="F92:F93" r:id="rId169" display="DIAT_developer_user guide.pdf" xr:uid="{FD3DCBFB-7FA8-4EC5-A58B-65560951B7AB}"/>
-    <hyperlink ref="E92" r:id="rId170" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT%2FDIAT%5Fdeveloper%5Fuser%20guide%2Epdf&amp;parent=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT&amp;p=true&amp;ga=1" xr:uid="{14EE2880-43BC-44F3-99BD-8350858BC0D5}"/>
-    <hyperlink ref="E93" r:id="rId171" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT%2FDIAT%5Fproject%20team%5Fuser%20guide%2Epdf&amp;parent=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT&amp;p=true&amp;ga=1" xr:uid="{1501457E-EC4C-4908-A9A0-3632566ACD1D}"/>
-    <hyperlink ref="E60" r:id="rId172" xr:uid="{202E8945-B70F-4594-931A-78A2A52CD767}"/>
-    <hyperlink ref="F60" r:id="rId173" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{016AFD8D-57A0-446A-A61C-435C09C12EC4}"/>
-    <hyperlink ref="E12" r:id="rId174" location="high-level-strategy" xr:uid="{70ECEACB-4A39-4EE1-811D-D2D0B856E280}"/>
-    <hyperlink ref="F12" r:id="rId175" location="high-level-strategy" xr:uid="{3846A3E1-2C5C-45BF-B452-3A70B181FA7D}"/>
-    <hyperlink ref="E94" r:id="rId176" xr:uid="{E2143023-BD75-4E85-84C5-4FFA2092FF84}"/>
-    <hyperlink ref="E95" r:id="rId177" location="list-of-decentralized-lakehouse-instances-1" xr:uid="{558299E3-A903-4FC6-93AA-2444734C3CB4}"/>
-    <hyperlink ref="E96" r:id="rId178" location="cross-functional-consumption-scenario" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx - cross-functional-consumption-scenario" xr:uid="{F57FB0F7-A0F4-47AE-BAC8-5B99E3F8555A}"/>
-    <hyperlink ref="E97" r:id="rId179" xr:uid="{EF30D372-7321-41A3-8CF3-7278FD42352D}"/>
-    <hyperlink ref="E98" r:id="rId180" location="certified-integration-patterns-repository" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Integration-Patterns.aspx - certified-integration-patterns-repository" xr:uid="{EBFFB570-E107-444A-A2C3-D7701EBF2FF0}"/>
-    <hyperlink ref="E99" r:id="rId181" location="zone-level-security" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - zone-level-security" xr:uid="{4DE82FC4-530B-4FFB-9A67-984F66AA400B}"/>
-    <hyperlink ref="E100" r:id="rId182" location="lakehouse-zones-in-big-query" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_D4GV-Platform-Overview.aspx - lakehouse-zones-in-big-query" xr:uid="{222DAF28-A068-4518-8D0B-C2806FD53C0B}"/>
-    <hyperlink ref="E101" r:id="rId183" xr:uid="{279BD7E7-CC2B-45B4-9C32-D2AAF650332B}"/>
-    <hyperlink ref="E102" r:id="rId184" xr:uid="{58CA1246-8BBC-4679-AE5E-6E6FBDC37083}"/>
-    <hyperlink ref="E103" r:id="rId185" location="row-level-security" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - row-level-security" xr:uid="{E7193F5F-5137-4F2C-8832-8147062094A6}"/>
-    <hyperlink ref="E104" r:id="rId186" location="column-level-security-and-sensitive-data-protection" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - column-level-security-and-sensitive-data-protection" xr:uid="{BDFA1301-E359-497F-B216-35EB58047C96}"/>
-    <hyperlink ref="F94" r:id="rId187" xr:uid="{7971DAB4-5AAC-45F6-AED2-FD3183325A71}"/>
-    <hyperlink ref="F95" r:id="rId188" location="list-of-decentralized-lakehouse-instances-1" xr:uid="{B9341BA3-9E1C-4114-B60C-213942D1AAAF}"/>
-    <hyperlink ref="F96" r:id="rId189" location="cross-functional-consumption-scenario" xr:uid="{D01AE79E-C249-4EC4-B67D-4658AEF70EEE}"/>
-    <hyperlink ref="F97" r:id="rId190" xr:uid="{5F956C3A-1EF8-493B-A731-20D5489B584D}"/>
-    <hyperlink ref="F98" r:id="rId191" location="certified-integration-patterns-repository" xr:uid="{5108912D-B9D1-4DC7-9641-7D1089117EA2}"/>
-    <hyperlink ref="F99" r:id="rId192" location="zone-level-security" xr:uid="{6FA57E8C-CFF7-4E31-8721-2BD3929D63C7}"/>
-    <hyperlink ref="F100" r:id="rId193" location="lakehouse-zones-in-big-query" xr:uid="{633D1DBC-D5A5-443C-8A94-39DBA8307664}"/>
-    <hyperlink ref="F101" r:id="rId194" xr:uid="{03BB9AF2-4F8B-4AA9-99BC-7DB672436FC1}"/>
-    <hyperlink ref="F102" r:id="rId195" xr:uid="{D5286106-DD1B-4468-BAA6-2146DD525979}"/>
-    <hyperlink ref="F103" r:id="rId196" location="row-level-security" xr:uid="{79785102-EE72-483E-B9E7-EB543A61CC57}"/>
-    <hyperlink ref="F104" r:id="rId197" location="column-level-security-and-sensitive-data-protection" xr:uid="{CB3A7DD7-4264-4C3C-B2C3-2934A8D65E2E}"/>
-    <hyperlink ref="F15" r:id="rId198" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{151C010C-D0D2-45EE-B138-C24DDBED38B3}"/>
-    <hyperlink ref="E15" r:id="rId199" xr:uid="{208D805F-723A-48FE-8DE0-D9E225C3516E}"/>
-    <hyperlink ref="E105" r:id="rId200" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model&amp;viewid=dcc42cc8%2D5e92%2D450b%2D8c7b%2Df21901772f1b" xr:uid="{2BE61D3D-415D-4E7D-85BF-664170F30D5D}"/>
-    <hyperlink ref="E106" r:id="rId201" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model&amp;viewid=dcc42cc8%2D5e92%2D450b%2D8c7b%2Df21901772f1b" xr:uid="{0FBD40C5-5948-4E7B-B979-B793BAFE3A7B}"/>
-    <hyperlink ref="E107" r:id="rId202" xr:uid="{03A3F923-37DF-44A0-A311-174468E1C4EB}"/>
-    <hyperlink ref="E108" r:id="rId203" xr:uid="{24FF202B-A587-42B0-AE49-F9857B3462DD}"/>
-    <hyperlink ref="E109" r:id="rId204" xr:uid="{9AB4B75C-ED9C-4F23-BED0-64C49C35A3E2}"/>
-    <hyperlink ref="F109" r:id="rId205" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{F8B661F3-96D8-49A4-8579-7F3489533908}"/>
-    <hyperlink ref="F108" r:id="rId206" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{427EC185-FBEB-4B6C-A6B3-032ACEAEE1D1}"/>
-    <hyperlink ref="F107" r:id="rId207" xr:uid="{4A588F2E-2B21-41B9-B104-140521E2DBBA}"/>
-    <hyperlink ref="F106" r:id="rId208" xr:uid="{54360AF2-A9CE-4052-BC53-6B6E1E9C3791}"/>
-    <hyperlink ref="F105" r:id="rId209" xr:uid="{265F8B63-B119-4B33-BCF5-924779F12F13}"/>
-    <hyperlink ref="E21" r:id="rId210" xr:uid="{82E9383D-E231-4B23-9568-6115CE756F91}"/>
-    <hyperlink ref="E47" r:id="rId211" xr:uid="{DA62E039-3933-4ABA-9494-9E077E79A90A}"/>
+    <hyperlink ref="E40" r:id="rId134" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Data Domain Experts/../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{5895702F-D5C4-49C2-BF03-3FAFAEBCBBEF}"/>
+    <hyperlink ref="E41" r:id="rId135" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Data Domain Experts/../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{E164F0E7-3C31-4612-9785-9BDD931A79F8}"/>
+    <hyperlink ref="E46" r:id="rId136" xr:uid="{4B4BC587-AA04-40D7-802C-54232295A852}"/>
+    <hyperlink ref="E78" r:id="rId137" xr:uid="{615BC649-E8CB-4F56-8FAA-59203E8FAABE}"/>
+    <hyperlink ref="E79" r:id="rId138" xr:uid="{68C0B065-BC94-43B6-B60E-1C87D9329AE6}"/>
+    <hyperlink ref="E80" r:id="rId139" xr:uid="{A2889DD6-4B21-4E85-89E4-2E413E97743A}"/>
+    <hyperlink ref="E81" r:id="rId140" xr:uid="{C9526E0D-6D70-480D-80F6-7C25A5D05D84}"/>
+    <hyperlink ref="E82" r:id="rId141" xr:uid="{F79B17E9-E5E1-4682-BE14-02309E82801C}"/>
+    <hyperlink ref="E83" r:id="rId142" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{F8E298A9-D82A-4F65-AB92-3861B1BA6A03}"/>
+    <hyperlink ref="E84" r:id="rId143" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{08B439EF-B172-4F73-BAFE-40C0627CDFC6}"/>
+    <hyperlink ref="E85" r:id="rId144" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FGithub&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{3CC686B1-9C15-48F1-80EB-BC6970B7A1A6}"/>
+    <hyperlink ref="E86" r:id="rId145" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FAutomic&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{63FB6FF1-1327-4E25-9322-7F48DA7BD2A4}"/>
+    <hyperlink ref="E87" r:id="rId146" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FNaming%20Convention&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{D171D700-6885-452F-9F72-073B26067447}"/>
+    <hyperlink ref="E88" r:id="rId147" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FWorkflow%20best%20Practices&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{A1E63B6C-8E54-435D-B108-16DF8C4F4292}"/>
+    <hyperlink ref="E89" r:id="rId148" xr:uid="{6F9E2F46-75CF-45C3-A844-CBF2EE4195DE}"/>
+    <hyperlink ref="E90" r:id="rId149" xr:uid="{E8B37FB3-CFF4-4399-BB28-6BECAA3742EF}"/>
+    <hyperlink ref="E91" r:id="rId150" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared%20Documents/General/Data%20Ingestion%20%26%20Engineering%20Tower/AecorSoft/Aecorsoft%20CDC%20task%20configuration%20for%20init%20and%20delta%20load.docx?d=w729d1b343ff64dca9f9c287751dc0908&amp;csf=1&amp;web=1&amp;e=3OAvh1" xr:uid="{D745C36D-B72F-4AA7-A8C3-2A4DC6731F20}"/>
+    <hyperlink ref="E92" r:id="rId151" xr:uid="{4897C36E-281F-4878-9871-6BFA39CA2D9E}"/>
+    <hyperlink ref="F78" r:id="rId152" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{766A6DA7-7398-4A09-B6DD-87174E3031F9}"/>
+    <hyperlink ref="F79" r:id="rId153" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{E78BC6FF-4E17-4F95-853C-5BCA6959ECA5}"/>
+    <hyperlink ref="F80" r:id="rId154" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{666694D8-A717-4816-9528-155C63F6EA7A}"/>
+    <hyperlink ref="F81" r:id="rId155" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{E17B8DA9-5C81-439D-BD98-6E9FA73305B0}"/>
+    <hyperlink ref="F82" r:id="rId156" display="https://teams.mdlz.com/:v:/s/dadocumentrepository/EQ6Fv2roU5ZPkHmVzrEZMmcB7KbJW2owkcr9snTwFCFaXw?e=xrpq28" xr:uid="{E4C995C5-55E5-47F2-BB9C-86D2B940D901}"/>
+    <hyperlink ref="F83" r:id="rId157" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{139D63ED-6FCC-4B80-B6E3-EBE9017CD5B5}"/>
+    <hyperlink ref="F84" r:id="rId158" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{928A8B63-0BCD-471D-8309-F00AA92688BA}"/>
+    <hyperlink ref="F85" r:id="rId159" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FGithub&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{5E23FBD5-ADCD-4372-BCAA-BE3EB2F3322E}"/>
+    <hyperlink ref="F86" r:id="rId160" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FAutomic&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{3BE913CB-FFC3-45BF-BD72-1CF965B9685E}"/>
+    <hyperlink ref="F87" r:id="rId161" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FNaming%20Convention&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{BF28B088-055D-4027-8379-899AC2AA5F25}"/>
+    <hyperlink ref="F88" r:id="rId162" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FWorkflow%20best%20Practices&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{B570AC19-9328-4C88-BC8A-D51E1E70EA7C}"/>
+    <hyperlink ref="F89" r:id="rId163" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft Access Request.docx?d=w6d9ab4d3d2f04991b6816d590966d12f&amp;csf=1&amp;web=1&amp;e=vgXvXk" xr:uid="{6B9E2D68-93B3-4BBA-AE75-15F0DE369A40}"/>
+    <hyperlink ref="F90" r:id="rId164" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft CDC to BQ Task Guidelines.docx?d=w0b729a15ca8c41389ab6f1c3e796602b&amp;csf=1&amp;web=1&amp;e=4vgNBO" xr:uid="{BE39935E-07F8-4F34-8050-7AA23FB635D3}"/>
+    <hyperlink ref="F91" r:id="rId165" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft CDC task configuration for init and delta load.docx?d=w729d1b343ff64dca9f9c287751dc0908&amp;csf=1&amp;web=1&amp;e=3OAvh1" xr:uid="{E3FA2B4E-7A32-4B8E-9E64-8B8D585B5FAD}"/>
+    <hyperlink ref="F92" r:id="rId166" display="https://teams.mdlz.com/:w:/s/dadocumentrepository/EeWQW49qOuhAn50aSi7_jmcBP5hMdobNQfDLu8LntsfHLw?e=d6GrrP" xr:uid="{B7D9E73F-A3E9-4B82-AFE1-D75D4C27C2FF}"/>
+    <hyperlink ref="F93" r:id="rId167" display="../../../../:b:/s/dadocumentrepository/EQtd_KpL0F1Ct47CBwFYPCEBAnnanAL9si5ZyXBfYdL1Jw?e=NJdhKP" xr:uid="{4B62558A-94A0-4AFC-BFC7-2DC10922E43E}"/>
+    <hyperlink ref="F94" r:id="rId168" display="../../../../:b:/s/dadocumentrepository/EaCM77nIUIhAspPUFy-P0UsBIEVBLHGi1AZ9QLbrrBrLcA?e=vjl2Jr" xr:uid="{B6A65FEA-06F7-47B1-BE75-472ACAC427CB}"/>
+    <hyperlink ref="F93:F94" r:id="rId169" display="DIAT_developer_user guide.pdf" xr:uid="{FD3DCBFB-7FA8-4EC5-A58B-65560951B7AB}"/>
+    <hyperlink ref="E93" r:id="rId170" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT%2FDIAT%5Fdeveloper%5Fuser%20guide%2Epdf&amp;parent=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT&amp;p=true&amp;ga=1" xr:uid="{14EE2880-43BC-44F3-99BD-8350858BC0D5}"/>
+    <hyperlink ref="E94" r:id="rId171" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT%2FDIAT%5Fproject%20team%5Fuser%20guide%2Epdf&amp;parent=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT&amp;p=true&amp;ga=1" xr:uid="{1501457E-EC4C-4908-A9A0-3632566ACD1D}"/>
+    <hyperlink ref="E61" r:id="rId172" xr:uid="{202E8945-B70F-4594-931A-78A2A52CD767}"/>
+    <hyperlink ref="F61" r:id="rId173" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{016AFD8D-57A0-446A-A61C-435C09C12EC4}"/>
+    <hyperlink ref="E13" r:id="rId174" location="high-level-strategy" xr:uid="{70ECEACB-4A39-4EE1-811D-D2D0B856E280}"/>
+    <hyperlink ref="F13" r:id="rId175" location="high-level-strategy" xr:uid="{3846A3E1-2C5C-45BF-B452-3A70B181FA7D}"/>
+    <hyperlink ref="E95" r:id="rId176" xr:uid="{E2143023-BD75-4E85-84C5-4FFA2092FF84}"/>
+    <hyperlink ref="E96" r:id="rId177" location="list-of-decentralized-lakehouse-instances-1" xr:uid="{558299E3-A903-4FC6-93AA-2444734C3CB4}"/>
+    <hyperlink ref="E97" r:id="rId178" location="cross-functional-consumption-scenario" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx - cross-functional-consumption-scenario" xr:uid="{F57FB0F7-A0F4-47AE-BAC8-5B99E3F8555A}"/>
+    <hyperlink ref="E98" r:id="rId179" xr:uid="{EF30D372-7321-41A3-8CF3-7278FD42352D}"/>
+    <hyperlink ref="E99" r:id="rId180" location="certified-integration-patterns-repository" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Integration-Patterns.aspx - certified-integration-patterns-repository" xr:uid="{EBFFB570-E107-444A-A2C3-D7701EBF2FF0}"/>
+    <hyperlink ref="E100" r:id="rId181" location="zone-level-security" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - zone-level-security" xr:uid="{4DE82FC4-530B-4FFB-9A67-984F66AA400B}"/>
+    <hyperlink ref="E101" r:id="rId182" location="lakehouse-zones-in-big-query" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_D4GV-Platform-Overview.aspx - lakehouse-zones-in-big-query" xr:uid="{222DAF28-A068-4518-8D0B-C2806FD53C0B}"/>
+    <hyperlink ref="E102" r:id="rId183" xr:uid="{279BD7E7-CC2B-45B4-9C32-D2AAF650332B}"/>
+    <hyperlink ref="E103" r:id="rId184" xr:uid="{58CA1246-8BBC-4679-AE5E-6E6FBDC37083}"/>
+    <hyperlink ref="E104" r:id="rId185" location="row-level-security" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - row-level-security" xr:uid="{E7193F5F-5137-4F2C-8832-8147062094A6}"/>
+    <hyperlink ref="E105" r:id="rId186" location="column-level-security-and-sensitive-data-protection" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - column-level-security-and-sensitive-data-protection" xr:uid="{BDFA1301-E359-497F-B216-35EB58047C96}"/>
+    <hyperlink ref="F95" r:id="rId187" xr:uid="{7971DAB4-5AAC-45F6-AED2-FD3183325A71}"/>
+    <hyperlink ref="F96" r:id="rId188" location="list-of-decentralized-lakehouse-instances-1" xr:uid="{B9341BA3-9E1C-4114-B60C-213942D1AAAF}"/>
+    <hyperlink ref="F97" r:id="rId189" location="cross-functional-consumption-scenario" xr:uid="{D01AE79E-C249-4EC4-B67D-4658AEF70EEE}"/>
+    <hyperlink ref="F98" r:id="rId190" xr:uid="{5F956C3A-1EF8-493B-A731-20D5489B584D}"/>
+    <hyperlink ref="F99" r:id="rId191" location="certified-integration-patterns-repository" xr:uid="{5108912D-B9D1-4DC7-9641-7D1089117EA2}"/>
+    <hyperlink ref="F100" r:id="rId192" location="zone-level-security" xr:uid="{6FA57E8C-CFF7-4E31-8721-2BD3929D63C7}"/>
+    <hyperlink ref="F101" r:id="rId193" location="lakehouse-zones-in-big-query" xr:uid="{633D1DBC-D5A5-443C-8A94-39DBA8307664}"/>
+    <hyperlink ref="F102" r:id="rId194" xr:uid="{03BB9AF2-4F8B-4AA9-99BC-7DB672436FC1}"/>
+    <hyperlink ref="F103" r:id="rId195" xr:uid="{D5286106-DD1B-4468-BAA6-2146DD525979}"/>
+    <hyperlink ref="F104" r:id="rId196" location="row-level-security" xr:uid="{79785102-EE72-483E-B9E7-EB543A61CC57}"/>
+    <hyperlink ref="F105" r:id="rId197" location="column-level-security-and-sensitive-data-protection" xr:uid="{CB3A7DD7-4264-4C3C-B2C3-2934A8D65E2E}"/>
+    <hyperlink ref="F16" r:id="rId198" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{151C010C-D0D2-45EE-B138-C24DDBED38B3}"/>
+    <hyperlink ref="E16" r:id="rId199" xr:uid="{208D805F-723A-48FE-8DE0-D9E225C3516E}"/>
+    <hyperlink ref="E106" r:id="rId200" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model&amp;viewid=dcc42cc8%2D5e92%2D450b%2D8c7b%2Df21901772f1b" xr:uid="{2BE61D3D-415D-4E7D-85BF-664170F30D5D}"/>
+    <hyperlink ref="E107" r:id="rId201" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model&amp;viewid=dcc42cc8%2D5e92%2D450b%2D8c7b%2Df21901772f1b" xr:uid="{0FBD40C5-5948-4E7B-B979-B793BAFE3A7B}"/>
+    <hyperlink ref="E108" r:id="rId202" xr:uid="{03A3F923-37DF-44A0-A311-174468E1C4EB}"/>
+    <hyperlink ref="E109" r:id="rId203" xr:uid="{24FF202B-A587-42B0-AE49-F9857B3462DD}"/>
+    <hyperlink ref="E110" r:id="rId204" xr:uid="{9AB4B75C-ED9C-4F23-BED0-64C49C35A3E2}"/>
+    <hyperlink ref="F110" r:id="rId205" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{F8B661F3-96D8-49A4-8579-7F3489533908}"/>
+    <hyperlink ref="F109" r:id="rId206" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{427EC185-FBEB-4B6C-A6B3-032ACEAEE1D1}"/>
+    <hyperlink ref="F108" r:id="rId207" xr:uid="{4A588F2E-2B21-41B9-B104-140521E2DBBA}"/>
+    <hyperlink ref="F107" r:id="rId208" xr:uid="{54360AF2-A9CE-4052-BC53-6B6E1E9C3791}"/>
+    <hyperlink ref="F106" r:id="rId209" xr:uid="{265F8B63-B119-4B33-BCF5-924779F12F13}"/>
+    <hyperlink ref="E22" r:id="rId210" xr:uid="{82E9383D-E231-4B23-9568-6115CE756F91}"/>
+    <hyperlink ref="E48" r:id="rId211" xr:uid="{DA62E039-3933-4ABA-9494-9E077E79A90A}"/>
     <hyperlink ref="E11" r:id="rId212" location="high-level-strategy" xr:uid="{BE629C0D-5232-4AB8-BDA5-9214137B74B5}"/>
     <hyperlink ref="F11" r:id="rId213" location="high-level-strategy" xr:uid="{86F48422-B2BF-448D-9506-033BF050C9C2}"/>
     <hyperlink ref="E8" r:id="rId214" xr:uid="{B45386E7-725E-4E43-B0B0-1B5B4746AFAA}"/>
@@ -7203,133 +7228,134 @@
     <hyperlink ref="E4" r:id="rId216" xr:uid="{9C103A79-9393-4909-9F3C-32133C732BE2}"/>
     <hyperlink ref="E3" r:id="rId217" xr:uid="{F12BBEE6-3B70-4130-B5C4-A18DB599B09D}"/>
     <hyperlink ref="E2" r:id="rId218" xr:uid="{C54A4052-5FFF-4249-A974-22CF6073179F}"/>
-    <hyperlink ref="F31" r:id="rId219" display="../../../../:w:/s/dadocumentrepository/EZEgrySuDI5ChmDd2oec7XoBnfmEyvUwV3n0OdOE2dKvVA" xr:uid="{A023D956-A386-434F-87BD-FA25FDD8889B}"/>
-    <hyperlink ref="F36" r:id="rId220" xr:uid="{D07B1093-AFBF-44F2-B333-846046DE774C}"/>
-    <hyperlink ref="F73" r:id="rId221" xr:uid="{C449116A-1DE7-41DE-9A54-078C825C4B9F}"/>
-    <hyperlink ref="E25" r:id="rId222" xr:uid="{D13E82E2-4EFF-4FD7-95EC-8933932CF73D}"/>
-    <hyperlink ref="F25" r:id="rId223" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{4E97E50B-8F1C-4C4A-B517-F317866C8FF8}"/>
-    <hyperlink ref="E111" r:id="rId224" location="d-a-platform-towers" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A-Data-Platform-Team.aspx - d-a-platform-towers" xr:uid="{82C02E8A-9293-4DF8-AEFD-D1639C1DD778}"/>
-    <hyperlink ref="E110" r:id="rId225" xr:uid="{2CDEA772-74D6-4D98-8C63-D785A4F6F75C}"/>
-    <hyperlink ref="E112" r:id="rId226" location="d-a-platform-lead" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A-Data-Platform-Team.aspx - d-a-platform-lead" xr:uid="{60C3EBAE-D81F-4E6E-A887-4A7F53397D23}"/>
-    <hyperlink ref="E113" r:id="rId227" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A Platform Onboarding Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9" xr:uid="{F8997EA5-6A34-4599-B1C7-926DD4F39BA2}"/>
-    <hyperlink ref="E114" r:id="rId228" location="key-fields" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A Platform Onboarding Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9 - key-fields" xr:uid="{438F1AAB-6A28-4FDB-8C74-54B62127F087}"/>
-    <hyperlink ref="E115" r:id="rId229" location="demand-intake-form" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A Platform Onboarding Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9 - demand-intake-form" xr:uid="{C8DF7653-EEDB-4A4D-B700-A20BA46B356E}"/>
-    <hyperlink ref="E116" r:id="rId230" xr:uid="{5F6DB574-2F43-46F8-83FC-27C7DC104820}"/>
-    <hyperlink ref="E117" r:id="rId231" location="visualization-platforms" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - visualization-platforms" xr:uid="{795DD2D7-561F-4CC1-8D65-909EC33C9665}"/>
-    <hyperlink ref="E118" r:id="rId232" display="https://collaboration.mdlz.com/:b:/r/sites/PowerBI/Shared Documents/Tips for Report Developers/Power BI Best Practices for developers.pdf?csf=1&amp;web=1&amp;e=9tnggy" xr:uid="{DDB854F1-8A7B-43CF-A1E1-1282CD235ABC}"/>
-    <hyperlink ref="E119" r:id="rId233" display="https://collaboration.mdlz.com/:b:/r/sites/Tableau/Shared Documents/Tips for Report Developers/Tableau Best Practices.pdf?csf=1&amp;web=1&amp;e=6kgBe6" xr:uid="{0371C225-3AE5-4274-AB12-E23844E4790E}"/>
-    <hyperlink ref="E120" r:id="rId234" display="https://collaboration.mdlz.com/:b:/r/sites/SAC/Shared Documents/AfO - Guide for new report creation (all SAP systems).pdf?csf=1&amp;web=1&amp;e=BVnj9d" xr:uid="{A5D59FB6-66EF-4CD9-8C61-47805457AE5C}"/>
-    <hyperlink ref="E121" r:id="rId235" location="google-cloud-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - google-cloud-platform" xr:uid="{006E1D7A-DFA9-4791-8934-88482D1413D1}"/>
-    <hyperlink ref="E122" r:id="rId236" display="https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/GCP Platform/ServiceAccountKey-Download.pdf?csf=1&amp;web=1&amp;e=emHooC" xr:uid="{831EA643-DF0E-4FE2-89B6-364B5BD478F9}"/>
-    <hyperlink ref="E123" r:id="rId237" xr:uid="{4152BBEC-8B67-4BFB-BD6E-4B3A551EF73C}"/>
-    <hyperlink ref="E124" r:id="rId238" location="/commonWorkItem/session" display="https://accesscenter.mdlz.com/workitem/commonWorkItem.jsf - /commonWorkItem/session" xr:uid="{D9CB915F-1FA2-45D3-AAE5-05D9E0728E26}"/>
-    <hyperlink ref="E125" r:id="rId239" xr:uid="{CE6293EA-12E2-4726-881D-8EE0952B146D}"/>
-    <hyperlink ref="E126" r:id="rId240" location="azure-cloud-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - azure-cloud-platform" xr:uid="{03EA318F-4F44-4564-BDB2-9B1BDB28E2CE}"/>
-    <hyperlink ref="E127" r:id="rId241" display="https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/Azure Platform/Databricks_Platform_Overview_0.2.pdf?csf=1&amp;web=1&amp;e=ztKvMt" xr:uid="{D66210B6-DE46-435B-9D50-0821EEF406A7}"/>
-    <hyperlink ref="E128" r:id="rId242" display="https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/Azure Platform/MDLZ-Azure-Design-Diagrams-V2 - Azure-HLD1.pdf?csf=1&amp;web=1&amp;e=JqdokL" xr:uid="{5F8FE5E4-3139-4DD4-912D-5554A2D3F484}"/>
-    <hyperlink ref="E129" r:id="rId243" location="data-integration-platforms" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - data-integration-platforms" xr:uid="{DBCD28CC-93A8-4C9B-B4E9-44A5D42822E4}"/>
-    <hyperlink ref="E130" r:id="rId244" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Guidlines for Alteryx usage- MDLZ.pdf?csf=1&amp;web=1&amp;e=owyGdK" xr:uid="{13C082D6-C3B9-4755-A934-E699194D8CDE}"/>
-    <hyperlink ref="E131" r:id="rId245" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx New Project Setup %26 Best Practices.pdf?csf=1&amp;web=1&amp;e=2NAIcG" xr:uid="{4F8EA5C5-572E-45D0-8906-E57D0525F255}"/>
-    <hyperlink ref="E132" r:id="rId246" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx Incident Creation in Service Now (SNOW).pdf?csf=1&amp;web=1&amp;e=TCJuLt" xr:uid="{532682CB-D8D4-4722-A56E-FAEE2E8385E9}"/>
-    <hyperlink ref="E133" r:id="rId247" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx Training/Alteryx Inhouse Training by Vendor.pdf?csf=1&amp;web=1&amp;e=JrCtym" xr:uid="{AD3A5E16-2403-4C83-8CF2-4DA62BA44B5C}"/>
-    <hyperlink ref="E134" r:id="rId248" xr:uid="{E7BAA7FD-6AA1-4FDF-8F9B-F90BE340B991}"/>
-    <hyperlink ref="E135" r:id="rId249" display="https://collaboration.mdlz.com/:f:/r/sites/AecorSoft/Shared Documents/Developer Guides?csf=1&amp;web=1&amp;e=ibnmci" xr:uid="{BE62D4E0-45AA-429E-B891-0BBC6F72DE74}"/>
-    <hyperlink ref="E136" r:id="rId250" display="https://collaboration.mdlz.com/:b:/r/sites/AecorSoft/Shared Documents/Aecrosoft_Incident_Creation_SNOW.pdf?csf=1&amp;web=1&amp;e=PhhiaJ" xr:uid="{EB53023E-5521-468F-AD4A-FB9B65365CEC}"/>
-    <hyperlink ref="E137" r:id="rId251" location="sap-bi-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - sap-bi-platform" xr:uid="{4555F72F-2E17-4E72-9737-FAA89420B6F1}"/>
-    <hyperlink ref="E138" r:id="rId252" xr:uid="{394E101A-FB32-4FFC-B52C-498202901E5C}"/>
-    <hyperlink ref="E139" r:id="rId253" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k" xr:uid="{C0E0FD79-11FF-4E48-8591-06EEA45901F8}"/>
-    <hyperlink ref="E140" r:id="rId254" location="expectation-from-product-teams" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k - expectation-from-product-teams" xr:uid="{8EBF64D3-4E70-467E-8E73-0561431C269B}"/>
-    <hyperlink ref="E141" r:id="rId255" location="what-is-mlops" xr:uid="{C8976EDF-B239-45E0-A758-4D8DF246940C}"/>
-    <hyperlink ref="E142" r:id="rId256" location="what-are-the-key-challenges-we-intend-to-solve-with-mlops" xr:uid="{46B921A2-5BA1-4F34-B34E-B7A057F57912}"/>
-    <hyperlink ref="E153:E172" r:id="rId257" display="https://insight.mdlz.com/p/" xr:uid="{5C7B1B90-78E4-45B9-AE89-7FED373B06B3}"/>
-    <hyperlink ref="E143:E154" r:id="rId258" display="https://insight.mdlz.com/p/d4gvdocs" xr:uid="{27E25457-87E2-41B2-909C-A2BC0CD41602}"/>
-    <hyperlink ref="E155:E179" r:id="rId259" display="https://insight.mdlz.com/p/" xr:uid="{27B40690-2D5B-403C-AEEA-749F8DB69EF9}"/>
-    <hyperlink ref="E190" r:id="rId260" xr:uid="{64455EDB-2139-43D4-8205-61EF55408519}"/>
-    <hyperlink ref="E143" r:id="rId261" location="mlops-components" xr:uid="{F52AFB75-C423-4D37-BBF4-46CF9B39C536}"/>
-    <hyperlink ref="E144" r:id="rId262" location="how-to-access-rep" xr:uid="{C85870FF-556B-4C73-A616-AAFAA63390FF}"/>
-    <hyperlink ref="E145" r:id="rId263" location="ml-life-cycle" xr:uid="{725B8B13-A1D9-47B5-85BD-FD20E7D80EB2}"/>
-    <hyperlink ref="E146" r:id="rId264" location="mvp-assessment" xr:uid="{CAE8FF48-B44B-43B8-BCC8-5DD35411BFA6}"/>
-    <hyperlink ref="E147" r:id="rId265" location="pre-industrialization-assessment" xr:uid="{92406200-6890-4180-AD34-08E6DC0424ED}"/>
-    <hyperlink ref="E148" r:id="rId266" location="pre-industrialization-assessment" xr:uid="{00507435-5CFC-4C4C-B326-2921CF0AC720}"/>
-    <hyperlink ref="E149" r:id="rId267" location="minor-enhancement-workflow" xr:uid="{DA9F75C0-911C-40B6-B3E9-D131EC615B50}"/>
-    <hyperlink ref="E150" r:id="rId268" xr:uid="{1B87E866-C103-49FD-B70D-1BB3F807402A}"/>
-    <hyperlink ref="E151" r:id="rId269" xr:uid="{75C0A138-F66B-4485-9428-B898043775BE}"/>
-    <hyperlink ref="E152" r:id="rId270" xr:uid="{D6EA4E02-2E89-4352-8BF9-204C2D289436}"/>
-    <hyperlink ref="E153" r:id="rId271" xr:uid="{AA954110-E720-400D-9945-83660136C5B8}"/>
-    <hyperlink ref="E154" r:id="rId272" xr:uid="{9B2E995B-8FDE-4D11-B29B-B698BA78E15F}"/>
-    <hyperlink ref="E155" r:id="rId273" xr:uid="{AF4824DF-1F2C-47E6-8EF1-4E4D7F0E7BB1}"/>
-    <hyperlink ref="E156" r:id="rId274" xr:uid="{7F08D811-70B2-436A-8AFB-CA8A4AD86AC7}"/>
-    <hyperlink ref="E157" r:id="rId275" location="introduction-to-data-validation--its-benefits" xr:uid="{62A20442-5717-409A-B105-DCF57E1B5314}"/>
-    <hyperlink ref="E158" r:id="rId276" xr:uid="{7C58051B-505A-4C87-B85B-4A434BCFF1B5}"/>
-    <hyperlink ref="E159" r:id="rId277" xr:uid="{FE5CE63F-7607-4116-BAB4-FCBDCFF402C7}"/>
-    <hyperlink ref="E160" r:id="rId278" location="introduction-to-feature-stores--its-benefits" xr:uid="{D15F0168-E6C5-4C5B-8EBE-05324283B7D4}"/>
-    <hyperlink ref="E161" r:id="rId279" xr:uid="{C6613939-BB2E-4ED5-9BE2-BB5DC3AE9294}"/>
-    <hyperlink ref="E162" r:id="rId280" location="introduction-to-data-drift-and-its-benefits" xr:uid="{CBA77768-CC2C-4457-92C7-4073A28292BF}"/>
-    <hyperlink ref="E163" r:id="rId281" location="tools-for-detecting-data-drift" xr:uid="{2C81750D-1352-4012-9CE5-07E47EC3DE3F}"/>
-    <hyperlink ref="E164" r:id="rId282" xr:uid="{2EC3D27E-025D-40D2-B7E7-AF3E64D547F8}"/>
-    <hyperlink ref="E165" r:id="rId283" xr:uid="{FCC8D865-E9FE-4985-AAB7-ECBF4D196ED9}"/>
-    <hyperlink ref="E166" r:id="rId284" xr:uid="{FD675F2F-F4C7-4CD8-82E8-583798C35ABD}"/>
-    <hyperlink ref="E167" r:id="rId285" xr:uid="{09D649B1-0EAC-427F-946B-1B92BF94B36D}"/>
-    <hyperlink ref="E168" r:id="rId286" xr:uid="{A6B96C2A-6408-435C-9D9C-EF227813D60C}"/>
-    <hyperlink ref="E169" r:id="rId287" xr:uid="{E98E07E4-B96F-4FC9-BCC2-DAA3469362AE}"/>
-    <hyperlink ref="E170" r:id="rId288" xr:uid="{1A2668A1-C674-4475-97EC-E8DD9243EEB4}"/>
-    <hyperlink ref="E171" r:id="rId289" xr:uid="{0015D9B9-45D8-45BA-AC45-0BB4AFD88C07}"/>
-    <hyperlink ref="E172" r:id="rId290" xr:uid="{7EE3727A-D81A-4FA5-AB2F-361FEEB32315}"/>
-    <hyperlink ref="E173" r:id="rId291" xr:uid="{172907A3-CE9E-41B2-B9DE-EDF605F02737}"/>
-    <hyperlink ref="E174" r:id="rId292" xr:uid="{0A3B9156-D66B-4EB3-9E54-C3305A93D96A}"/>
-    <hyperlink ref="E175" r:id="rId293" location="introduction-to-model-drift-and-its-benefits" xr:uid="{B11F5A27-9846-4CCE-BB35-623DD7461645}"/>
-    <hyperlink ref="E176" r:id="rId294" location="tools-for-detecting-model-drift" xr:uid="{2656C42B-CF2E-48F6-A991-D2700ED8C6E2}"/>
-    <hyperlink ref="E177" r:id="rId295" xr:uid="{A97DD643-83D5-4B21-9181-3C6147F53368}"/>
-    <hyperlink ref="E178" r:id="rId296" xr:uid="{C9605C89-18CC-4E09-8CB4-70A97E73AE41}"/>
-    <hyperlink ref="E179" r:id="rId297" xr:uid="{E0263BB3-4B13-4DFC-9DC6-C8E5BF01ED82}"/>
-    <hyperlink ref="E180:E189" r:id="rId298" display="https://insight.mdlz.com/p/" xr:uid="{65EFBE06-BFCB-4D33-9ED0-3AAFB1EF4140}"/>
-    <hyperlink ref="E174:E180" r:id="rId299" display="https://insight.mdlz.com/p/" xr:uid="{91B6F391-4447-4E46-83D1-A48B2271391F}"/>
-    <hyperlink ref="E180" r:id="rId300" xr:uid="{57ADF882-E9C2-4031-865D-13CBF9AA692E}"/>
-    <hyperlink ref="E181" r:id="rId301" xr:uid="{138E8275-ADE1-4AAD-A782-CDDF2D18E645}"/>
-    <hyperlink ref="E182" r:id="rId302" xr:uid="{7E9DF841-C05E-4C96-B62F-0BF1005CAEB3}"/>
-    <hyperlink ref="E183" r:id="rId303" location="frameworks-for-model-xai" xr:uid="{427C4DD7-A698-4C8E-B4CE-93596DD081F9}"/>
-    <hyperlink ref="E184" r:id="rId304" xr:uid="{6F3D1EA3-A8D3-486C-9CEE-55DE4A3BB7F5}"/>
-    <hyperlink ref="E185" r:id="rId305" xr:uid="{C99B0A4C-B705-4643-9C42-D6C8DCE81D6E}"/>
-    <hyperlink ref="E186" r:id="rId306" xr:uid="{A6ADAB43-85C5-4016-9FB9-28CC47A1AC71}"/>
-    <hyperlink ref="E187" r:id="rId307" xr:uid="{1AEC31E7-D921-43E3-B124-3799BACFF145}"/>
-    <hyperlink ref="E188" r:id="rId308" location="7-continuous-integration-ci" xr:uid="{9C65A458-C346-4E18-96EE-2B3DBDCFBA56}"/>
-    <hyperlink ref="E189" r:id="rId309" location="8-continuous-delivery" xr:uid="{932D40A7-D751-4E16-90F0-04E24FC3A0B2}"/>
-    <hyperlink ref="E191" r:id="rId310" xr:uid="{29F29713-B964-4741-8452-2DF1F5B0DE00}"/>
-    <hyperlink ref="E192" r:id="rId311" xr:uid="{3E680760-3849-4E9F-8E0C-C9488C7E3D70}"/>
-    <hyperlink ref="E193" r:id="rId312" xr:uid="{6BD1BF3C-199F-411C-867D-9765B6D62CEF}"/>
-    <hyperlink ref="E194" r:id="rId313" location="debt" xr:uid="{7DB13559-A9BF-4871-94B8-30FD20DAC041}"/>
-    <hyperlink ref="E195" r:id="rId314" xr:uid="{9B9EC260-8021-4EE6-9564-6DAC90B212A1}"/>
-    <hyperlink ref="E196" r:id="rId315" xr:uid="{7F24618A-017B-4C3C-9977-1162613F5368}"/>
-    <hyperlink ref="E197" r:id="rId316" xr:uid="{EEEB9C05-6CDB-40CC-8337-C6C88D338E11}"/>
-    <hyperlink ref="E198" r:id="rId317" xr:uid="{48CA2A86-E945-459C-B18D-8248FE0545D7}"/>
-    <hyperlink ref="E199" r:id="rId318" xr:uid="{96D681A6-66F0-47EC-AE25-0C2FFFCB23F1}"/>
-    <hyperlink ref="E201" r:id="rId319" xr:uid="{2688664A-C252-4849-AA40-FED3D669A7B2}"/>
-    <hyperlink ref="E200" r:id="rId320" xr:uid="{273A8154-28F2-47AD-9D4E-87EECB0C4BBD}"/>
-    <hyperlink ref="E202" r:id="rId321" xr:uid="{F3C1A791-8D5B-4A54-95A7-F562F06EB2C3}"/>
-    <hyperlink ref="E203" r:id="rId322" xr:uid="{E7E887A9-7FD5-48FB-B81A-36DB31B46619}"/>
-    <hyperlink ref="E204" r:id="rId323" location="workflow-performance-montoring" xr:uid="{594C4E25-2502-431B-B9DD-93C70766EF57}"/>
-    <hyperlink ref="E205" r:id="rId324" xr:uid="{E7902211-39BE-46EB-ACF8-DC755EFBBD66}"/>
-    <hyperlink ref="E206" r:id="rId325" xr:uid="{85F7A8A4-D2C0-446C-9731-05A4912036E2}"/>
-    <hyperlink ref="E207" r:id="rId326" xr:uid="{D60C86CA-DE10-42CE-B8BC-016EF3BEC45B}"/>
-    <hyperlink ref="E208" r:id="rId327" xr:uid="{B88A28D6-2776-4E6D-8E8F-0CAF4F45B6D9}"/>
-    <hyperlink ref="E209" r:id="rId328" xr:uid="{2B6CB2D2-7818-4692-BB5E-1D4D13590EC8}"/>
-    <hyperlink ref="E210" r:id="rId329" xr:uid="{AF6C72DF-4FBD-4CB0-9D30-4F887C820BC6}"/>
-    <hyperlink ref="E211" r:id="rId330" xr:uid="{B5DB5909-CAE3-41DE-8FAA-2BE9405FE89D}"/>
-    <hyperlink ref="E212" r:id="rId331" xr:uid="{EB971EED-5319-4B5A-866B-6272F1177031}"/>
-    <hyperlink ref="E213" r:id="rId332" xr:uid="{572B6EAD-FA78-4215-8917-A3C00D5ABFE0}"/>
-    <hyperlink ref="E214" r:id="rId333" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=C7C4X1&amp;CID=8d0e24a9%2D7bea%2D46a6%2D9501%2D656778853926&amp;FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model" xr:uid="{68BBCE6F-8DA7-464D-950F-BC16B0FF571C}"/>
-    <hyperlink ref="E220" r:id="rId334" xr:uid="{4CB97E97-7749-4435-94AD-D2868D458F68}"/>
-    <hyperlink ref="E222" r:id="rId335" xr:uid="{A474367E-A77D-4DEF-85B7-EEA70951388E}"/>
-    <hyperlink ref="E223" r:id="rId336" xr:uid="{68A144C1-9301-4982-9D52-3E933824C145}"/>
-    <hyperlink ref="E224" r:id="rId337" xr:uid="{A289F92F-FDC4-4101-860D-E87FC724D2BF}"/>
-    <hyperlink ref="E217" r:id="rId338" xr:uid="{7FE505FE-5854-4EEC-9F18-EC57B446CAB8}"/>
-    <hyperlink ref="E218" r:id="rId339" xr:uid="{FAF735B2-76DF-4822-819D-3825B225638C}"/>
-    <hyperlink ref="E219" r:id="rId340" xr:uid="{BFCB53CB-917E-4F45-9B9B-5CF694A05B23}"/>
-    <hyperlink ref="E221" r:id="rId341" xr:uid="{60C77EDA-E2FD-4625-89AC-626B3B109939}"/>
-    <hyperlink ref="E216" r:id="rId342" xr:uid="{9B7F4E7B-88C8-478A-BA8C-0835ECDAC49D}"/>
+    <hyperlink ref="F32" r:id="rId219" display="../../../../:w:/s/dadocumentrepository/EZEgrySuDI5ChmDd2oec7XoBnfmEyvUwV3n0OdOE2dKvVA" xr:uid="{A023D956-A386-434F-87BD-FA25FDD8889B}"/>
+    <hyperlink ref="F37" r:id="rId220" xr:uid="{D07B1093-AFBF-44F2-B333-846046DE774C}"/>
+    <hyperlink ref="F74" r:id="rId221" xr:uid="{C449116A-1DE7-41DE-9A54-078C825C4B9F}"/>
+    <hyperlink ref="E26" r:id="rId222" xr:uid="{D13E82E2-4EFF-4FD7-95EC-8933932CF73D}"/>
+    <hyperlink ref="F26" r:id="rId223" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{4E97E50B-8F1C-4C4A-B517-F317866C8FF8}"/>
+    <hyperlink ref="E112" r:id="rId224" location="d-a-platform-towers" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A-Data-Platform-Team.aspx - d-a-platform-towers" xr:uid="{82C02E8A-9293-4DF8-AEFD-D1639C1DD778}"/>
+    <hyperlink ref="E111" r:id="rId225" xr:uid="{2CDEA772-74D6-4D98-8C63-D785A4F6F75C}"/>
+    <hyperlink ref="E113" r:id="rId226" location="d-a-platform-lead" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A-Data-Platform-Team.aspx - d-a-platform-lead" xr:uid="{60C3EBAE-D81F-4E6E-A887-4A7F53397D23}"/>
+    <hyperlink ref="E114" r:id="rId227" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A Platform Onboarding Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9" xr:uid="{F8997EA5-6A34-4599-B1C7-926DD4F39BA2}"/>
+    <hyperlink ref="E115" r:id="rId228" location="key-fields" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A Platform Onboarding Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9 - key-fields" xr:uid="{438F1AAB-6A28-4FDB-8C74-54B62127F087}"/>
+    <hyperlink ref="E116" r:id="rId229" location="demand-intake-form" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/D&amp;A Platform Onboarding Form.aspx?csf=1&amp;web=1&amp;e=3aVpe9 - demand-intake-form" xr:uid="{C8DF7653-EEDB-4A4D-B700-A20BA46B356E}"/>
+    <hyperlink ref="E117" r:id="rId230" xr:uid="{5F6DB574-2F43-46F8-83FC-27C7DC104820}"/>
+    <hyperlink ref="E118" r:id="rId231" location="visualization-platforms" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - visualization-platforms" xr:uid="{795DD2D7-561F-4CC1-8D65-909EC33C9665}"/>
+    <hyperlink ref="E119" r:id="rId232" display="https://collaboration.mdlz.com/:b:/r/sites/PowerBI/Shared Documents/Tips for Report Developers/Power BI Best Practices for developers.pdf?csf=1&amp;web=1&amp;e=9tnggy" xr:uid="{DDB854F1-8A7B-43CF-A1E1-1282CD235ABC}"/>
+    <hyperlink ref="E120" r:id="rId233" display="https://collaboration.mdlz.com/:b:/r/sites/Tableau/Shared Documents/Tips for Report Developers/Tableau Best Practices.pdf?csf=1&amp;web=1&amp;e=6kgBe6" xr:uid="{0371C225-3AE5-4274-AB12-E23844E4790E}"/>
+    <hyperlink ref="E121" r:id="rId234" display="https://collaboration.mdlz.com/:b:/r/sites/SAC/Shared Documents/AfO - Guide for new report creation (all SAP systems).pdf?csf=1&amp;web=1&amp;e=BVnj9d" xr:uid="{A5D59FB6-66EF-4CD9-8C61-47805457AE5C}"/>
+    <hyperlink ref="E122" r:id="rId235" location="google-cloud-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - google-cloud-platform" xr:uid="{006E1D7A-DFA9-4791-8934-88482D1413D1}"/>
+    <hyperlink ref="E123" r:id="rId236" display="https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/GCP Platform/ServiceAccountKey-Download.pdf?csf=1&amp;web=1&amp;e=emHooC" xr:uid="{831EA643-DF0E-4FE2-89B6-364B5BD478F9}"/>
+    <hyperlink ref="E124" r:id="rId237" xr:uid="{4152BBEC-8B67-4BFB-BD6E-4B3A551EF73C}"/>
+    <hyperlink ref="E125" r:id="rId238" location="/commonWorkItem/session" display="https://accesscenter.mdlz.com/workitem/commonWorkItem.jsf - /commonWorkItem/session" xr:uid="{D9CB915F-1FA2-45D3-AAE5-05D9E0728E26}"/>
+    <hyperlink ref="E126" r:id="rId239" xr:uid="{CE6293EA-12E2-4726-881D-8EE0952B146D}"/>
+    <hyperlink ref="E127" r:id="rId240" location="azure-cloud-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - azure-cloud-platform" xr:uid="{03EA318F-4F44-4564-BDB2-9B1BDB28E2CE}"/>
+    <hyperlink ref="E128" r:id="rId241" display="https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/Azure Platform/Databricks_Platform_Overview_0.2.pdf?csf=1&amp;web=1&amp;e=ztKvMt" xr:uid="{D66210B6-DE46-435B-9D50-0821EEF406A7}"/>
+    <hyperlink ref="E129" r:id="rId242" display="https://collaboration.mdlz.com/:b:/r/sites/MDSDataAnalyticsPlatforms/Resources/Azure Platform/MDLZ-Azure-Design-Diagrams-V2 - Azure-HLD1.pdf?csf=1&amp;web=1&amp;e=JqdokL" xr:uid="{5F8FE5E4-3139-4DD4-912D-5554A2D3F484}"/>
+    <hyperlink ref="E130" r:id="rId243" location="data-integration-platforms" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - data-integration-platforms" xr:uid="{DBCD28CC-93A8-4C9B-B4E9-44A5D42822E4}"/>
+    <hyperlink ref="E131" r:id="rId244" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Guidlines for Alteryx usage- MDLZ.pdf?csf=1&amp;web=1&amp;e=owyGdK" xr:uid="{13C082D6-C3B9-4755-A934-E699194D8CDE}"/>
+    <hyperlink ref="E132" r:id="rId245" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx New Project Setup %26 Best Practices.pdf?csf=1&amp;web=1&amp;e=2NAIcG" xr:uid="{4F8EA5C5-572E-45D0-8906-E57D0525F255}"/>
+    <hyperlink ref="E133" r:id="rId246" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx Incident Creation in Service Now (SNOW).pdf?csf=1&amp;web=1&amp;e=TCJuLt" xr:uid="{532682CB-D8D4-4722-A56E-FAEE2E8385E9}"/>
+    <hyperlink ref="E134" r:id="rId247" display="https://collaboration.mdlz.com/:b:/r/sites/alteryx/Shared Documents/Alteryx Training/Alteryx Inhouse Training by Vendor.pdf?csf=1&amp;web=1&amp;e=JrCtym" xr:uid="{AD3A5E16-2403-4C83-8CF2-4DA62BA44B5C}"/>
+    <hyperlink ref="E135" r:id="rId248" xr:uid="{E7BAA7FD-6AA1-4FDF-8F9B-F90BE340B991}"/>
+    <hyperlink ref="E136" r:id="rId249" display="https://collaboration.mdlz.com/:f:/r/sites/AecorSoft/Shared Documents/Developer Guides?csf=1&amp;web=1&amp;e=ibnmci" xr:uid="{BE62D4E0-45AA-429E-B891-0BBC6F72DE74}"/>
+    <hyperlink ref="E137" r:id="rId250" display="https://collaboration.mdlz.com/:b:/r/sites/AecorSoft/Shared Documents/Aecrosoft_Incident_Creation_SNOW.pdf?csf=1&amp;web=1&amp;e=PhhiaJ" xr:uid="{EB53023E-5521-468F-AD4A-FB9B65365CEC}"/>
+    <hyperlink ref="E138" r:id="rId251" location="sap-bi-platform" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Service-catalogue.aspx - sap-bi-platform" xr:uid="{4555F72F-2E17-4E72-9737-FAA89420B6F1}"/>
+    <hyperlink ref="E139" r:id="rId252" xr:uid="{394E101A-FB32-4FFC-B52C-498202901E5C}"/>
+    <hyperlink ref="E140" r:id="rId253" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k" xr:uid="{C0E0FD79-11FF-4E48-8591-06EEA45901F8}"/>
+    <hyperlink ref="E141" r:id="rId254" location="expectation-from-product-teams" display="https://collaboration.mdlz.com/sites/MDSDataAnalyticsPlatforms/SitePages/Pre Prod Readiness.aspx?csf=1&amp;web=1&amp;e=kbE51k - expectation-from-product-teams" xr:uid="{8EBF64D3-4E70-467E-8E73-0561431C269B}"/>
+    <hyperlink ref="E142" r:id="rId255" location="what-is-mlops" xr:uid="{C8976EDF-B239-45E0-A758-4D8DF246940C}"/>
+    <hyperlink ref="E143" r:id="rId256" location="what-are-the-key-challenges-we-intend-to-solve-with-mlops" xr:uid="{46B921A2-5BA1-4F34-B34E-B7A057F57912}"/>
+    <hyperlink ref="E154:E173" r:id="rId257" display="https://insight.mdlz.com/p/" xr:uid="{5C7B1B90-78E4-45B9-AE89-7FED373B06B3}"/>
+    <hyperlink ref="E144:E155" r:id="rId258" display="https://insight.mdlz.com/p/d4gvdocs" xr:uid="{27E25457-87E2-41B2-909C-A2BC0CD41602}"/>
+    <hyperlink ref="E156:E180" r:id="rId259" display="https://insight.mdlz.com/p/" xr:uid="{27B40690-2D5B-403C-AEEA-749F8DB69EF9}"/>
+    <hyperlink ref="E191" r:id="rId260" xr:uid="{64455EDB-2139-43D4-8205-61EF55408519}"/>
+    <hyperlink ref="E144" r:id="rId261" location="mlops-components" xr:uid="{F52AFB75-C423-4D37-BBF4-46CF9B39C536}"/>
+    <hyperlink ref="E145" r:id="rId262" location="how-to-access-rep" xr:uid="{C85870FF-556B-4C73-A616-AAFAA63390FF}"/>
+    <hyperlink ref="E146" r:id="rId263" location="ml-life-cycle" xr:uid="{725B8B13-A1D9-47B5-85BD-FD20E7D80EB2}"/>
+    <hyperlink ref="E147" r:id="rId264" location="mvp-assessment" xr:uid="{CAE8FF48-B44B-43B8-BCC8-5DD35411BFA6}"/>
+    <hyperlink ref="E148" r:id="rId265" location="pre-industrialization-assessment" xr:uid="{92406200-6890-4180-AD34-08E6DC0424ED}"/>
+    <hyperlink ref="E149" r:id="rId266" location="pre-industrialization-assessment" xr:uid="{00507435-5CFC-4C4C-B326-2921CF0AC720}"/>
+    <hyperlink ref="E150" r:id="rId267" location="minor-enhancement-workflow" xr:uid="{DA9F75C0-911C-40B6-B3E9-D131EC615B50}"/>
+    <hyperlink ref="E151" r:id="rId268" xr:uid="{1B87E866-C103-49FD-B70D-1BB3F807402A}"/>
+    <hyperlink ref="E152" r:id="rId269" xr:uid="{75C0A138-F66B-4485-9428-B898043775BE}"/>
+    <hyperlink ref="E153" r:id="rId270" xr:uid="{D6EA4E02-2E89-4352-8BF9-204C2D289436}"/>
+    <hyperlink ref="E154" r:id="rId271" xr:uid="{AA954110-E720-400D-9945-83660136C5B8}"/>
+    <hyperlink ref="E155" r:id="rId272" xr:uid="{9B2E995B-8FDE-4D11-B29B-B698BA78E15F}"/>
+    <hyperlink ref="E156" r:id="rId273" xr:uid="{AF4824DF-1F2C-47E6-8EF1-4E4D7F0E7BB1}"/>
+    <hyperlink ref="E157" r:id="rId274" xr:uid="{7F08D811-70B2-436A-8AFB-CA8A4AD86AC7}"/>
+    <hyperlink ref="E158" r:id="rId275" location="introduction-to-data-validation--its-benefits" xr:uid="{62A20442-5717-409A-B105-DCF57E1B5314}"/>
+    <hyperlink ref="E159" r:id="rId276" xr:uid="{7C58051B-505A-4C87-B85B-4A434BCFF1B5}"/>
+    <hyperlink ref="E160" r:id="rId277" xr:uid="{FE5CE63F-7607-4116-BAB4-FCBDCFF402C7}"/>
+    <hyperlink ref="E161" r:id="rId278" location="introduction-to-feature-stores--its-benefits" xr:uid="{D15F0168-E6C5-4C5B-8EBE-05324283B7D4}"/>
+    <hyperlink ref="E162" r:id="rId279" xr:uid="{C6613939-BB2E-4ED5-9BE2-BB5DC3AE9294}"/>
+    <hyperlink ref="E163" r:id="rId280" location="introduction-to-data-drift-and-its-benefits" xr:uid="{CBA77768-CC2C-4457-92C7-4073A28292BF}"/>
+    <hyperlink ref="E164" r:id="rId281" location="tools-for-detecting-data-drift" xr:uid="{2C81750D-1352-4012-9CE5-07E47EC3DE3F}"/>
+    <hyperlink ref="E165" r:id="rId282" xr:uid="{2EC3D27E-025D-40D2-B7E7-AF3E64D547F8}"/>
+    <hyperlink ref="E166" r:id="rId283" xr:uid="{FCC8D865-E9FE-4985-AAB7-ECBF4D196ED9}"/>
+    <hyperlink ref="E167" r:id="rId284" xr:uid="{FD675F2F-F4C7-4CD8-82E8-583798C35ABD}"/>
+    <hyperlink ref="E168" r:id="rId285" xr:uid="{09D649B1-0EAC-427F-946B-1B92BF94B36D}"/>
+    <hyperlink ref="E169" r:id="rId286" xr:uid="{A6B96C2A-6408-435C-9D9C-EF227813D60C}"/>
+    <hyperlink ref="E170" r:id="rId287" xr:uid="{E98E07E4-B96F-4FC9-BCC2-DAA3469362AE}"/>
+    <hyperlink ref="E171" r:id="rId288" xr:uid="{1A2668A1-C674-4475-97EC-E8DD9243EEB4}"/>
+    <hyperlink ref="E172" r:id="rId289" xr:uid="{0015D9B9-45D8-45BA-AC45-0BB4AFD88C07}"/>
+    <hyperlink ref="E173" r:id="rId290" xr:uid="{7EE3727A-D81A-4FA5-AB2F-361FEEB32315}"/>
+    <hyperlink ref="E174" r:id="rId291" xr:uid="{172907A3-CE9E-41B2-B9DE-EDF605F02737}"/>
+    <hyperlink ref="E175" r:id="rId292" xr:uid="{0A3B9156-D66B-4EB3-9E54-C3305A93D96A}"/>
+    <hyperlink ref="E176" r:id="rId293" location="introduction-to-model-drift-and-its-benefits" xr:uid="{B11F5A27-9846-4CCE-BB35-623DD7461645}"/>
+    <hyperlink ref="E177" r:id="rId294" location="tools-for-detecting-model-drift" xr:uid="{2656C42B-CF2E-48F6-A991-D2700ED8C6E2}"/>
+    <hyperlink ref="E178" r:id="rId295" xr:uid="{A97DD643-83D5-4B21-9181-3C6147F53368}"/>
+    <hyperlink ref="E179" r:id="rId296" xr:uid="{C9605C89-18CC-4E09-8CB4-70A97E73AE41}"/>
+    <hyperlink ref="E180" r:id="rId297" xr:uid="{E0263BB3-4B13-4DFC-9DC6-C8E5BF01ED82}"/>
+    <hyperlink ref="E181:E190" r:id="rId298" display="https://insight.mdlz.com/p/" xr:uid="{65EFBE06-BFCB-4D33-9ED0-3AAFB1EF4140}"/>
+    <hyperlink ref="E175:E181" r:id="rId299" display="https://insight.mdlz.com/p/" xr:uid="{91B6F391-4447-4E46-83D1-A48B2271391F}"/>
+    <hyperlink ref="E181" r:id="rId300" xr:uid="{57ADF882-E9C2-4031-865D-13CBF9AA692E}"/>
+    <hyperlink ref="E182" r:id="rId301" xr:uid="{138E8275-ADE1-4AAD-A782-CDDF2D18E645}"/>
+    <hyperlink ref="E183" r:id="rId302" xr:uid="{7E9DF841-C05E-4C96-B62F-0BF1005CAEB3}"/>
+    <hyperlink ref="E184" r:id="rId303" location="frameworks-for-model-xai" xr:uid="{427C4DD7-A698-4C8E-B4CE-93596DD081F9}"/>
+    <hyperlink ref="E185" r:id="rId304" xr:uid="{6F3D1EA3-A8D3-486C-9CEE-55DE4A3BB7F5}"/>
+    <hyperlink ref="E186" r:id="rId305" xr:uid="{C99B0A4C-B705-4643-9C42-D6C8DCE81D6E}"/>
+    <hyperlink ref="E187" r:id="rId306" xr:uid="{A6ADAB43-85C5-4016-9FB9-28CC47A1AC71}"/>
+    <hyperlink ref="E188" r:id="rId307" xr:uid="{1AEC31E7-D921-43E3-B124-3799BACFF145}"/>
+    <hyperlink ref="E189" r:id="rId308" location="7-continuous-integration-ci" xr:uid="{9C65A458-C346-4E18-96EE-2B3DBDCFBA56}"/>
+    <hyperlink ref="E190" r:id="rId309" location="8-continuous-delivery" xr:uid="{932D40A7-D751-4E16-90F0-04E24FC3A0B2}"/>
+    <hyperlink ref="E192" r:id="rId310" xr:uid="{29F29713-B964-4741-8452-2DF1F5B0DE00}"/>
+    <hyperlink ref="E193" r:id="rId311" xr:uid="{3E680760-3849-4E9F-8E0C-C9488C7E3D70}"/>
+    <hyperlink ref="E194" r:id="rId312" xr:uid="{6BD1BF3C-199F-411C-867D-9765B6D62CEF}"/>
+    <hyperlink ref="E195" r:id="rId313" location="debt" xr:uid="{7DB13559-A9BF-4871-94B8-30FD20DAC041}"/>
+    <hyperlink ref="E196" r:id="rId314" xr:uid="{9B9EC260-8021-4EE6-9564-6DAC90B212A1}"/>
+    <hyperlink ref="E197" r:id="rId315" xr:uid="{7F24618A-017B-4C3C-9977-1162613F5368}"/>
+    <hyperlink ref="E198" r:id="rId316" xr:uid="{EEEB9C05-6CDB-40CC-8337-C6C88D338E11}"/>
+    <hyperlink ref="E199" r:id="rId317" xr:uid="{48CA2A86-E945-459C-B18D-8248FE0545D7}"/>
+    <hyperlink ref="E200" r:id="rId318" xr:uid="{96D681A6-66F0-47EC-AE25-0C2FFFCB23F1}"/>
+    <hyperlink ref="E202" r:id="rId319" xr:uid="{2688664A-C252-4849-AA40-FED3D669A7B2}"/>
+    <hyperlink ref="E201" r:id="rId320" xr:uid="{273A8154-28F2-47AD-9D4E-87EECB0C4BBD}"/>
+    <hyperlink ref="E203" r:id="rId321" xr:uid="{F3C1A791-8D5B-4A54-95A7-F562F06EB2C3}"/>
+    <hyperlink ref="E204" r:id="rId322" xr:uid="{E7E887A9-7FD5-48FB-B81A-36DB31B46619}"/>
+    <hyperlink ref="E205" r:id="rId323" location="workflow-performance-montoring" xr:uid="{594C4E25-2502-431B-B9DD-93C70766EF57}"/>
+    <hyperlink ref="E206" r:id="rId324" xr:uid="{E7902211-39BE-46EB-ACF8-DC755EFBBD66}"/>
+    <hyperlink ref="E207" r:id="rId325" xr:uid="{85F7A8A4-D2C0-446C-9731-05A4912036E2}"/>
+    <hyperlink ref="E208" r:id="rId326" xr:uid="{D60C86CA-DE10-42CE-B8BC-016EF3BEC45B}"/>
+    <hyperlink ref="E209" r:id="rId327" xr:uid="{B88A28D6-2776-4E6D-8E8F-0CAF4F45B6D9}"/>
+    <hyperlink ref="E210" r:id="rId328" xr:uid="{2B6CB2D2-7818-4692-BB5E-1D4D13590EC8}"/>
+    <hyperlink ref="E211" r:id="rId329" xr:uid="{AF6C72DF-4FBD-4CB0-9D30-4F887C820BC6}"/>
+    <hyperlink ref="E212" r:id="rId330" xr:uid="{B5DB5909-CAE3-41DE-8FAA-2BE9405FE89D}"/>
+    <hyperlink ref="E213" r:id="rId331" xr:uid="{EB971EED-5319-4B5A-866B-6272F1177031}"/>
+    <hyperlink ref="E214" r:id="rId332" xr:uid="{572B6EAD-FA78-4215-8917-A3C00D5ABFE0}"/>
+    <hyperlink ref="E215" r:id="rId333" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=C7C4X1&amp;CID=8d0e24a9%2D7bea%2D46a6%2D9501%2D656778853926&amp;FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model" xr:uid="{68BBCE6F-8DA7-464D-950F-BC16B0FF571C}"/>
+    <hyperlink ref="E221" r:id="rId334" xr:uid="{4CB97E97-7749-4435-94AD-D2868D458F68}"/>
+    <hyperlink ref="E223" r:id="rId335" xr:uid="{A474367E-A77D-4DEF-85B7-EEA70951388E}"/>
+    <hyperlink ref="E224" r:id="rId336" xr:uid="{68A144C1-9301-4982-9D52-3E933824C145}"/>
+    <hyperlink ref="E225" r:id="rId337" xr:uid="{A289F92F-FDC4-4101-860D-E87FC724D2BF}"/>
+    <hyperlink ref="E218" r:id="rId338" xr:uid="{7FE505FE-5854-4EEC-9F18-EC57B446CAB8}"/>
+    <hyperlink ref="E219" r:id="rId339" xr:uid="{FAF735B2-76DF-4822-819D-3825B225638C}"/>
+    <hyperlink ref="E220" r:id="rId340" xr:uid="{BFCB53CB-917E-4F45-9B9B-5CF694A05B23}"/>
+    <hyperlink ref="E222" r:id="rId341" xr:uid="{60C77EDA-E2FD-4625-89AC-626B3B109939}"/>
+    <hyperlink ref="E217" r:id="rId342" xr:uid="{9B7F4E7B-88C8-478A-BA8C-0835ECDAC49D}"/>
+    <hyperlink ref="E12" r:id="rId343" xr:uid="{F7DD0153-A4FC-4846-956F-5B7F20BAAE78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId343"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId344"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Mondelez International Internal</oddFooter>
   </headerFooter>

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB715D12-F6FD-4B5E-93BF-AFA478D942FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BA5CFF-5539-4D54-B1A1-C821F147A51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -1901,13 +1901,13 @@
     <t>qTest</t>
   </si>
   <si>
-    <t>https://collaboration.mdlz.com/sites/daas/Shared Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdaas%2FShared Documents%2FData COE WoW%2FData COE End-to-End Process Document%2Epdf&amp;parent=%2Fsites%2Fdaas%2FShared Documents%2FData COE WoW&amp;p=true&amp;ga=1</t>
-  </si>
-  <si>
     <t>Data COE E2E Process Document</t>
   </si>
   <si>
     <t>What is the end to end process including Dataset Creation, Source System Configuration, GCP Infra Creation, Service Account Creation for D&amp;A projects in D4GV?</t>
+  </si>
+  <si>
+    <t>https://collaboration.mdlz.com/:b:/s/daas/EQTqVoDDP_dPglmgWVvr-hgB44MfQp1NPO0drChJjJxS6A?e=462hhm</t>
   </si>
 </sst>
 </file>
@@ -2378,9 +2378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2662,13 +2662,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>621</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>619</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>620</v>
       </c>
       <c r="G12" s="2"/>
       <c r="K12" s="20"/>
@@ -7352,10 +7352,9 @@
     <hyperlink ref="E220" r:id="rId340" xr:uid="{BFCB53CB-917E-4F45-9B9B-5CF694A05B23}"/>
     <hyperlink ref="E222" r:id="rId341" xr:uid="{60C77EDA-E2FD-4625-89AC-626B3B109939}"/>
     <hyperlink ref="E217" r:id="rId342" xr:uid="{9B7F4E7B-88C8-478A-BA8C-0835ECDAC49D}"/>
-    <hyperlink ref="E12" r:id="rId343" xr:uid="{F7DD0153-A4FC-4846-956F-5B7F20BAAE78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId344"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId343"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Mondelez International Internal</oddFooter>
   </headerFooter>

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BA5CFF-5539-4D54-B1A1-C821F147A51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65859CD6-BC85-457A-B72B-711CF53E58FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -1907,7 +1907,7 @@
     <t>What is the end to end process including Dataset Creation, Source System Configuration, GCP Infra Creation, Service Account Creation for D&amp;A projects in D4GV?</t>
   </si>
   <si>
-    <t>https://collaboration.mdlz.com/:b:/s/daas/EQTqVoDDP_dPglmgWVvr-hgB44MfQp1NPO0drChJjJxS6A?e=462hhm</t>
+    <t>https://collaboration.mdlz.com/:b:/s/daas/EQTqVoDDP_dPglmgWVvr-hgB44MfQp1NPO0drChJjJxS6A?e=N0ZvuL</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2380,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65859CD6-BC85-457A-B72B-711CF53E58FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AC0144-D16C-4739-A11E-431B113F110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -1907,7 +1907,7 @@
     <t>What is the end to end process including Dataset Creation, Source System Configuration, GCP Infra Creation, Service Account Creation for D&amp;A projects in D4GV?</t>
   </si>
   <si>
-    <t>https://collaboration.mdlz.com/:b:/s/daas/EQTqVoDDP_dPglmgWVvr-hgB44MfQp1NPO0drChJjJxS6A?e=N0ZvuL</t>
+    <t>https://collaboration.mdlz.com/sites/daas/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdaas%2FShared%20Documents%2FData%20COE%20WoW%2FData%20COE%20End%2Dto%2DEnd%20Process%20Document%2Epdf&amp;parent=%2Fsites%2Fdaas%2FShared%20Documents%2FData%20COE%20WoW&amp;p=true&amp;ga=1</t>
   </si>
 </sst>
 </file>
@@ -2379,8 +2379,8 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AC0144-D16C-4739-A11E-431B113F110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8499C1-BD2B-424A-952D-B006BE8CB358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FAQ!$A$1:$A$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$226</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="16"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="630">
   <si>
     <t>Category</t>
   </si>
@@ -1908,6 +1908,30 @@
   </si>
   <si>
     <t>https://collaboration.mdlz.com/sites/daas/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdaas%2FShared%20Documents%2FData%20COE%20WoW%2FData%20COE%20End%2Dto%2DEnd%20Process%20Document%2Epdf&amp;parent=%2Fsites%2Fdaas%2FShared%20Documents%2FData%20COE%20WoW&amp;p=true&amp;ga=1</t>
+  </si>
+  <si>
+    <t>Where can I find the document that will provide new suppliers, contractors, and internal new Mondelez employees with information about the setup of the Data and Analytics organization, the multiple teams involved in transforming data into information, as well as the policies, procedures, and standards established within the Mondelez Data and Analytics organization?</t>
+  </si>
+  <si>
+    <t>D&amp;A Onboarding Package</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/:w:/r/sites/dataandanalyticsgrowprogram/Shared%20Documents/Onboarding/D%26A%20Onboarding%20Package.docx?d=wffb7ff4307d44e199e81c2ce25dfc252&amp;csf=1&amp;web=1&amp;e=U81Fw5</t>
+  </si>
+  <si>
+    <t>D4GV</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Where can I find the check list for CAB review?</t>
+  </si>
+  <si>
+    <t>D4GV CAB Check List.xlsx</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/:x:/r/sites/ibsdataandanalytics/Shared%20Documents/D%26A%20Calendar/D4GV%20CAB%20Check%20List.xlsx?d=wa29ba62f00ba4fb1921700f2de347e92&amp;csf=1&amp;web=1&amp;e=zXLJvY</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2061,6 +2085,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2376,11 +2403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6767,27 +6794,27 @@
         <v>606</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" s="22" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A214" s="25" t="s">
         <v>567</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>574</v>
+        <v>15</v>
       </c>
       <c r="C214" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="E214" s="24" t="s">
-        <v>262</v>
+        <v>624</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="25" t="s">
         <v>567</v>
       </c>
@@ -6795,19 +6822,19 @@
         <v>574</v>
       </c>
       <c r="C215" s="25" t="s">
-        <v>576</v>
+        <v>22</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E215" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="F215" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+      <c r="F215" s="18" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A216" s="25" t="s">
         <v>567</v>
       </c>
@@ -6818,16 +6845,16 @@
         <v>576</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="E216" s="24" t="s">
-        <v>598</v>
-      </c>
-      <c r="F216" s="26" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>578</v>
+      </c>
+      <c r="F216" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="25" t="s">
         <v>567</v>
       </c>
@@ -6838,16 +6865,16 @@
         <v>576</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E217" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="F217" s="18" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="25" t="s">
         <v>567</v>
       </c>
@@ -6857,17 +6884,17 @@
       <c r="C218" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="D218" s="25" t="s">
-        <v>579</v>
+      <c r="D218" s="23" t="s">
+        <v>600</v>
       </c>
       <c r="E218" s="24" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A219" s="25" t="s">
         <v>567</v>
       </c>
@@ -6878,13 +6905,13 @@
         <v>576</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E219" s="24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6898,13 +6925,13 @@
         <v>576</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E220" s="24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6915,19 +6942,19 @@
         <v>574</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="D221" s="23" t="s">
-        <v>586</v>
+        <v>576</v>
+      </c>
+      <c r="D221" s="25" t="s">
+        <v>583</v>
       </c>
       <c r="E221" s="24" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="25" t="s">
         <v>567</v>
       </c>
@@ -6938,16 +6965,16 @@
         <v>585</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E222" s="24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A223" s="25" t="s">
         <v>567</v>
       </c>
@@ -6955,16 +6982,16 @@
         <v>574</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E223" s="24" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6978,13 +7005,13 @@
         <v>590</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E224" s="24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6997,18 +7024,58 @@
       <c r="C225" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="D225" s="25" t="s">
+      <c r="D225" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="E225" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="F225" s="18" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A226" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B226" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C226" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="D226" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="E225" s="24" t="s">
+      <c r="E226" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="F225" s="18" t="s">
+      <c r="F226" s="18" t="s">
         <v>618</v>
       </c>
     </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="B227" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="C227" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="D227" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="E227" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="F227" s="20" t="s">
+        <v>628</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G225" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}"/>
+  <autoFilter ref="A1:G226" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}"/>
   <hyperlinks>
     <hyperlink ref="L11" r:id="rId1" display="https://teams.mdlz.com/:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{C9234C41-0B35-449D-A059-14FCD43DD586}"/>
     <hyperlink ref="L13" r:id="rId2" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{B1E49C27-813B-4F81-B6D4-F88CC7C95F9A}"/>
@@ -7341,17 +7408,17 @@
     <hyperlink ref="E211" r:id="rId329" xr:uid="{AF6C72DF-4FBD-4CB0-9D30-4F887C820BC6}"/>
     <hyperlink ref="E212" r:id="rId330" xr:uid="{B5DB5909-CAE3-41DE-8FAA-2BE9405FE89D}"/>
     <hyperlink ref="E213" r:id="rId331" xr:uid="{EB971EED-5319-4B5A-866B-6272F1177031}"/>
-    <hyperlink ref="E214" r:id="rId332" xr:uid="{572B6EAD-FA78-4215-8917-A3C00D5ABFE0}"/>
-    <hyperlink ref="E215" r:id="rId333" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=C7C4X1&amp;CID=8d0e24a9%2D7bea%2D46a6%2D9501%2D656778853926&amp;FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model" xr:uid="{68BBCE6F-8DA7-464D-950F-BC16B0FF571C}"/>
-    <hyperlink ref="E221" r:id="rId334" xr:uid="{4CB97E97-7749-4435-94AD-D2868D458F68}"/>
-    <hyperlink ref="E223" r:id="rId335" xr:uid="{A474367E-A77D-4DEF-85B7-EEA70951388E}"/>
-    <hyperlink ref="E224" r:id="rId336" xr:uid="{68A144C1-9301-4982-9D52-3E933824C145}"/>
-    <hyperlink ref="E225" r:id="rId337" xr:uid="{A289F92F-FDC4-4101-860D-E87FC724D2BF}"/>
-    <hyperlink ref="E218" r:id="rId338" xr:uid="{7FE505FE-5854-4EEC-9F18-EC57B446CAB8}"/>
-    <hyperlink ref="E219" r:id="rId339" xr:uid="{FAF735B2-76DF-4822-819D-3825B225638C}"/>
-    <hyperlink ref="E220" r:id="rId340" xr:uid="{BFCB53CB-917E-4F45-9B9B-5CF694A05B23}"/>
-    <hyperlink ref="E222" r:id="rId341" xr:uid="{60C77EDA-E2FD-4625-89AC-626B3B109939}"/>
-    <hyperlink ref="E217" r:id="rId342" xr:uid="{9B7F4E7B-88C8-478A-BA8C-0835ECDAC49D}"/>
+    <hyperlink ref="E215" r:id="rId332" xr:uid="{572B6EAD-FA78-4215-8917-A3C00D5ABFE0}"/>
+    <hyperlink ref="E216" r:id="rId333" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=C7C4X1&amp;CID=8d0e24a9%2D7bea%2D46a6%2D9501%2D656778853926&amp;FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model" xr:uid="{68BBCE6F-8DA7-464D-950F-BC16B0FF571C}"/>
+    <hyperlink ref="E222" r:id="rId334" xr:uid="{4CB97E97-7749-4435-94AD-D2868D458F68}"/>
+    <hyperlink ref="E224" r:id="rId335" xr:uid="{A474367E-A77D-4DEF-85B7-EEA70951388E}"/>
+    <hyperlink ref="E225" r:id="rId336" xr:uid="{68A144C1-9301-4982-9D52-3E933824C145}"/>
+    <hyperlink ref="E226" r:id="rId337" xr:uid="{A289F92F-FDC4-4101-860D-E87FC724D2BF}"/>
+    <hyperlink ref="E219" r:id="rId338" xr:uid="{7FE505FE-5854-4EEC-9F18-EC57B446CAB8}"/>
+    <hyperlink ref="E220" r:id="rId339" xr:uid="{FAF735B2-76DF-4822-819D-3825B225638C}"/>
+    <hyperlink ref="E221" r:id="rId340" xr:uid="{BFCB53CB-917E-4F45-9B9B-5CF694A05B23}"/>
+    <hyperlink ref="E223" r:id="rId341" xr:uid="{60C77EDA-E2FD-4625-89AC-626B3B109939}"/>
+    <hyperlink ref="E218" r:id="rId342" xr:uid="{9B7F4E7B-88C8-478A-BA8C-0835ECDAC49D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId343"/>

--- a/data/chatbot-1.xlsx
+++ b/data/chatbot-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJK3794\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8499C1-BD2B-424A-952D-B006BE8CB358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5E41CA-88D6-4B66-ABAB-F950C20B84D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FAQ!$A$1:$A$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$227</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="16"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="629">
   <si>
     <t>Category</t>
   </si>
@@ -1917,9 +1917,6 @@
   </si>
   <si>
     <t>https://teams.mdlz.com/:w:/r/sites/dataandanalyticsgrowprogram/Shared%20Documents/Onboarding/D%26A%20Onboarding%20Package.docx?d=wffb7ff4307d44e199e81c2ce25dfc252&amp;csf=1&amp;web=1&amp;e=U81Fw5</t>
-  </si>
-  <si>
-    <t>D4GV</t>
   </si>
   <si>
     <t>Project Management</t>
@@ -2406,8 +2403,8 @@
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E229" sqref="E229"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7054,28 +7051,28 @@
         <v>618</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A227" s="26" t="s">
-        <v>625</v>
+    <row r="227" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A227" s="25" t="s">
+        <v>567</v>
       </c>
       <c r="B227" s="26" t="s">
         <v>574</v>
       </c>
       <c r="C227" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="D227" s="27" t="s">
         <v>626</v>
       </c>
-      <c r="D227" s="27" t="s">
+      <c r="E227" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="F227" s="20" t="s">
         <v>627</v>
       </c>
-      <c r="E227" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="F227" s="20" t="s">
-        <v>628</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G226" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}"/>
+  <autoFilter ref="A1:G227" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}"/>
   <hyperlinks>
     <hyperlink ref="L11" r:id="rId1" display="https://teams.mdlz.com/:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{C9234C41-0B35-449D-A059-14FCD43DD586}"/>
     <hyperlink ref="L13" r:id="rId2" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{B1E49C27-813B-4F81-B6D4-F88CC7C95F9A}"/>
